--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51671775-3E2A-4D19-9432-11BCBED5D5AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFBC940-D720-49ED-92D2-AD5FBD98E7CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
@@ -303,6 +303,21 @@
     <t>ch2</t>
   </si>
   <si>
+    <t>變數宣告
+ 變數初始值
+ 變數的scope(作用域)
+ 常數const
+ Value Types and Reference Types
+ 整數型別 (12.3f, 60m)
+ 字串型別(string), @"c:\tmp\aaa.doc", $"Hello {name}"
+ 程序流控制 if…else, switch, for, while, do…while, foreach
+ 命名空間(namespace), using, using alisas = NamespaceName;
+ 註解, XML註解
+ #define, #undef, #if, #elif, #else, #endif, #waning, #error
+ #region #endregion
+ C# 保留關鍵字</t>
+  </si>
+  <si>
     <t>ch3</t>
   </si>
   <si>
@@ -1829,223 +1844,12 @@
 通過參數化查詢來防止SQL注入攻擊
 防止跨站點請求偽造(XSRF)</t>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">變數宣告
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">變數初始值
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>變數的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>scope(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>作用域</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">)
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>常數</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">const
- Value Types and Reference Types
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>整數型別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (12.3f, 60m)
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>字串型別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(string), @"c:\tmp\aaa.doc", $"Hello {name}"
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>程序流控制</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> if…else, switch, for, while, do…while, foreach
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>命名空間</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">(namespace), using, using alisas = NamespaceName;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>註解</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, XML</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">註解
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> #define, #undef, #if, #elif, #else, #endif, #waning, #error
- #region #endregion
- C# </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>保留關鍵字</t>
-    </r>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2111,23 +1915,6 @@
       <sz val="9"/>
       <name val="細明體"/>
       <family val="3"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2393,7 +2180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2443,32 +2230,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2519,7 +2280,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2838,7 +2620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2879,12 +2661,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2914,8 +2696,8 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2971,17 +2753,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="42"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3005,8 +2787,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="39"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3039,7 +2821,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="38"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3069,7 +2851,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3099,7 +2881,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3129,7 +2911,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3159,7 +2941,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="38"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3189,7 +2971,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3219,7 +3001,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A13" s="39"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3279,17 +3061,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="42"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3313,8 +3095,8 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
@@ -3347,7 +3129,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="38"/>
+      <c r="A17" s="28"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -3377,7 +3159,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="38"/>
+      <c r="A18" s="28"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3407,7 +3189,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3437,7 +3219,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="38"/>
+      <c r="A20" s="28"/>
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3467,7 +3249,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="38"/>
+      <c r="A21" s="28"/>
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
@@ -3497,7 +3279,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="28"/>
       <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
@@ -3527,7 +3309,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="38"/>
+      <c r="A23" s="28"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -3557,7 +3339,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="66" customHeight="1">
-      <c r="A24" s="39"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
@@ -3587,13 +3369,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="42"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3649,11 +3431,11 @@
       <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="42"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3677,15 +3459,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="27" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3709,13 +3491,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="38"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="49"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="39"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3739,13 +3521,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="38"/>
+      <c r="A30" s="28"/>
       <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="44"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="46"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="36"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3769,13 +3551,13 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="38"/>
+      <c r="A31" s="28"/>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="39"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3799,13 +3581,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A32" s="39"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3829,13 +3611,13 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="42"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -30954,7 +30736,7 @@
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -31100,35 +30882,35 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="47" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="46" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -31144,7 +30926,7 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B5" s="39"/>
+      <c r="B5" s="29"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -31152,7 +30934,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="46" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -31166,7 +30948,7 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B7" s="39"/>
+      <c r="B7" s="29"/>
       <c r="C7" s="23" t="s">
         <v>57</v>
       </c>
@@ -31180,7 +30962,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="46" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -31196,7 +30978,7 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B9" s="39"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="23" t="s">
         <v>64</v>
       </c>
@@ -31206,7 +30988,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="46" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -31222,7 +31004,7 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B11" s="39"/>
+      <c r="B11" s="29"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
         <v>69</v>
@@ -31234,7 +31016,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="46" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="23"/>
@@ -31248,7 +31030,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B13" s="39"/>
+      <c r="B13" s="29"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
@@ -31258,7 +31040,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="46" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23"/>
@@ -31270,7 +31052,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B15" s="39"/>
+      <c r="B15" s="29"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -32323,290 +32105,290 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="59"/>
-    <col min="2" max="2" width="61.33203125" style="59" customWidth="1"/>
-    <col min="3" max="3" width="6" style="59" customWidth="1"/>
-    <col min="4" max="16384" width="14.44140625" style="59"/>
+    <col min="1" max="1" width="14.44140625" style="49"/>
+    <col min="2" max="2" width="61.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="6" style="49" customWidth="1"/>
+    <col min="4" max="16384" width="14.44140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="48" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="185.4">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:3" ht="179.4">
+      <c r="A2" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>522</v>
-      </c>
-      <c r="C2" s="58">
+      <c r="B2" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="220.8">
-      <c r="A3" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="58" t="s">
+      <c r="A3" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="C3" s="58">
+      <c r="B3" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="110.4">
-      <c r="A4" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="58" t="s">
+      <c r="A4" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="58">
+      <c r="B4" s="48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="58" t="s">
+      <c r="A5" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="58">
+      <c r="B5" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="69">
-      <c r="A6" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="58">
+      <c r="B6" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="55.2">
-      <c r="A7" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="58" t="s">
+      <c r="A7" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="58">
+      <c r="B7" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="55.2">
-      <c r="A8" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="58" t="s">
+      <c r="A8" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="58">
+      <c r="B8" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="55.2">
-      <c r="A9" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="58" t="s">
+      <c r="A9" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="58">
+      <c r="B9" s="48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="55.2">
-      <c r="A10" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="58" t="s">
+      <c r="A10" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="58">
+      <c r="B10" s="48" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="110.4">
-      <c r="A11" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="58" t="s">
+      <c r="A11" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="58">
+      <c r="B11" s="48" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="41.4">
-      <c r="A12" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="58">
+      <c r="B12" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="41.4">
-      <c r="A13" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="58" t="s">
+      <c r="A13" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="58">
+      <c r="B13" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="27.6">
-      <c r="A14" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="58" t="s">
+      <c r="A14" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="C14" s="58">
+      <c r="B14" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="58" t="s">
+      <c r="A15" s="48" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="58">
+      <c r="B15" s="48" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="41.4">
-      <c r="A16" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="58" t="s">
+      <c r="A16" s="48" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="58">
+      <c r="B16" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="41.4">
-      <c r="A17" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="48" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="58">
+      <c r="B17" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="27.6">
-      <c r="A18" s="58" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="58" t="s">
+      <c r="A18" s="48" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="58">
+      <c r="B18" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="48">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="96.6">
-      <c r="A19" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="58" t="s">
+      <c r="A19" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C19" s="58">
+      <c r="B19" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="41.4">
-      <c r="A20" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="58" t="s">
+      <c r="A20" s="48" t="s">
         <v>122</v>
       </c>
-      <c r="C20" s="58">
+      <c r="B20" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="58" t="s">
+      <c r="A21" s="48" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="58">
+      <c r="B21" s="48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="41.4">
-      <c r="A22" s="58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="58" t="s">
+      <c r="A22" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="C22" s="58">
+      <c r="B22" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" s="48">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="69">
-      <c r="A23" s="58" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="58" t="s">
+      <c r="A23" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="C23" s="58">
+      <c r="B23" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="48">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="58" t="s">
+      <c r="A24" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="C24" s="58">
+      <c r="B24" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="C24" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27.6">
-      <c r="A25" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B25" s="58" t="s">
+      <c r="A25" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="C25" s="58">
+      <c r="B25" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="C25" s="48">
         <v>3</v>
       </c>
     </row>
@@ -32624,246 +32406,244 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" style="59" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="14.44140625" style="59"/>
+    <col min="1" max="1" width="14.44140625" style="49"/>
+    <col min="2" max="2" width="50.6640625" style="49" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="48" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="60"/>
+      <c r="B2" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:3" ht="55.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="60"/>
+      <c r="B3" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="50"/>
     </row>
     <row r="4" spans="1:3" ht="27.6">
-      <c r="A4" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="C4" s="60"/>
+      <c r="A4" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="50"/>
     </row>
     <row r="5" spans="1:3" ht="55.2">
-      <c r="A5" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="58" t="s">
+      <c r="A5" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="48" t="s">
         <v>138</v>
       </c>
+      <c r="C5" s="48" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="27.6">
+      <c r="A7" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="58" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.6">
-      <c r="A7" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="58" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="41.4">
+      <c r="A8" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="138">
+      <c r="A9" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="151.80000000000001">
+      <c r="A10" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="41.4">
+      <c r="A11" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="41.4">
-      <c r="A8" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="138">
-      <c r="A9" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="151.80000000000001">
-      <c r="A10" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="C10" s="58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="41.4">
-      <c r="A11" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="B11" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="12" spans="1:3" ht="110.4">
-      <c r="A12" s="58" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="58" t="s">
+      <c r="A12" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="C12" s="58" t="s">
-        <v>138</v>
+      <c r="B12" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6">
-      <c r="A13" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="B13" s="58" t="s">
+      <c r="A13" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="C13" s="58" t="s">
-        <v>140</v>
+      <c r="B13" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="69">
-      <c r="A14" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="58" t="s">
-        <v>152</v>
-      </c>
-      <c r="C14" s="58" t="s">
-        <v>140</v>
+      <c r="A14" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="138">
-      <c r="A15" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="58" t="s">
-        <v>153</v>
-      </c>
-      <c r="C15" s="58" t="s">
-        <v>140</v>
+      <c r="A15" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="179.4">
-      <c r="A16" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="58" t="s">
+      <c r="A16" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="C16" s="58" t="s">
-        <v>138</v>
+      <c r="B16" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="48" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="69">
-      <c r="A17" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="58" t="s">
+      <c r="A17" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="58" t="s">
-        <v>140</v>
+      <c r="B17" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="69">
-      <c r="A18" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>140</v>
+      <c r="A18" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="55.2">
-      <c r="A19" s="58" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="58" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>140</v>
+      <c r="A19" s="48" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="58" t="s">
-        <v>140</v>
+      <c r="A20" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="41.4">
-      <c r="A21" s="58" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="58" t="s">
-        <v>140</v>
+      <c r="A21" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="C21" s="48" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32874,1077 +32654,1082 @@
   </sheetPr>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="5" max="5" width="38.88671875" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="49"/>
+    <col min="2" max="2" width="31.5546875" style="49" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" style="49"/>
+    <col min="5" max="5" width="38.88671875" style="49" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" style="49" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>162</v>
-      </c>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="F1" s="51" t="s">
         <v>164</v>
       </c>
+      <c r="G1" s="51" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C2" s="27">
+      <c r="B2" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="48">
         <v>1</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="26" t="s">
+      <c r="E2" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="F2" s="53" t="s">
         <v>168</v>
       </c>
+      <c r="G2" s="53" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>169</v>
-      </c>
-      <c r="C3" s="30">
+      <c r="A3" s="52" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="52">
         <v>1</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>170</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="F3" s="53" t="s">
         <v>172</v>
       </c>
+      <c r="G3" s="53" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="C4" s="30">
+      <c r="A4" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="52">
         <v>1</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="F4" s="26" t="s">
+      <c r="E4" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="26" t="s">
+      <c r="F4" s="53" t="s">
         <v>176</v>
       </c>
+      <c r="G4" s="53" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="C5" s="30">
+      <c r="A5" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="52">
         <v>1</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="F5" s="26" t="s">
+      <c r="E5" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="F5" s="53" t="s">
         <v>180</v>
       </c>
+      <c r="G5" s="53" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="C6" s="30">
+      <c r="A6" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="52">
         <v>1</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="26" t="s">
+      <c r="E6" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="F6" s="53" t="s">
         <v>184</v>
       </c>
+      <c r="G6" s="53" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="30">
+      <c r="A7" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="52">
         <v>2</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>186</v>
-      </c>
-      <c r="F7" s="26" t="s">
+      <c r="E7" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="F7" s="53" t="s">
         <v>188</v>
       </c>
+      <c r="G7" s="53" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="30">
+      <c r="A8" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="52">
         <v>2</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="F8" s="26" t="s">
+      <c r="E8" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="F8" s="53" t="s">
         <v>192</v>
       </c>
+      <c r="G8" s="53" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="30" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="30">
+      <c r="A9" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="52">
         <v>2</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="F9" s="26" t="s">
+      <c r="E9" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="F9" s="53" t="s">
         <v>196</v>
       </c>
+      <c r="G9" s="53" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="30">
+      <c r="A10" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="52">
         <v>2</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="26" t="s">
+      <c r="E10" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="F10" s="53" t="s">
         <v>200</v>
       </c>
+      <c r="G10" s="53" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="C11" s="30">
+      <c r="A11" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="52">
         <v>3</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="26" t="s">
+      <c r="F11" s="53" t="s">
         <v>203</v>
       </c>
+      <c r="G11" s="53" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="30">
+      <c r="A12" s="52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="52">
         <v>3</v>
       </c>
-      <c r="E12" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="F12" s="26" t="s">
+      <c r="E12" s="51" t="s">
         <v>206</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="F12" s="53" t="s">
         <v>207</v>
       </c>
+      <c r="G12" s="53" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" s="30">
+      <c r="A13" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" s="52">
         <v>3</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="26" t="s">
+      <c r="E13" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="F13" s="53" t="s">
         <v>211</v>
       </c>
+      <c r="G13" s="53" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="E14" s="26" t="s">
-        <v>212</v>
-      </c>
-      <c r="F14" s="26" t="s">
+      <c r="E14" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="F14" s="53" t="s">
         <v>214</v>
       </c>
+      <c r="G14" s="53" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="E15" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="F15" s="26" t="s">
+      <c r="E15" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="F15" s="53" t="s">
         <v>217</v>
       </c>
+      <c r="G15" s="53" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="E16" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="F16" s="26" t="s">
+      <c r="E16" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="F16" s="53" t="s">
         <v>220</v>
       </c>
+      <c r="G16" s="53" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="17" spans="5:7">
-      <c r="E17" s="26" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="26" t="s">
+      <c r="E17" s="53" t="s">
         <v>222</v>
       </c>
+      <c r="F17" s="53" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="18" spans="5:7">
-      <c r="E18" s="26" t="s">
-        <v>223</v>
-      </c>
-      <c r="F18" s="26" t="s">
+      <c r="E18" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="53" t="s">
         <v>225</v>
       </c>
+      <c r="G18" s="51" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="19" spans="5:7">
-      <c r="E19" s="26" t="s">
-        <v>226</v>
-      </c>
-      <c r="F19" s="26" t="s">
+      <c r="E19" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="G19" s="26" t="s">
+      <c r="F19" s="53" t="s">
         <v>228</v>
       </c>
+      <c r="G19" s="53" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="20" spans="5:7">
-      <c r="E20" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="F20" s="26" t="s">
+      <c r="E20" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="G20" s="26" t="s">
+      <c r="F20" s="53" t="s">
         <v>231</v>
       </c>
+      <c r="G20" s="53" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="21" spans="5:7">
-      <c r="E21" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="F21" s="26" t="s">
+      <c r="E21" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="G21" s="26" t="s">
+      <c r="F21" s="53" t="s">
         <v>234</v>
       </c>
+      <c r="G21" s="53" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="22" spans="5:7">
-      <c r="E22" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="F22" s="26" t="s">
+      <c r="E22" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="G22" s="26" t="s">
+      <c r="F22" s="53" t="s">
         <v>237</v>
       </c>
+      <c r="G22" s="53" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="23" spans="5:7">
-      <c r="E23" s="26" t="s">
-        <v>238</v>
-      </c>
-      <c r="F23" s="26" t="s">
+      <c r="E23" s="53" t="s">
         <v>239</v>
       </c>
+      <c r="F23" s="53" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="24" spans="5:7">
-      <c r="E24" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="F24" s="26" t="s">
+      <c r="E24" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="F24" s="53" t="s">
         <v>242</v>
       </c>
+      <c r="G24" s="51" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="25" spans="5:7">
-      <c r="E25" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="F25" s="26" t="s">
+      <c r="E25" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="G25" s="26" t="s">
+      <c r="F25" s="53" t="s">
         <v>245</v>
       </c>
+      <c r="G25" s="53" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="26" spans="5:7">
-      <c r="E26" s="26" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" s="26" t="s">
+      <c r="E26" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="F26" s="53" t="s">
         <v>248</v>
       </c>
+      <c r="G26" s="53" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="27" spans="5:7">
-      <c r="E27" s="26" t="s">
-        <v>249</v>
-      </c>
-      <c r="F27" s="26" t="s">
+      <c r="E27" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="26" t="s">
+      <c r="F27" s="53" t="s">
         <v>251</v>
       </c>
+      <c r="G27" s="53" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="28" spans="5:7">
-      <c r="E28" s="26" t="s">
-        <v>252</v>
-      </c>
-      <c r="F28" s="26" t="s">
+      <c r="E28" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="F28" s="53" t="s">
         <v>254</v>
       </c>
+      <c r="G28" s="53" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="29" spans="5:7">
-      <c r="E29" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="F29" s="26" t="s">
+      <c r="E29" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="G29" s="26" t="s">
+      <c r="F29" s="53" t="s">
         <v>257</v>
       </c>
+      <c r="G29" s="53" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="30" spans="5:7">
-      <c r="F30" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="G30" s="26" t="s">
+      <c r="F30" s="53" t="s">
         <v>259</v>
       </c>
+      <c r="G30" s="53" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="31" spans="5:7">
-      <c r="E31" s="29" t="s">
-        <v>260</v>
-      </c>
-      <c r="F31" s="26" t="s">
+      <c r="E31" s="51" t="s">
         <v>261</v>
       </c>
-      <c r="G31" s="26" t="s">
+      <c r="F31" s="53" t="s">
         <v>262</v>
       </c>
+      <c r="G31" s="53" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="32" spans="5:7">
-      <c r="E32" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="F32" s="26" t="s">
+      <c r="E32" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="G32" s="26" t="s">
+      <c r="F32" s="53" t="s">
         <v>265</v>
       </c>
+      <c r="G32" s="53" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="33" spans="5:7">
-      <c r="E33" s="26" t="s">
-        <v>266</v>
-      </c>
-      <c r="F33" s="26" t="s">
+      <c r="E33" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="G33" s="26" t="s">
+      <c r="F33" s="53" t="s">
         <v>268</v>
       </c>
+      <c r="G33" s="53" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="34" spans="5:7">
-      <c r="E34" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F34" s="26" t="s">
+      <c r="E34" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="F34" s="53" t="s">
         <v>271</v>
       </c>
+      <c r="G34" s="53" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="35" spans="5:7">
-      <c r="E35" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="F35" s="53" t="s">
         <v>274</v>
       </c>
+      <c r="G35" s="53" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="36" spans="5:7">
-      <c r="E36" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="F36" s="26" t="s">
+      <c r="E36" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="G36" s="26" t="s">
+      <c r="F36" s="53" t="s">
         <v>277</v>
       </c>
+      <c r="G36" s="53" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="37" spans="5:7">
-      <c r="E37" s="26" t="s">
-        <v>278</v>
-      </c>
-      <c r="F37" s="26" t="s">
+      <c r="E37" s="53" t="s">
         <v>279</v>
       </c>
+      <c r="F37" s="53" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="38" spans="5:7">
-      <c r="E38" s="26" t="s">
-        <v>280</v>
-      </c>
-      <c r="F38" s="26" t="s">
+      <c r="E38" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="F38" s="53" t="s">
         <v>282</v>
       </c>
+      <c r="G38" s="51" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="39" spans="5:7">
-      <c r="E39" s="26" t="s">
-        <v>283</v>
-      </c>
-      <c r="F39" s="26" t="s">
+      <c r="E39" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="F39" s="53" t="s">
         <v>285</v>
       </c>
+      <c r="G39" s="53" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="40" spans="5:7">
-      <c r="E40" s="26" t="s">
-        <v>286</v>
-      </c>
-      <c r="F40" s="26" t="s">
+      <c r="E40" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="F40" s="53" t="s">
         <v>288</v>
       </c>
+      <c r="G40" s="53" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="41" spans="5:7">
-      <c r="E41" s="26" t="s">
-        <v>289</v>
-      </c>
-      <c r="F41" s="26" t="s">
+      <c r="E41" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="F41" s="53" t="s">
         <v>291</v>
       </c>
+      <c r="G41" s="53" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="42" spans="5:7">
-      <c r="E42" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="F42" s="26" t="s">
+      <c r="E42" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="G42" s="26" t="s">
+      <c r="F42" s="53" t="s">
         <v>294</v>
       </c>
+      <c r="G42" s="53" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="43" spans="5:7">
-      <c r="E43" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="F43" s="26" t="s">
+      <c r="E43" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="G43" s="26" t="s">
+      <c r="F43" s="53" t="s">
         <v>297</v>
       </c>
+      <c r="G43" s="53" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="44" spans="5:7">
-      <c r="E44" s="26" t="s">
-        <v>298</v>
-      </c>
-      <c r="F44" s="26" t="s">
+      <c r="E44" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="G44" s="26" t="s">
+      <c r="F44" s="53" t="s">
         <v>300</v>
       </c>
+      <c r="G44" s="53" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="45" spans="5:7">
-      <c r="E45" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="F45" s="26" t="s">
+      <c r="E45" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="G45" s="26" t="s">
+      <c r="F45" s="53" t="s">
         <v>303</v>
       </c>
+      <c r="G45" s="53" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="46" spans="5:7">
-      <c r="E46" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="F46" s="26" t="s">
+      <c r="E46" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="G46" s="26" t="s">
+      <c r="F46" s="53" t="s">
         <v>306</v>
       </c>
+      <c r="G46" s="53" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="47" spans="5:7">
-      <c r="E47" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="F47" s="26" t="s">
+      <c r="E47" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="F47" s="53" t="s">
         <v>309</v>
       </c>
+      <c r="G47" s="53" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="48" spans="5:7">
-      <c r="F48" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="G48" s="26" t="s">
+      <c r="F48" s="53" t="s">
         <v>311</v>
       </c>
+      <c r="G48" s="53" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="49" spans="5:7">
-      <c r="E49" s="29" t="s">
-        <v>312</v>
-      </c>
-      <c r="F49" s="26" t="s">
+      <c r="E49" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="G49" s="26" t="s">
+      <c r="F49" s="53" t="s">
         <v>314</v>
       </c>
+      <c r="G49" s="53" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="50" spans="5:7">
-      <c r="E50" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="F50" s="26" t="s">
+      <c r="E50" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="G50" s="26" t="s">
+      <c r="F50" s="53" t="s">
         <v>317</v>
       </c>
+      <c r="G50" s="53" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="51" spans="5:7">
-      <c r="E51" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="F51" s="26" t="s">
+      <c r="E51" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="F51" s="53" t="s">
         <v>320</v>
       </c>
+      <c r="G51" s="53" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="52" spans="5:7">
-      <c r="E52" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="F52" s="26" t="s">
+      <c r="E52" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="F52" s="53" t="s">
         <v>323</v>
       </c>
+      <c r="G52" s="53" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="53" spans="5:7">
-      <c r="E53" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="F53" s="26" t="s">
+      <c r="E53" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="F53" s="53" t="s">
         <v>326</v>
       </c>
+      <c r="G53" s="53" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="54" spans="5:7">
-      <c r="E54" s="26" t="s">
-        <v>327</v>
-      </c>
-      <c r="G54" s="26" t="s">
+      <c r="E54" s="53" t="s">
         <v>328</v>
       </c>
+      <c r="G54" s="53" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="55" spans="5:7">
-      <c r="E55" s="26" t="s">
-        <v>329</v>
-      </c>
-      <c r="F55" s="29" t="s">
+      <c r="E55" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="G55" s="26" t="s">
+      <c r="F55" s="51" t="s">
         <v>331</v>
       </c>
+      <c r="G55" s="53" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="56" spans="5:7">
-      <c r="E56" s="26" t="s">
-        <v>332</v>
-      </c>
-      <c r="F56" s="26" t="s">
+      <c r="E56" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="G56" s="26" t="s">
+      <c r="F56" s="53" t="s">
         <v>334</v>
       </c>
+      <c r="G56" s="53" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="57" spans="5:7">
-      <c r="E57" s="26" t="s">
-        <v>335</v>
-      </c>
-      <c r="F57" s="26" t="s">
+      <c r="E57" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="F57" s="53" t="s">
         <v>337</v>
       </c>
+      <c r="G57" s="53" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="58" spans="5:7">
-      <c r="E58" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="F58" s="26" t="s">
+      <c r="E58" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="F58" s="53" t="s">
         <v>340</v>
       </c>
+      <c r="G58" s="53" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="59" spans="5:7">
-      <c r="E59" s="26" t="s">
-        <v>341</v>
-      </c>
-      <c r="F59" s="26" t="s">
+      <c r="E59" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="F59" s="53" t="s">
         <v>343</v>
       </c>
+      <c r="G59" s="53" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="60" spans="5:7">
-      <c r="E60" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="F60" s="26" t="s">
+      <c r="E60" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="F60" s="53" t="s">
         <v>346</v>
       </c>
+      <c r="G60" s="53" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="61" spans="5:7">
-      <c r="E61" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="F61" s="26" t="s">
+      <c r="E61" s="53" t="s">
         <v>348</v>
       </c>
+      <c r="F61" s="53" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="62" spans="5:7">
-      <c r="E62" s="26" t="s">
-        <v>349</v>
-      </c>
-      <c r="F62" s="26" t="s">
+      <c r="E62" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="G62" s="29" t="s">
+      <c r="F62" s="53" t="s">
         <v>351</v>
       </c>
+      <c r="G62" s="51" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="63" spans="5:7">
-      <c r="F63" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="G63" s="26" t="s">
+      <c r="F63" s="53" t="s">
         <v>353</v>
       </c>
+      <c r="G63" s="53" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="64" spans="5:7">
-      <c r="E64" s="29" t="s">
-        <v>354</v>
-      </c>
-      <c r="F64" s="26" t="s">
+      <c r="E64" s="51" t="s">
         <v>355</v>
       </c>
-      <c r="G64" s="26" t="s">
+      <c r="F64" s="53" t="s">
         <v>356</v>
       </c>
+      <c r="G64" s="53" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="65" spans="5:7">
-      <c r="E65" s="26" t="s">
-        <v>357</v>
-      </c>
-      <c r="F65" s="26" t="s">
+      <c r="E65" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="G65" s="26" t="s">
+      <c r="F65" s="53" t="s">
         <v>359</v>
       </c>
+      <c r="G65" s="53" t="s">
+        <v>360</v>
+      </c>
     </row>
     <row r="66" spans="5:7">
-      <c r="E66" s="26" t="s">
-        <v>360</v>
-      </c>
-      <c r="F66" s="26" t="s">
+      <c r="E66" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="G66" s="26" t="s">
+      <c r="F66" s="53" t="s">
         <v>362</v>
       </c>
+      <c r="G66" s="53" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="67" spans="5:7">
-      <c r="E67" s="26" t="s">
-        <v>363</v>
-      </c>
-      <c r="F67" s="26" t="s">
+      <c r="E67" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="G67" s="26" t="s">
+      <c r="F67" s="53" t="s">
         <v>365</v>
       </c>
+      <c r="G67" s="53" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="68" spans="5:7">
-      <c r="E68" s="26" t="s">
-        <v>366</v>
-      </c>
-      <c r="F68" s="26" t="s">
+      <c r="E68" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="26" t="s">
+      <c r="F68" s="53" t="s">
         <v>368</v>
       </c>
+      <c r="G68" s="53" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="69" spans="5:7">
-      <c r="E69" s="26" t="s">
-        <v>369</v>
-      </c>
-      <c r="F69" s="26" t="s">
+      <c r="E69" s="53" t="s">
         <v>370</v>
       </c>
+      <c r="F69" s="53" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="70" spans="5:7">
-      <c r="E70" s="26" t="s">
-        <v>371</v>
-      </c>
-      <c r="F70" s="26" t="s">
+      <c r="E70" s="53" t="s">
         <v>372</v>
       </c>
-      <c r="G70" s="29" t="s">
+      <c r="F70" s="53" t="s">
         <v>373</v>
       </c>
+      <c r="G70" s="51" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="71" spans="5:7">
-      <c r="E71" s="26" t="s">
-        <v>374</v>
-      </c>
-      <c r="F71" s="26" t="s">
+      <c r="E71" s="53" t="s">
         <v>375</v>
       </c>
-      <c r="G71" s="26" t="s">
+      <c r="F71" s="53" t="s">
         <v>376</v>
       </c>
+      <c r="G71" s="53" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="72" spans="5:7">
-      <c r="E72" s="26" t="s">
-        <v>377</v>
-      </c>
-      <c r="F72" s="26" t="s">
+      <c r="E72" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="G72" s="26" t="s">
+      <c r="F72" s="53" t="s">
         <v>379</v>
       </c>
+      <c r="G72" s="53" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="73" spans="5:7">
-      <c r="E73" s="26" t="s">
-        <v>380</v>
-      </c>
-      <c r="F73" s="26" t="s">
+      <c r="E73" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="G73" s="26" t="s">
+      <c r="F73" s="53" t="s">
         <v>382</v>
       </c>
+      <c r="G73" s="53" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="74" spans="5:7">
-      <c r="E74" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="F74" s="26" t="s">
+      <c r="E74" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="G74" s="26" t="s">
+      <c r="F74" s="53" t="s">
         <v>385</v>
       </c>
+      <c r="G74" s="53" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="75" spans="5:7">
-      <c r="E75" s="26" t="s">
-        <v>386</v>
-      </c>
-      <c r="G75" s="26" t="s">
+      <c r="E75" s="53" t="s">
         <v>387</v>
       </c>
+      <c r="G75" s="53" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="76" spans="5:7">
-      <c r="E76" s="26" t="s">
-        <v>388</v>
-      </c>
-      <c r="F76" s="29" t="s">
+      <c r="E76" s="53" t="s">
         <v>389</v>
       </c>
-      <c r="G76" s="26" t="s">
+      <c r="F76" s="51" t="s">
         <v>390</v>
       </c>
+      <c r="G76" s="53" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="77" spans="5:7">
-      <c r="E77" s="26" t="s">
-        <v>391</v>
-      </c>
-      <c r="F77" s="26" t="s">
+      <c r="E77" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="G77" s="26" t="s">
+      <c r="F77" s="53" t="s">
         <v>393</v>
       </c>
+      <c r="G77" s="53" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="78" spans="5:7">
-      <c r="E78" s="26" t="s">
-        <v>394</v>
-      </c>
-      <c r="F78" s="26" t="s">
+      <c r="E78" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="G78" s="26" t="s">
+      <c r="F78" s="53" t="s">
         <v>396</v>
       </c>
+      <c r="G78" s="53" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="79" spans="5:7">
-      <c r="F79" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="G79" s="26" t="s">
+      <c r="F79" s="53" t="s">
         <v>398</v>
       </c>
+      <c r="G79" s="53" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="80" spans="5:7">
-      <c r="F80" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G80" s="26" t="s">
+      <c r="F80" s="53" t="s">
         <v>400</v>
       </c>
+      <c r="G80" s="53" t="s">
+        <v>401</v>
+      </c>
     </row>
     <row r="81" spans="6:6">
-      <c r="F81" s="26" t="s">
-        <v>401</v>
+      <c r="F81" s="53" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="6:6">
-      <c r="F82" s="26" t="s">
-        <v>402</v>
+      <c r="F82" s="53" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="83" spans="6:6">
-      <c r="F83" s="26" t="s">
-        <v>403</v>
+      <c r="F83" s="53" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="84" spans="6:6">
-      <c r="F84" s="26" t="s">
-        <v>404</v>
+      <c r="F84" s="53" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="85" spans="6:6">
-      <c r="F85" s="26" t="s">
-        <v>405</v>
+      <c r="F85" s="53" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="87" spans="6:6">
-      <c r="F87" s="29" t="s">
-        <v>406</v>
+      <c r="F87" s="51" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="6:6">
-      <c r="F88" s="26" t="s">
-        <v>407</v>
+      <c r="F88" s="53" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="89" spans="6:6">
-      <c r="F89" s="26" t="s">
-        <v>408</v>
+      <c r="F89" s="53" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="90" spans="6:6">
-      <c r="F90" s="26" t="s">
-        <v>409</v>
+      <c r="F90" s="53" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="91" spans="6:6">
-      <c r="F91" s="26" t="s">
-        <v>410</v>
+      <c r="F91" s="53" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="6:6">
-      <c r="F92" s="26" t="s">
-        <v>411</v>
+      <c r="F92" s="53" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="93" spans="6:6">
-      <c r="F93" s="26" t="s">
-        <v>412</v>
+      <c r="F93" s="53" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="94" spans="6:6">
-      <c r="F94" s="26" t="s">
-        <v>413</v>
+      <c r="F94" s="53" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="95" spans="6:6">
-      <c r="F95" s="26" t="s">
-        <v>414</v>
+      <c r="F95" s="53" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="96" spans="6:6">
-      <c r="F96" s="26" t="s">
-        <v>415</v>
+      <c r="F96" s="53" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="97" spans="6:6">
-      <c r="F97" s="26" t="s">
-        <v>416</v>
+      <c r="F97" s="53" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="98" spans="6:6">
-      <c r="F98" s="26" t="s">
-        <v>417</v>
+      <c r="F98" s="53" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="99" spans="6:6">
-      <c r="F99" s="26" t="s">
-        <v>418</v>
+      <c r="F99" s="53" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="6:6">
-      <c r="F100" s="26" t="s">
-        <v>419</v>
+      <c r="F100" s="53" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="101" spans="6:6">
-      <c r="F101" s="26" t="s">
-        <v>420</v>
+      <c r="F101" s="53" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="102" spans="6:6">
-      <c r="F102" s="26" t="s">
-        <v>421</v>
+      <c r="F102" s="53" t="s">
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -33960,271 +33745,275 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="49"/>
+    <col min="2" max="2" width="32" style="49" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="31" t="s">
-        <v>422</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="27" t="s">
+    <row r="1" spans="1:5" ht="55.8">
+      <c r="A1" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6">
+      <c r="A2" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="30" t="s">
+      <c r="E2" s="53" t="s">
         <v>424</v>
       </c>
-      <c r="C3" s="27">
+    </row>
+    <row r="3" spans="1:5" ht="43.2">
+      <c r="A3" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>425</v>
+      </c>
+      <c r="C3" s="48">
         <v>1</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="27" t="s">
+      <c r="E3" s="53" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8">
+      <c r="A4" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="C4" s="27">
+      <c r="B4" s="48" t="s">
+        <v>427</v>
+      </c>
+      <c r="C4" s="48">
         <v>2</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="E4" s="53" t="s">
         <v>428</v>
       </c>
-      <c r="C5" s="27">
+    </row>
+    <row r="5" spans="1:5" ht="28.8">
+      <c r="A5" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>429</v>
+      </c>
+      <c r="C5" s="48">
         <v>2</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6" s="30" t="s">
+      <c r="E5" s="53" t="s">
         <v>430</v>
       </c>
-      <c r="C6" s="27">
+    </row>
+    <row r="6" spans="1:5" ht="28.8">
+      <c r="A6" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="C6" s="48">
         <v>1</v>
       </c>
-      <c r="E6" s="26" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="30" t="s">
+      <c r="E6" s="53" t="s">
         <v>432</v>
       </c>
-      <c r="C7" s="27">
+    </row>
+    <row r="7" spans="1:5" ht="43.2">
+      <c r="A7" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="52" t="s">
+        <v>433</v>
+      </c>
+      <c r="C7" s="48">
         <v>1</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="30" t="s">
+      <c r="E7" s="53" t="s">
         <v>434</v>
       </c>
-      <c r="C8" s="27">
+    </row>
+    <row r="8" spans="1:5" ht="28.8">
+      <c r="A8" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>435</v>
+      </c>
+      <c r="C8" s="48">
         <v>2</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="E9" s="26" t="s">
+      <c r="E8" s="53" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="26" t="s">
+    <row r="9" spans="1:5" ht="43.2">
+      <c r="E9" s="53" t="s">
         <v>437</v>
       </c>
-      <c r="E10" s="26" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="57.6">
+      <c r="A10" s="53" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="27" t="s">
+      <c r="E10" s="53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2">
+      <c r="A11" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="E11" s="26" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="30" t="s">
+      <c r="E11" s="53" t="s">
         <v>440</v>
       </c>
-      <c r="C12" s="27">
+    </row>
+    <row r="12" spans="1:5" ht="57.6">
+      <c r="A12" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" s="48">
         <v>2</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="27" t="s">
+      <c r="E12" s="53" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2">
+      <c r="A13" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="C13" s="27">
+      <c r="B13" s="48" t="s">
+        <v>443</v>
+      </c>
+      <c r="C13" s="48">
         <v>2</v>
       </c>
-      <c r="E13" s="26" t="s">
-        <v>443</v>
+      <c r="E13" s="53" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>444</v>
-      </c>
-      <c r="C14" s="27">
+      <c r="A14" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="48">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="C15" s="27">
+    <row r="15" spans="1:5" ht="57.6">
+      <c r="A15" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="C15" s="48">
         <v>2</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>446</v>
-      </c>
-      <c r="C16" s="27">
+      <c r="E15" s="53" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2">
+      <c r="A16" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>447</v>
+      </c>
+      <c r="C16" s="48">
         <v>2</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="26" t="s">
+      <c r="E16" s="53" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="26" t="s">
+    <row r="17" spans="5:5" ht="28.8">
+      <c r="E17" s="53" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="26" t="s">
+    <row r="18" spans="5:5" ht="43.2">
+      <c r="E18" s="53" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="26" t="s">
+    <row r="19" spans="5:5" ht="43.2">
+      <c r="E19" s="53" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="26" t="s">
+    <row r="20" spans="5:5" ht="28.8">
+      <c r="E20" s="53" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="26" t="s">
+    <row r="21" spans="5:5" ht="28.8">
+      <c r="E21" s="53" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="26" t="s">
+    <row r="22" spans="5:5" ht="43.2">
+      <c r="E22" s="53" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="26" t="s">
+    <row r="23" spans="5:5" ht="28.8">
+      <c r="E23" s="53" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="26" t="s">
+    <row r="24" spans="5:5" ht="28.8">
+      <c r="E24" s="53" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="26" t="s">
+    <row r="25" spans="5:5" ht="28.8">
+      <c r="E25" s="53" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="26" t="s">
+    <row r="26" spans="5:5" ht="28.8">
+      <c r="E26" s="53" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="26" t="s">
+    <row r="27" spans="5:5" ht="28.8">
+      <c r="E27" s="53" t="s">
         <v>459</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" ht="28.8">
+      <c r="E28" s="53" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -34240,26 +34029,29 @@
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" style="49" customWidth="1"/>
+    <col min="2" max="16384" width="14.44140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="26" t="s">
-        <v>460</v>
+      <c r="A1" s="53" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="26" t="s">
-        <v>461</v>
+      <c r="A2" s="53" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="26" t="s">
-        <v>462</v>
+      <c r="A3" s="53" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -34275,294 +34067,295 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="105.33203125" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="105.33203125" style="49" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="49"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="27" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="B1" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>464</v>
+      <c r="C1" s="48" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="26" t="s">
+      <c r="A2" s="55" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="35" t="s">
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="53" t="s">
         <v>467</v>
       </c>
-      <c r="B3" s="27" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="69">
+      <c r="A3" s="57" t="s">
         <v>468</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="36" t="s">
+      <c r="B3" s="48" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="35" t="s">
+      <c r="C3" s="50"/>
+      <c r="D3" s="58" t="s">
         <v>470</v>
       </c>
-      <c r="B4" s="27" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="55.2">
+      <c r="A4" s="57" t="s">
         <v>471</v>
       </c>
-      <c r="C4" s="28"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="35" t="s">
+      <c r="B4" s="48" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C4" s="50"/>
+    </row>
+    <row r="5" spans="1:4" ht="69">
+      <c r="A5" s="57" t="s">
         <v>473</v>
       </c>
-      <c r="C5" s="28"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="35" t="s">
+      <c r="B5" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C5" s="50"/>
+    </row>
+    <row r="6" spans="1:4" ht="55.2">
+      <c r="A6" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="C6" s="28"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="35" t="s">
+      <c r="B6" s="48" t="s">
         <v>476</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C6" s="50"/>
+    </row>
+    <row r="7" spans="1:4" ht="41.4">
+      <c r="A7" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="C7" s="28"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="35" t="s">
+      <c r="B7" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="C7" s="50"/>
+    </row>
+    <row r="8" spans="1:4" ht="27.6">
+      <c r="A8" s="57" t="s">
         <v>479</v>
       </c>
-      <c r="C8" s="28"/>
+      <c r="B8" s="48" t="s">
+        <v>480</v>
+      </c>
+      <c r="C8" s="50"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="32" t="s">
-        <v>480</v>
-      </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="35" t="s">
+      <c r="A9" s="55" t="s">
         <v>481</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+    </row>
+    <row r="10" spans="1:4" ht="41.4">
+      <c r="A10" s="57" t="s">
         <v>482</v>
       </c>
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="35" t="s">
+      <c r="B10" s="48" t="s">
         <v>483</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="C10" s="50"/>
+    </row>
+    <row r="11" spans="1:4" ht="82.8">
+      <c r="A11" s="57" t="s">
         <v>484</v>
       </c>
-      <c r="C11" s="28"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="35" t="s">
+      <c r="B11" s="48" t="s">
         <v>485</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="C11" s="50"/>
+    </row>
+    <row r="12" spans="1:4" ht="55.2">
+      <c r="A12" s="57" t="s">
         <v>486</v>
       </c>
-      <c r="C12" s="28"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="35" t="s">
+      <c r="B12" s="48" t="s">
         <v>487</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="C12" s="50"/>
+    </row>
+    <row r="13" spans="1:4" ht="41.4">
+      <c r="A13" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="35" t="s">
+      <c r="B13" s="48" t="s">
         <v>489</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="C13" s="50"/>
+    </row>
+    <row r="14" spans="1:4" ht="27.6">
+      <c r="A14" s="57" t="s">
         <v>490</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="B14" s="48" t="s">
+        <v>491</v>
+      </c>
+      <c r="C14" s="50"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="32" t="s">
-        <v>491</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="35" t="s">
+      <c r="A15" s="55" t="s">
         <v>492</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+    </row>
+    <row r="16" spans="1:4" ht="41.4">
+      <c r="A16" s="57" t="s">
         <v>493</v>
       </c>
-      <c r="C16" s="28"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="35" t="s">
+      <c r="B16" s="48" t="s">
         <v>494</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C16" s="50"/>
+    </row>
+    <row r="17" spans="1:3" ht="55.2">
+      <c r="A17" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="C17" s="28"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="35" t="s">
+      <c r="B17" s="48" t="s">
         <v>496</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="C17" s="50"/>
+    </row>
+    <row r="18" spans="1:3" ht="55.2">
+      <c r="A18" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="C18" s="28"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="35" t="s">
+      <c r="B18" s="48" t="s">
         <v>498</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="C18" s="50"/>
+    </row>
+    <row r="19" spans="1:3" ht="69">
+      <c r="A19" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="C19" s="28"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="35" t="s">
+      <c r="B19" s="48" t="s">
         <v>500</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="C19" s="50"/>
+    </row>
+    <row r="20" spans="1:3" ht="69">
+      <c r="A20" s="57" t="s">
         <v>501</v>
       </c>
-      <c r="C20" s="28"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="35" t="s">
+      <c r="B20" s="48" t="s">
         <v>502</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="C20" s="50"/>
+    </row>
+    <row r="21" spans="1:3" ht="43.2">
+      <c r="A21" s="57" t="s">
         <v>503</v>
       </c>
-      <c r="C21" s="28"/>
+      <c r="B21" s="52" t="s">
+        <v>504</v>
+      </c>
+      <c r="C21" s="50"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="32" t="s">
-        <v>504</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="35" t="s">
+      <c r="A22" s="55" t="s">
         <v>505</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+    </row>
+    <row r="23" spans="1:3" ht="55.2">
+      <c r="A23" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="C23" s="28"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="35" t="s">
+      <c r="B23" s="48" t="s">
         <v>507</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="1:3" ht="41.4">
+      <c r="A24" s="57" t="s">
         <v>508</v>
       </c>
-      <c r="C24" s="28"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="35" t="s">
+      <c r="B24" s="48" t="s">
         <v>509</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:3" ht="27.6">
+      <c r="A25" s="57" t="s">
         <v>510</v>
       </c>
-      <c r="C25" s="28"/>
+      <c r="B25" s="48" t="s">
+        <v>511</v>
+      </c>
+      <c r="C25" s="50"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="32" t="s">
-        <v>511</v>
-      </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="35" t="s">
+      <c r="A26" s="55" t="s">
         <v>512</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+    </row>
+    <row r="27" spans="1:3" ht="151.80000000000001">
+      <c r="A27" s="57" t="s">
         <v>513</v>
       </c>
-      <c r="C27" s="28"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="35" t="s">
+      <c r="B27" s="48" t="s">
         <v>514</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="1:3" ht="69">
+      <c r="A28" s="57" t="s">
         <v>515</v>
       </c>
-      <c r="C28" s="28"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="35" t="s">
+      <c r="B28" s="48" t="s">
         <v>516</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="1:3" ht="41.4">
+      <c r="A29" s="57" t="s">
         <v>517</v>
       </c>
-      <c r="C29" s="28"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="35" t="s">
+      <c r="B29" s="48" t="s">
         <v>518</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="C29" s="50"/>
+    </row>
+    <row r="30" spans="1:3" ht="55.2">
+      <c r="A30" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="C30" s="28"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="35" t="s">
+      <c r="B30" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="C30" s="50"/>
+    </row>
+    <row r="31" spans="1:3" ht="82.8">
+      <c r="A31" s="57" t="s">
         <v>521</v>
       </c>
-      <c r="C31" s="28"/>
+      <c r="B31" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="C31" s="50"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFBC940-D720-49ED-92D2-AD5FBD98E7CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F50B9-BF8A-4E6A-AECE-555038CD8E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
     <sheet name="RD績效評核簡易" sheetId="2" r:id="rId2"/>
     <sheet name="各職級技能表" sheetId="3" r:id="rId3"/>
     <sheet name="C#" sheetId="4" r:id="rId4"/>
-    <sheet name="SQL語法" sheetId="5" r:id="rId5"/>
-    <sheet name="SQL管理" sheetId="6" r:id="rId6"/>
-    <sheet name="Windows管理" sheetId="7" r:id="rId7"/>
-    <sheet name="Bootstrap" sheetId="8" r:id="rId8"/>
-    <sheet name="MVC" sheetId="9" r:id="rId9"/>
+    <sheet name="MVC" sheetId="9" r:id="rId5"/>
+    <sheet name="SQL語法" sheetId="5" r:id="rId6"/>
+    <sheet name="SQL管理" sheetId="6" r:id="rId7"/>
+    <sheet name="Windows管理" sheetId="7" r:id="rId8"/>
+    <sheet name="Bootstrap" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -514,9 +514,6 @@
     <t>ch26</t>
   </si>
   <si>
-    <t>EntityFramework</t>
-  </si>
-  <si>
     <t>ch28</t>
   </si>
   <si>
@@ -1843,6 +1840,10 @@
 實現延遲驗證並處理未經驗證的請求
 通過參數化查詢來防止SQL注入攻擊
 防止跨站點請求偽造(XSRF)</t>
+  </si>
+  <si>
+    <t>EntityFramework</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -32105,8 +32106,8 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -32196,43 +32197,43 @@
     </row>
     <row r="8" spans="1:3" ht="55.2">
       <c r="A8" s="48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B8" s="48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C8" s="48">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="55.2">
       <c r="A9" s="48" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C9" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="55.2">
+    <row r="10" spans="1:3" ht="110.4">
       <c r="A10" s="48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C10" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="110.4">
+    <row r="11" spans="1:3" ht="41.4">
       <c r="A11" s="48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" s="48">
         <v>1</v>
@@ -32240,101 +32241,101 @@
     </row>
     <row r="12" spans="1:3" ht="41.4">
       <c r="A12" s="48" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C12" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="41.4">
+    <row r="13" spans="1:3" ht="27.6">
       <c r="A13" s="48" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B13" s="48" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="27.6">
+    <row r="14" spans="1:3" ht="41.4">
       <c r="A14" s="48" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="B14" s="48" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="C14" s="48">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" ht="69">
       <c r="A15" s="48" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="C15" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="41.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="55.2">
       <c r="A16" s="48" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="C16" s="48">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="41.4">
+    <row r="17" spans="1:3">
       <c r="A17" s="48" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C17" s="48">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="27.6">
+    <row r="18" spans="1:3" ht="41.4">
       <c r="A18" s="48" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C18" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="96.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="41.4">
       <c r="A19" s="48" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" s="48">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="41.4">
+    <row r="20" spans="1:3" ht="96.6">
       <c r="A20" s="48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" s="48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -32348,65 +32349,374 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="41.4">
+    <row r="22" spans="1:3">
       <c r="A22" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="48" t="s">
+        <v>522</v>
+      </c>
+      <c r="C22" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="27.6">
+      <c r="A23" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" s="48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="41.4">
+      <c r="A24" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="B22" s="48" t="s">
+      <c r="B24" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C24" s="48">
         <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="69">
-      <c r="A23" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>129</v>
-      </c>
-      <c r="C23" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="48" t="s">
-        <v>130</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>131</v>
-      </c>
-      <c r="C24" s="48">
-        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="48" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="48" t="s">
         <v>132</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>133</v>
       </c>
       <c r="C25" s="48">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:C25">
+    <sortCondition ref="C2"/>
+  </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="56.5546875" style="49" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="49" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="105.33203125" style="49" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="48" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="48" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="55" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="53" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="69">
+      <c r="A3" s="57" t="s">
+        <v>467</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>468</v>
+      </c>
+      <c r="C3" s="50"/>
+      <c r="D3" s="58" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="55.2">
+      <c r="A4" s="57" t="s">
+        <v>470</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>471</v>
+      </c>
+      <c r="C4" s="50"/>
+    </row>
+    <row r="5" spans="1:4" ht="69">
+      <c r="A5" s="57" t="s">
+        <v>472</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>473</v>
+      </c>
+      <c r="C5" s="50"/>
+    </row>
+    <row r="6" spans="1:4" ht="55.2">
+      <c r="A6" s="57" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>475</v>
+      </c>
+      <c r="C6" s="50"/>
+    </row>
+    <row r="7" spans="1:4" ht="41.4">
+      <c r="A7" s="57" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" s="50"/>
+    </row>
+    <row r="8" spans="1:4" ht="27.6">
+      <c r="A8" s="57" t="s">
+        <v>478</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>479</v>
+      </c>
+      <c r="C8" s="50"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="55" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+    </row>
+    <row r="10" spans="1:4" ht="41.4">
+      <c r="A10" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>482</v>
+      </c>
+      <c r="C10" s="50"/>
+    </row>
+    <row r="11" spans="1:4" ht="82.8">
+      <c r="A11" s="57" t="s">
+        <v>483</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>484</v>
+      </c>
+      <c r="C11" s="50"/>
+    </row>
+    <row r="12" spans="1:4" ht="55.2">
+      <c r="A12" s="57" t="s">
+        <v>485</v>
+      </c>
+      <c r="B12" s="48" t="s">
+        <v>486</v>
+      </c>
+      <c r="C12" s="50"/>
+    </row>
+    <row r="13" spans="1:4" ht="41.4">
+      <c r="A13" s="57" t="s">
+        <v>487</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" s="50"/>
+    </row>
+    <row r="14" spans="1:4" ht="27.6">
+      <c r="A14" s="57" t="s">
+        <v>489</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>490</v>
+      </c>
+      <c r="C14" s="50"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+    </row>
+    <row r="16" spans="1:4" ht="41.4">
+      <c r="A16" s="57" t="s">
+        <v>492</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>493</v>
+      </c>
+      <c r="C16" s="50"/>
+    </row>
+    <row r="17" spans="1:3" ht="55.2">
+      <c r="A17" s="57" t="s">
+        <v>494</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>495</v>
+      </c>
+      <c r="C17" s="50"/>
+    </row>
+    <row r="18" spans="1:3" ht="55.2">
+      <c r="A18" s="57" t="s">
+        <v>496</v>
+      </c>
+      <c r="B18" s="48" t="s">
+        <v>497</v>
+      </c>
+      <c r="C18" s="50"/>
+    </row>
+    <row r="19" spans="1:3" ht="69">
+      <c r="A19" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="B19" s="48" t="s">
+        <v>499</v>
+      </c>
+      <c r="C19" s="50"/>
+    </row>
+    <row r="20" spans="1:3" ht="69">
+      <c r="A20" s="57" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="48" t="s">
+        <v>501</v>
+      </c>
+      <c r="C20" s="50"/>
+    </row>
+    <row r="21" spans="1:3" ht="43.2">
+      <c r="A21" s="57" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>503</v>
+      </c>
+      <c r="C21" s="50"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="55" t="s">
+        <v>504</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+    </row>
+    <row r="23" spans="1:3" ht="55.2">
+      <c r="A23" s="57" t="s">
+        <v>505</v>
+      </c>
+      <c r="B23" s="48" t="s">
+        <v>506</v>
+      </c>
+      <c r="C23" s="50"/>
+    </row>
+    <row r="24" spans="1:3" ht="41.4">
+      <c r="A24" s="57" t="s">
+        <v>507</v>
+      </c>
+      <c r="B24" s="48" t="s">
+        <v>508</v>
+      </c>
+      <c r="C24" s="50"/>
+    </row>
+    <row r="25" spans="1:3" ht="27.6">
+      <c r="A25" s="57" t="s">
+        <v>509</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>510</v>
+      </c>
+      <c r="C25" s="50"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="55" t="s">
+        <v>511</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="56"/>
+    </row>
+    <row r="27" spans="1:3" ht="151.80000000000001">
+      <c r="A27" s="57" t="s">
+        <v>512</v>
+      </c>
+      <c r="B27" s="48" t="s">
+        <v>513</v>
+      </c>
+      <c r="C27" s="50"/>
+    </row>
+    <row r="28" spans="1:3" ht="69">
+      <c r="A28" s="57" t="s">
+        <v>514</v>
+      </c>
+      <c r="B28" s="48" t="s">
+        <v>515</v>
+      </c>
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="1:3" ht="41.4">
+      <c r="A29" s="57" t="s">
+        <v>516</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>517</v>
+      </c>
+      <c r="C29" s="50"/>
+    </row>
+    <row r="30" spans="1:3" ht="55.2">
+      <c r="A30" s="57" t="s">
+        <v>518</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>519</v>
+      </c>
+      <c r="C30" s="50"/>
+    </row>
+    <row r="31" spans="1:3" ht="82.8">
+      <c r="A31" s="57" t="s">
+        <v>520</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>521</v>
+      </c>
+      <c r="C31" s="50"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -32416,7 +32726,7 @@
     <col min="3" max="16384" width="14.44140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" s="48" t="s">
         <v>83</v>
       </c>
@@ -32427,174 +32737,183 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>135</v>
-      </c>
       <c r="C2" s="50"/>
-    </row>
-    <row r="3" spans="1:3" ht="55.2">
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="50"/>
+    </row>
+    <row r="3" spans="1:6" ht="55.2">
       <c r="A3" s="48" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C3" s="50"/>
-    </row>
-    <row r="4" spans="1:3" ht="27.6">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="50"/>
+    </row>
+    <row r="4" spans="1:6" ht="27.6">
       <c r="A4" s="48" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="50"/>
-    </row>
-    <row r="5" spans="1:3" ht="55.2">
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="50"/>
+    </row>
+    <row r="5" spans="1:6" ht="55.2">
       <c r="A5" s="48" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:6" ht="27.6">
       <c r="A6" s="48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C6" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="27.6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="41.4">
       <c r="A7" s="48" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B7" s="48" t="s">
         <v>142</v>
       </c>
       <c r="C7" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="41.4">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="138">
       <c r="A8" s="48" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" s="48" t="s">
         <v>143</v>
       </c>
       <c r="C8" s="48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="151.80000000000001">
+      <c r="A9" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="110.4">
+      <c r="A10" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="179.4">
+      <c r="A11" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="48" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="138">
-      <c r="A9" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="151.80000000000001">
-      <c r="A10" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="B10" s="48" t="s">
+      <c r="C12" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="41.4">
+      <c r="A13" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="41.4">
-      <c r="A11" s="48" t="s">
+      <c r="B13" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="110.4">
-      <c r="A12" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="48" t="s">
+      <c r="C13" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27.6">
+      <c r="A14" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27.6">
-      <c r="A13" s="48" t="s">
+      <c r="B14" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="C14" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="69">
+      <c r="A15" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="69">
-      <c r="A14" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="48" t="s">
+      <c r="C15" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="138">
+      <c r="A16" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="C14" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="138">
-      <c r="A15" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="179.4">
-      <c r="A16" s="48" t="s">
-        <v>155</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>156</v>
-      </c>
       <c r="C16" s="48" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="69">
       <c r="A17" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>158</v>
-      </c>
       <c r="C17" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="69">
@@ -32602,10 +32921,10 @@
         <v>110</v>
       </c>
       <c r="B18" s="48" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="55.2">
@@ -32613,10 +32932,10 @@
         <v>112</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -32624,10 +32943,10 @@
         <v>114</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="41.4">
@@ -32635,19 +32954,22 @@
         <v>116</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:C21">
+    <sortCondition ref="C5"/>
+  </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -32655,7 +32977,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -32680,13 +33002,13 @@
         <v>85</v>
       </c>
       <c r="E1" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="G1" s="51" t="s">
         <v>164</v>
-      </c>
-      <c r="G1" s="51" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -32694,19 +33016,19 @@
         <v>86</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C2" s="48">
         <v>1</v>
       </c>
       <c r="E2" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="53" t="s">
         <v>167</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="G2" s="53" t="s">
         <v>168</v>
-      </c>
-      <c r="G2" s="53" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -32714,19 +33036,19 @@
         <v>88</v>
       </c>
       <c r="B3" s="48" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" s="52">
         <v>1</v>
       </c>
       <c r="E3" s="53" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="53" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="G3" s="53" t="s">
         <v>172</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -32734,19 +33056,19 @@
         <v>90</v>
       </c>
       <c r="B4" s="48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="52">
         <v>1</v>
       </c>
       <c r="E4" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="F4" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="G4" s="53" t="s">
         <v>176</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -32754,19 +33076,19 @@
         <v>92</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C5" s="52">
         <v>1</v>
       </c>
       <c r="E5" s="53" t="s">
+        <v>178</v>
+      </c>
+      <c r="F5" s="53" t="s">
         <v>179</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="G5" s="53" t="s">
         <v>180</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -32774,19 +33096,19 @@
         <v>94</v>
       </c>
       <c r="B6" s="48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C6" s="52">
         <v>1</v>
       </c>
       <c r="E6" s="53" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="53" t="s">
         <v>183</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="G6" s="53" t="s">
         <v>184</v>
-      </c>
-      <c r="G6" s="53" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -32794,19 +33116,19 @@
         <v>96</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="52">
         <v>2</v>
       </c>
       <c r="E7" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="53" t="s">
         <v>187</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="G7" s="53" t="s">
         <v>188</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -32814,19 +33136,19 @@
         <v>98</v>
       </c>
       <c r="B8" s="52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="52">
         <v>2</v>
       </c>
       <c r="E8" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="G8" s="53" t="s">
         <v>192</v>
-      </c>
-      <c r="G8" s="53" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -32834,19 +33156,19 @@
         <v>100</v>
       </c>
       <c r="B9" s="48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C9" s="52">
         <v>2</v>
       </c>
       <c r="E9" s="53" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="53" t="s">
         <v>195</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="G9" s="53" t="s">
         <v>196</v>
-      </c>
-      <c r="G9" s="53" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -32854,19 +33176,19 @@
         <v>102</v>
       </c>
       <c r="B10" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C10" s="52">
         <v>2</v>
       </c>
       <c r="E10" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F10" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="G10" s="53" t="s">
         <v>200</v>
-      </c>
-      <c r="G10" s="53" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -32874,16 +33196,16 @@
         <v>104</v>
       </c>
       <c r="B11" s="48" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="52">
         <v>3</v>
       </c>
       <c r="F11" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="G11" s="53" t="s">
         <v>203</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -32891,19 +33213,19 @@
         <v>106</v>
       </c>
       <c r="B12" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C12" s="52">
         <v>3</v>
       </c>
       <c r="E12" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="F12" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="G12" s="53" t="s">
         <v>207</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -32911,1109 +33233,825 @@
         <v>108</v>
       </c>
       <c r="B13" s="52" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C13" s="52">
         <v>3</v>
       </c>
       <c r="E13" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="F13" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="G13" s="53" t="s">
         <v>211</v>
-      </c>
-      <c r="G13" s="53" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="F14" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="G14" s="53" t="s">
         <v>214</v>
-      </c>
-      <c r="G14" s="53" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="E15" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="F15" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="G15" s="53" t="s">
         <v>217</v>
-      </c>
-      <c r="G15" s="53" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="F16" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="G16" s="53" t="s">
         <v>220</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="53" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="53" t="s">
         <v>222</v>
-      </c>
-      <c r="F17" s="53" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="53" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="53" t="s">
         <v>224</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="G18" s="51" t="s">
         <v>225</v>
-      </c>
-      <c r="G18" s="51" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="F19" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="G19" s="53" t="s">
         <v>228</v>
-      </c>
-      <c r="G19" s="53" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="F20" s="53" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="G20" s="53" t="s">
         <v>231</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="F21" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="G21" s="53" t="s">
         <v>234</v>
-      </c>
-      <c r="G21" s="53" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="G22" s="53" t="s">
         <v>237</v>
-      </c>
-      <c r="G22" s="53" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="53" t="s">
         <v>239</v>
-      </c>
-      <c r="F23" s="53" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="F24" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="G24" s="51" t="s">
         <v>242</v>
-      </c>
-      <c r="G24" s="51" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="G25" s="53" t="s">
         <v>245</v>
-      </c>
-      <c r="G25" s="53" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="G26" s="53" t="s">
         <v>248</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="F27" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="G27" s="53" t="s">
         <v>251</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" s="53" t="s">
+        <v>252</v>
+      </c>
+      <c r="F28" s="53" t="s">
         <v>253</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="G28" s="53" t="s">
         <v>254</v>
-      </c>
-      <c r="G28" s="53" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="53" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29" s="53" t="s">
         <v>256</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="G29" s="53" t="s">
         <v>257</v>
-      </c>
-      <c r="G29" s="53" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="F30" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="G30" s="53" t="s">
         <v>259</v>
-      </c>
-      <c r="G30" s="53" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="F31" s="53" t="s">
         <v>261</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="G31" s="53" t="s">
         <v>262</v>
-      </c>
-      <c r="G31" s="53" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="53" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32" s="53" t="s">
         <v>264</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="G32" s="53" t="s">
         <v>265</v>
-      </c>
-      <c r="G32" s="53" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="F33" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="G33" s="53" t="s">
         <v>268</v>
-      </c>
-      <c r="G33" s="53" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="F34" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="G34" s="53" t="s">
         <v>271</v>
-      </c>
-      <c r="G34" s="53" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="G35" s="53" t="s">
         <v>274</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" s="53" t="s">
+        <v>275</v>
+      </c>
+      <c r="F36" s="53" t="s">
         <v>276</v>
       </c>
-      <c r="F36" s="53" t="s">
+      <c r="G36" s="53" t="s">
         <v>277</v>
-      </c>
-      <c r="G36" s="53" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" s="53" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="53" t="s">
         <v>279</v>
-      </c>
-      <c r="F37" s="53" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" s="53" t="s">
+        <v>280</v>
+      </c>
+      <c r="F38" s="53" t="s">
         <v>281</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="G38" s="51" t="s">
         <v>282</v>
-      </c>
-      <c r="G38" s="51" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" s="53" t="s">
+        <v>283</v>
+      </c>
+      <c r="F39" s="53" t="s">
         <v>284</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="G39" s="53" t="s">
         <v>285</v>
-      </c>
-      <c r="G39" s="53" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="F40" s="53" t="s">
         <v>287</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="G40" s="53" t="s">
         <v>288</v>
-      </c>
-      <c r="G40" s="53" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" s="53" t="s">
+        <v>289</v>
+      </c>
+      <c r="F41" s="53" t="s">
         <v>290</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="G41" s="53" t="s">
         <v>291</v>
-      </c>
-      <c r="G41" s="53" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="53" t="s">
         <v>293</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="G42" s="53" t="s">
         <v>294</v>
-      </c>
-      <c r="G42" s="53" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" s="53" t="s">
+        <v>295</v>
+      </c>
+      <c r="F43" s="53" t="s">
         <v>296</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="G43" s="53" t="s">
         <v>297</v>
-      </c>
-      <c r="G43" s="53" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="F44" s="53" t="s">
         <v>299</v>
       </c>
-      <c r="F44" s="53" t="s">
+      <c r="G44" s="53" t="s">
         <v>300</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="53" t="s">
+        <v>301</v>
+      </c>
+      <c r="F45" s="53" t="s">
         <v>302</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="G45" s="53" t="s">
         <v>303</v>
-      </c>
-      <c r="G45" s="53" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="F46" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="G46" s="53" t="s">
         <v>306</v>
-      </c>
-      <c r="G46" s="53" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="53" t="s">
+        <v>307</v>
+      </c>
+      <c r="F47" s="53" t="s">
         <v>308</v>
       </c>
-      <c r="F47" s="53" t="s">
+      <c r="G47" s="53" t="s">
         <v>309</v>
-      </c>
-      <c r="G47" s="53" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="F48" s="53" t="s">
+        <v>310</v>
+      </c>
+      <c r="G48" s="53" t="s">
         <v>311</v>
-      </c>
-      <c r="G48" s="53" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="F49" s="53" t="s">
         <v>313</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="G49" s="53" t="s">
         <v>314</v>
-      </c>
-      <c r="G49" s="53" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" s="53" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" s="53" t="s">
         <v>316</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="G50" s="53" t="s">
         <v>317</v>
-      </c>
-      <c r="G50" s="53" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" s="53" t="s">
+        <v>318</v>
+      </c>
+      <c r="F51" s="53" t="s">
         <v>319</v>
       </c>
-      <c r="F51" s="53" t="s">
+      <c r="G51" s="53" t="s">
         <v>320</v>
-      </c>
-      <c r="G51" s="53" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="53" t="s">
+        <v>321</v>
+      </c>
+      <c r="F52" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="F52" s="53" t="s">
+      <c r="G52" s="53" t="s">
         <v>323</v>
-      </c>
-      <c r="G52" s="53" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="F53" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="F53" s="53" t="s">
+      <c r="G53" s="53" t="s">
         <v>326</v>
-      </c>
-      <c r="G53" s="53" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" s="53" t="s">
+        <v>327</v>
+      </c>
+      <c r="G54" s="53" t="s">
         <v>328</v>
-      </c>
-      <c r="G54" s="53" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="F55" s="51" t="s">
         <v>330</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="G55" s="53" t="s">
         <v>331</v>
-      </c>
-      <c r="G55" s="53" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" s="53" t="s">
+        <v>332</v>
+      </c>
+      <c r="F56" s="53" t="s">
         <v>333</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="G56" s="53" t="s">
         <v>334</v>
-      </c>
-      <c r="G56" s="53" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="F57" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="F57" s="53" t="s">
+      <c r="G57" s="53" t="s">
         <v>337</v>
-      </c>
-      <c r="G57" s="53" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="F58" s="53" t="s">
         <v>339</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="G58" s="53" t="s">
         <v>340</v>
-      </c>
-      <c r="G58" s="53" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="F59" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="F59" s="53" t="s">
+      <c r="G59" s="53" t="s">
         <v>343</v>
-      </c>
-      <c r="G59" s="53" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="F60" s="53" t="s">
         <v>345</v>
       </c>
-      <c r="F60" s="53" t="s">
+      <c r="G60" s="53" t="s">
         <v>346</v>
-      </c>
-      <c r="G60" s="53" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="F61" s="53" t="s">
         <v>348</v>
-      </c>
-      <c r="F61" s="53" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="F62" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="F62" s="53" t="s">
+      <c r="G62" s="51" t="s">
         <v>351</v>
-      </c>
-      <c r="G62" s="51" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="F63" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="G63" s="53" t="s">
         <v>353</v>
-      </c>
-      <c r="G63" s="53" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" s="51" t="s">
+        <v>354</v>
+      </c>
+      <c r="F64" s="53" t="s">
         <v>355</v>
       </c>
-      <c r="F64" s="53" t="s">
+      <c r="G64" s="53" t="s">
         <v>356</v>
-      </c>
-      <c r="G64" s="53" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" s="53" t="s">
+        <v>357</v>
+      </c>
+      <c r="F65" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="F65" s="53" t="s">
+      <c r="G65" s="53" t="s">
         <v>359</v>
-      </c>
-      <c r="G65" s="53" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" s="53" t="s">
+        <v>360</v>
+      </c>
+      <c r="F66" s="53" t="s">
         <v>361</v>
       </c>
-      <c r="F66" s="53" t="s">
+      <c r="G66" s="53" t="s">
         <v>362</v>
-      </c>
-      <c r="G66" s="53" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="F67" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="F67" s="53" t="s">
+      <c r="G67" s="53" t="s">
         <v>365</v>
-      </c>
-      <c r="G67" s="53" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="F68" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="F68" s="53" t="s">
+      <c r="G68" s="53" t="s">
         <v>368</v>
-      </c>
-      <c r="G68" s="53" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="F69" s="53" t="s">
         <v>370</v>
-      </c>
-      <c r="F69" s="53" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" s="53" t="s">
+        <v>371</v>
+      </c>
+      <c r="F70" s="53" t="s">
         <v>372</v>
       </c>
-      <c r="F70" s="53" t="s">
+      <c r="G70" s="51" t="s">
         <v>373</v>
-      </c>
-      <c r="G70" s="51" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="F71" s="53" t="s">
         <v>375</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="G71" s="53" t="s">
         <v>376</v>
-      </c>
-      <c r="G71" s="53" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="F72" s="53" t="s">
         <v>378</v>
       </c>
-      <c r="F72" s="53" t="s">
+      <c r="G72" s="53" t="s">
         <v>379</v>
-      </c>
-      <c r="G72" s="53" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" s="53" t="s">
+        <v>380</v>
+      </c>
+      <c r="F73" s="53" t="s">
         <v>381</v>
       </c>
-      <c r="F73" s="53" t="s">
+      <c r="G73" s="53" t="s">
         <v>382</v>
-      </c>
-      <c r="G73" s="53" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="F74" s="53" t="s">
         <v>384</v>
       </c>
-      <c r="F74" s="53" t="s">
+      <c r="G74" s="53" t="s">
         <v>385</v>
-      </c>
-      <c r="G74" s="53" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="G75" s="53" t="s">
         <v>387</v>
-      </c>
-      <c r="G75" s="53" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" s="53" t="s">
+        <v>388</v>
+      </c>
+      <c r="F76" s="51" t="s">
         <v>389</v>
       </c>
-      <c r="F76" s="51" t="s">
+      <c r="G76" s="53" t="s">
         <v>390</v>
-      </c>
-      <c r="G76" s="53" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" s="53" t="s">
+        <v>391</v>
+      </c>
+      <c r="F77" s="53" t="s">
         <v>392</v>
       </c>
-      <c r="F77" s="53" t="s">
+      <c r="G77" s="53" t="s">
         <v>393</v>
-      </c>
-      <c r="G77" s="53" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" s="53" t="s">
+        <v>394</v>
+      </c>
+      <c r="F78" s="53" t="s">
         <v>395</v>
       </c>
-      <c r="F78" s="53" t="s">
+      <c r="G78" s="53" t="s">
         <v>396</v>
-      </c>
-      <c r="G78" s="53" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="F79" s="53" t="s">
+        <v>397</v>
+      </c>
+      <c r="G79" s="53" t="s">
         <v>398</v>
-      </c>
-      <c r="G79" s="53" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="F80" s="53" t="s">
+        <v>399</v>
+      </c>
+      <c r="G80" s="53" t="s">
         <v>400</v>
-      </c>
-      <c r="G80" s="53" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="53" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="53" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="53" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="53" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="51" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="53" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="53" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="53" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="53" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="53" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="53" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="53" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="53" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="53" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="53" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="53" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="53" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="53" t="s">
-        <v>422</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:E28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="14.44140625" style="49"/>
-    <col min="2" max="2" width="32" style="49" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="55.8">
-      <c r="A1" s="54" t="s">
-        <v>423</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="57.6">
-      <c r="A2" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="53" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2">
-      <c r="A3" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>425</v>
-      </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8">
-      <c r="A4" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>427</v>
-      </c>
-      <c r="C4" s="48">
-        <v>2</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8">
-      <c r="A5" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>429</v>
-      </c>
-      <c r="C5" s="48">
-        <v>2</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8">
-      <c r="A6" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="52" t="s">
-        <v>431</v>
-      </c>
-      <c r="C6" s="48">
-        <v>1</v>
-      </c>
-      <c r="E6" s="53" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2">
-      <c r="A7" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="52" t="s">
-        <v>433</v>
-      </c>
-      <c r="C7" s="48">
-        <v>1</v>
-      </c>
-      <c r="E7" s="53" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="28.8">
-      <c r="A8" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>435</v>
-      </c>
-      <c r="C8" s="48">
-        <v>2</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.2">
-      <c r="E9" s="53" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="57.6">
-      <c r="A10" s="53" t="s">
-        <v>438</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.2">
-      <c r="A11" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57.6">
-      <c r="A12" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>441</v>
-      </c>
-      <c r="C12" s="48">
-        <v>2</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.2">
-      <c r="A13" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>443</v>
-      </c>
-      <c r="C13" s="48">
-        <v>2</v>
-      </c>
-      <c r="E13" s="53" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>445</v>
-      </c>
-      <c r="C14" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="57.6">
-      <c r="A15" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>446</v>
-      </c>
-      <c r="C15" s="48">
-        <v>2</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.2">
-      <c r="A16" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>447</v>
-      </c>
-      <c r="C16" s="48">
-        <v>2</v>
-      </c>
-      <c r="E16" s="53" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" ht="28.8">
-      <c r="E17" s="53" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" ht="43.2">
-      <c r="E18" s="53" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" ht="43.2">
-      <c r="E19" s="53" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="20" spans="5:5" ht="28.8">
-      <c r="E20" s="53" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="21" spans="5:5" ht="28.8">
-      <c r="E21" s="53" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" ht="43.2">
-      <c r="E22" s="53" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="23" spans="5:5" ht="28.8">
-      <c r="E23" s="53" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="24" spans="5:5" ht="28.8">
-      <c r="E24" s="53" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" ht="28.8">
-      <c r="E25" s="53" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" ht="28.8">
-      <c r="E26" s="53" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" ht="28.8">
-      <c r="E27" s="53" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" ht="28.8">
-      <c r="E28" s="53" t="s">
-        <v>460</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -34023,345 +34061,325 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="14.44140625" style="49"/>
+    <col min="2" max="2" width="32" style="49" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" style="49"/>
+    <col min="5" max="5" width="45.6640625" style="49" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="55.8">
+      <c r="A1" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57.6">
+      <c r="A2" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="43.2">
+      <c r="A3" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" s="48">
+        <v>1</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8">
+      <c r="A4" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="48">
+        <v>1</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="28.8">
+      <c r="A5" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="52" t="s">
+        <v>432</v>
+      </c>
+      <c r="C5" s="48">
+        <v>1</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8">
+      <c r="A6" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="48" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="48">
+        <v>2</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="43.2">
+      <c r="A7" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="C7" s="48">
+        <v>2</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="28.8">
+      <c r="A8" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="48">
+        <v>2</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="43.2">
+      <c r="E9" s="53" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.6">
+      <c r="A10" s="53" t="s">
+        <v>437</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="43.2">
+      <c r="A11" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="57.6">
+      <c r="A12" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="52" t="s">
+        <v>440</v>
+      </c>
+      <c r="C12" s="48">
+        <v>2</v>
+      </c>
+      <c r="E12" s="53" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="43.2">
+      <c r="A13" s="48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>442</v>
+      </c>
+      <c r="C13" s="48">
+        <v>2</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="C14" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="57.6">
+      <c r="A15" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" s="48" t="s">
+        <v>445</v>
+      </c>
+      <c r="C15" s="48">
+        <v>2</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="43.2">
+      <c r="A16" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="48" t="s">
+        <v>446</v>
+      </c>
+      <c r="C16" s="48">
+        <v>2</v>
+      </c>
+      <c r="E16" s="53" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" ht="28.8">
+      <c r="E17" s="53" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" ht="43.2">
+      <c r="E18" s="53" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="19" spans="5:5" ht="43.2">
+      <c r="E19" s="53" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" ht="28.8">
+      <c r="E20" s="53" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" ht="28.8">
+      <c r="E21" s="53" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" ht="43.2">
+      <c r="E22" s="53" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" ht="28.8">
+      <c r="E23" s="53" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" ht="28.8">
+      <c r="E24" s="53" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" ht="28.8">
+      <c r="E25" s="53" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" ht="28.8">
+      <c r="E26" s="53" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" ht="28.8">
+      <c r="E27" s="53" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" ht="28.8">
+      <c r="E28" s="53" t="s">
+        <v>459</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A3:C8">
+    <sortCondition ref="C3"/>
+  </sortState>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="49" customWidth="1"/>
-    <col min="2" max="16384" width="14.44140625" style="49"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="26" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="26" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="53" t="s">
+    <row r="3" spans="1:1">
+      <c r="A3" s="26" t="s">
         <v>462</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="53" t="s">
-        <v>463</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="56.5546875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="105.33203125" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="14.44140625" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="48" t="s">
-        <v>464</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="55" t="s">
-        <v>466</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="53" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="69">
-      <c r="A3" s="57" t="s">
-        <v>468</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="58" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="55.2">
-      <c r="A4" s="57" t="s">
-        <v>471</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>472</v>
-      </c>
-      <c r="C4" s="50"/>
-    </row>
-    <row r="5" spans="1:4" ht="69">
-      <c r="A5" s="57" t="s">
-        <v>473</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>474</v>
-      </c>
-      <c r="C5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" ht="55.2">
-      <c r="A6" s="57" t="s">
-        <v>475</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="C6" s="50"/>
-    </row>
-    <row r="7" spans="1:4" ht="41.4">
-      <c r="A7" s="57" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>478</v>
-      </c>
-      <c r="C7" s="50"/>
-    </row>
-    <row r="8" spans="1:4" ht="27.6">
-      <c r="A8" s="57" t="s">
-        <v>479</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="50"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="55" t="s">
-        <v>481</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-    </row>
-    <row r="10" spans="1:4" ht="41.4">
-      <c r="A10" s="57" t="s">
-        <v>482</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>483</v>
-      </c>
-      <c r="C10" s="50"/>
-    </row>
-    <row r="11" spans="1:4" ht="82.8">
-      <c r="A11" s="57" t="s">
-        <v>484</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>485</v>
-      </c>
-      <c r="C11" s="50"/>
-    </row>
-    <row r="12" spans="1:4" ht="55.2">
-      <c r="A12" s="57" t="s">
-        <v>486</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>487</v>
-      </c>
-      <c r="C12" s="50"/>
-    </row>
-    <row r="13" spans="1:4" ht="41.4">
-      <c r="A13" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>489</v>
-      </c>
-      <c r="C13" s="50"/>
-    </row>
-    <row r="14" spans="1:4" ht="27.6">
-      <c r="A14" s="57" t="s">
-        <v>490</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>491</v>
-      </c>
-      <c r="C14" s="50"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="55" t="s">
-        <v>492</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-    </row>
-    <row r="16" spans="1:4" ht="41.4">
-      <c r="A16" s="57" t="s">
-        <v>493</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>494</v>
-      </c>
-      <c r="C16" s="50"/>
-    </row>
-    <row r="17" spans="1:3" ht="55.2">
-      <c r="A17" s="57" t="s">
-        <v>495</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>496</v>
-      </c>
-      <c r="C17" s="50"/>
-    </row>
-    <row r="18" spans="1:3" ht="55.2">
-      <c r="A18" s="57" t="s">
-        <v>497</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>498</v>
-      </c>
-      <c r="C18" s="50"/>
-    </row>
-    <row r="19" spans="1:3" ht="69">
-      <c r="A19" s="57" t="s">
-        <v>499</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>500</v>
-      </c>
-      <c r="C19" s="50"/>
-    </row>
-    <row r="20" spans="1:3" ht="69">
-      <c r="A20" s="57" t="s">
-        <v>501</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>502</v>
-      </c>
-      <c r="C20" s="50"/>
-    </row>
-    <row r="21" spans="1:3" ht="43.2">
-      <c r="A21" s="57" t="s">
-        <v>503</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>504</v>
-      </c>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="55" t="s">
-        <v>505</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-    </row>
-    <row r="23" spans="1:3" ht="55.2">
-      <c r="A23" s="57" t="s">
-        <v>506</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>507</v>
-      </c>
-      <c r="C23" s="50"/>
-    </row>
-    <row r="24" spans="1:3" ht="41.4">
-      <c r="A24" s="57" t="s">
-        <v>508</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>509</v>
-      </c>
-      <c r="C24" s="50"/>
-    </row>
-    <row r="25" spans="1:3" ht="27.6">
-      <c r="A25" s="57" t="s">
-        <v>510</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>511</v>
-      </c>
-      <c r="C25" s="50"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="55" t="s">
-        <v>512</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-    </row>
-    <row r="27" spans="1:3" ht="151.80000000000001">
-      <c r="A27" s="57" t="s">
-        <v>513</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>514</v>
-      </c>
-      <c r="C27" s="50"/>
-    </row>
-    <row r="28" spans="1:3" ht="69">
-      <c r="A28" s="57" t="s">
-        <v>515</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>516</v>
-      </c>
-      <c r="C28" s="50"/>
-    </row>
-    <row r="29" spans="1:3" ht="41.4">
-      <c r="A29" s="57" t="s">
-        <v>517</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>518</v>
-      </c>
-      <c r="C29" s="50"/>
-    </row>
-    <row r="30" spans="1:3" ht="55.2">
-      <c r="A30" s="57" t="s">
-        <v>519</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>520</v>
-      </c>
-      <c r="C30" s="50"/>
-    </row>
-    <row r="31" spans="1:3" ht="82.8">
-      <c r="A31" s="57" t="s">
-        <v>521</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="C31" s="50"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desk\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D7F50B9-BF8A-4E6A-AECE-555038CD8E7B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="6345" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
     <sheet name="RD績效評核簡易" sheetId="2" r:id="rId2"/>
     <sheet name="各職級技能表" sheetId="3" r:id="rId3"/>
     <sheet name="C#" sheetId="4" r:id="rId4"/>
-    <sheet name="MVC" sheetId="9" r:id="rId5"/>
-    <sheet name="SQL語法" sheetId="5" r:id="rId6"/>
+    <sheet name="SQL語法" sheetId="5" r:id="rId5"/>
+    <sheet name="MVC" sheetId="9" r:id="rId6"/>
     <sheet name="SQL管理" sheetId="6" r:id="rId7"/>
     <sheet name="Windows管理" sheetId="7" r:id="rId8"/>
     <sheet name="Bootstrap" sheetId="8" r:id="rId9"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="524">
   <si>
     <t>工程師(非擔任組長職)績效評核</t>
   </si>
@@ -301,21 +300,6 @@
   </si>
   <si>
     <t>ch2</t>
-  </si>
-  <si>
-    <t>變數宣告
- 變數初始值
- 變數的scope(作用域)
- 常數const
- Value Types and Reference Types
- 整數型別 (12.3f, 60m)
- 字串型別(string), @"c:\tmp\aaa.doc", $"Hello {name}"
- 程序流控制 if…else, switch, for, while, do…while, foreach
- 命名空間(namespace), using, using alisas = NamespaceName;
- 註解, XML註解
- #define, #undef, #if, #elif, #else, #endif, #waning, #error
- #region #endregion
- C# 保留關鍵字</t>
   </si>
   <si>
     <t>ch3</t>
@@ -684,9 +668,6 @@
  Lock, Dead Lock</t>
   </si>
   <si>
-    <t>Ch01 資料庫管理系統與 SQL Server</t>
-  </si>
-  <si>
     <t>Ch06備份與還原資料庫</t>
   </si>
   <si>
@@ -696,9 +677,6 @@
     <t>安裝與基本管理</t>
   </si>
   <si>
-    <t>1-1 選擇SQL Server</t>
-  </si>
-  <si>
     <t>6-1 SQL Server 基本備份觀念</t>
   </si>
   <si>
@@ -706,9 +684,6 @@
   </si>
   <si>
     <t>認識管理工具</t>
-  </si>
-  <si>
-    <t>1-1-1 價格/效能比、投資報酬率</t>
   </si>
   <si>
     <t>6-1-1 SQL Server 的線上備份機制</t>
@@ -1845,12 +1820,292 @@
     <t>EntityFramework</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">變數宣告
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">變數初始值
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>變數的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>scope(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>作用域</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>常數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">const
+ Value Types and Reference Types
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>整數型別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> (12.3f, 60m)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>字串型別</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(string), @"c:\tmp\aaa.doc", $"Hello {name}"
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>程序流控制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> if…else, switch, for, while, do…while, foreach
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>命名空間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">(namespace), using, using alisas = NamespaceName;
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>註解</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>, XML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">註解
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> #define, #undef, #if, #elif, #else, #endif, #waning, #error
+ #region #endregion
+ C# </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>保留關鍵字</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ch01 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料庫管理系統與</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve"> SQL Server</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-1-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>價格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>效能比、投資報酬率</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1-1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>選擇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>SQL Server</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.books.com.tw/products/0010741473</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1918,8 +2173,43 @@
       <family val="3"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1936,6 +2226,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB6D7A8"/>
         <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2178,10 +2474,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2231,47 +2528,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2305,9 +2561,67 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2618,19 +2932,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2662,12 +2976,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2697,8 +3011,8 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="32"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2754,17 +3068,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -2788,8 +3102,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
+      <c r="A6" s="46"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -2822,7 +3136,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="28"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -2852,7 +3166,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="28"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -2882,7 +3196,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -2912,7 +3226,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -2942,7 +3256,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="28"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -2972,7 +3286,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="28"/>
+      <c r="A12" s="46"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3002,7 +3316,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A13" s="29"/>
+      <c r="A13" s="47"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3062,17 +3376,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3096,8 +3410,8 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
@@ -3130,7 +3444,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="28"/>
+      <c r="A17" s="46"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -3160,7 +3474,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="28"/>
+      <c r="A18" s="46"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3190,7 +3504,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="28"/>
+      <c r="A19" s="46"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3220,7 +3534,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="28"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3250,7 +3564,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="28"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
@@ -3280,7 +3594,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="28"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
@@ -3310,7 +3624,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="28"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -3340,7 +3654,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="66" customHeight="1">
-      <c r="A24" s="29"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
@@ -3370,13 +3684,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A25" s="30" t="s">
+      <c r="A25" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3432,11 +3746,11 @@
       <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C27" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3460,15 +3774,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="45" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3492,13 +3806,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="28"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="39"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3522,13 +3836,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="28"/>
+      <c r="A30" s="46"/>
       <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="36"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3552,13 +3866,13 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="28"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="39"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="56"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3582,13 +3896,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A32" s="29"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="30"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="32"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="40"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3612,13 +3926,13 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="32"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -30742,19 +31056,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -30864,54 +31180,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="47" t="s">
+      <c r="D2" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="58" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="57" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -30927,7 +31243,7 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B5" s="29"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -30935,7 +31251,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="57" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -30949,7 +31265,7 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B7" s="29"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="23" t="s">
         <v>57</v>
       </c>
@@ -30963,7 +31279,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="57" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -30979,7 +31295,7 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B9" s="29"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="23" t="s">
         <v>64</v>
       </c>
@@ -30989,7 +31305,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="57" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -31005,7 +31321,7 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B11" s="29"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
         <v>69</v>
@@ -31017,7 +31333,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="57" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="23"/>
@@ -31031,7 +31347,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B13" s="29"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
@@ -31041,7 +31357,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="57" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23"/>
@@ -31053,7 +31369,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B15" s="29"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -32100,296 +32416,296 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="49"/>
-    <col min="2" max="2" width="61.33203125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="6" style="49" customWidth="1"/>
-    <col min="4" max="16384" width="14.44140625" style="49"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="61.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="6" style="28" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="27" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="179.4">
-      <c r="A2" s="48" t="s">
+    <row r="2" spans="1:3" s="61" customFormat="1" ht="200.25">
+      <c r="A2" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="60" t="s">
+        <v>519</v>
+      </c>
+      <c r="C2" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="228">
+      <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="C2" s="48">
+      <c r="B3" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="220.8">
-      <c r="A3" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="48" t="s">
+    <row r="4" spans="1:3" s="61" customFormat="1" ht="114">
+      <c r="A4" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="48">
+      <c r="B4" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="59">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="110.4">
-      <c r="A4" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="48" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="C4" s="48">
+      <c r="B5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="48" t="s">
+    <row r="6" spans="1:3" s="61" customFormat="1" ht="71.25">
+      <c r="A6" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="C5" s="48">
+      <c r="B6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="59">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="69">
-      <c r="A6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="48" t="s">
+    <row r="7" spans="1:3" ht="57">
+      <c r="A7" s="27" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="48">
+      <c r="B7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="55.2">
-      <c r="A7" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="48" t="s">
+    <row r="8" spans="1:3" s="61" customFormat="1" ht="57">
+      <c r="A8" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="57">
+      <c r="A9" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" s="61" customFormat="1" ht="114">
+      <c r="A10" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="42.75">
+      <c r="A11" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" s="61" customFormat="1" ht="42.75">
+      <c r="A12" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.5">
+      <c r="A13" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" s="61" customFormat="1" ht="42.75">
+      <c r="A14" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C14" s="59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="71.25">
+      <c r="A15" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" s="61" customFormat="1" ht="57">
+      <c r="A16" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="55.2">
-      <c r="A8" s="48" t="s">
-        <v>100</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="55.2">
-      <c r="A9" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="110.4">
-      <c r="A10" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="41.4">
-      <c r="A11" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="41.4">
-      <c r="A12" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="27.6">
-      <c r="A13" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="48" t="s">
+      <c r="B16" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="41.4">
-      <c r="A14" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="48" t="s">
+      <c r="B17" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="61" customFormat="1" ht="42.75">
+      <c r="A18" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="42.75">
+      <c r="A19" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C19" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" s="61" customFormat="1" ht="99.75">
+      <c r="A20" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B20" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C20" s="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C14" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="69">
-      <c r="A15" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="B15" s="48" t="s">
+      <c r="B21" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" s="61" customFormat="1">
+      <c r="A22" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="55.2">
-      <c r="A16" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="48">
+      <c r="B22" s="59" t="s">
+        <v>518</v>
+      </c>
+      <c r="C22" s="59">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="41.4">
-      <c r="A18" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="41.4">
-      <c r="A19" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="48" t="s">
+    <row r="23" spans="1:3" ht="28.5">
+      <c r="A23" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="96.6">
-      <c r="A20" s="48" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B21" s="48" t="s">
+      <c r="B23" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" s="61" customFormat="1" ht="42.75">
+      <c r="A24" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="C21" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="48" t="s">
+      <c r="B24" s="59" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.5">
+      <c r="A25" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="48" t="s">
-        <v>522</v>
-      </c>
-      <c r="C22" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="27.6">
-      <c r="A23" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="C23" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="41.4">
-      <c r="A24" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="27.6">
-      <c r="A25" s="48" t="s">
+      <c r="B25" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B25" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="C25" s="48">
+      <c r="C25" s="27">
         <v>3</v>
       </c>
     </row>
@@ -32399,565 +32715,260 @@
   </sortState>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:D31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="56.5546875" style="49" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="105.33203125" style="49" customWidth="1"/>
-    <col min="5" max="16384" width="14.44140625" style="49"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="48" t="s">
-        <v>463</v>
-      </c>
-      <c r="B1" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="48" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="55" t="s">
-        <v>465</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="53" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="69">
-      <c r="A3" s="57" t="s">
-        <v>467</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="58" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="55.2">
-      <c r="A4" s="57" t="s">
-        <v>470</v>
-      </c>
-      <c r="B4" s="48" t="s">
-        <v>471</v>
-      </c>
-      <c r="C4" s="50"/>
-    </row>
-    <row r="5" spans="1:4" ht="69">
-      <c r="A5" s="57" t="s">
-        <v>472</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="C5" s="50"/>
-    </row>
-    <row r="6" spans="1:4" ht="55.2">
-      <c r="A6" s="57" t="s">
-        <v>474</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>475</v>
-      </c>
-      <c r="C6" s="50"/>
-    </row>
-    <row r="7" spans="1:4" ht="41.4">
-      <c r="A7" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>477</v>
-      </c>
-      <c r="C7" s="50"/>
-    </row>
-    <row r="8" spans="1:4" ht="27.6">
-      <c r="A8" s="57" t="s">
-        <v>478</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>479</v>
-      </c>
-      <c r="C8" s="50"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="55" t="s">
-        <v>480</v>
-      </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-    </row>
-    <row r="10" spans="1:4" ht="41.4">
-      <c r="A10" s="57" t="s">
-        <v>481</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>482</v>
-      </c>
-      <c r="C10" s="50"/>
-    </row>
-    <row r="11" spans="1:4" ht="82.8">
-      <c r="A11" s="57" t="s">
-        <v>483</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="C11" s="50"/>
-    </row>
-    <row r="12" spans="1:4" ht="55.2">
-      <c r="A12" s="57" t="s">
-        <v>485</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>486</v>
-      </c>
-      <c r="C12" s="50"/>
-    </row>
-    <row r="13" spans="1:4" ht="41.4">
-      <c r="A13" s="57" t="s">
-        <v>487</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>488</v>
-      </c>
-      <c r="C13" s="50"/>
-    </row>
-    <row r="14" spans="1:4" ht="27.6">
-      <c r="A14" s="57" t="s">
-        <v>489</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>490</v>
-      </c>
-      <c r="C14" s="50"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="55" t="s">
-        <v>491</v>
-      </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-    </row>
-    <row r="16" spans="1:4" ht="41.4">
-      <c r="A16" s="57" t="s">
-        <v>492</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>493</v>
-      </c>
-      <c r="C16" s="50"/>
-    </row>
-    <row r="17" spans="1:3" ht="55.2">
-      <c r="A17" s="57" t="s">
-        <v>494</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>495</v>
-      </c>
-      <c r="C17" s="50"/>
-    </row>
-    <row r="18" spans="1:3" ht="55.2">
-      <c r="A18" s="57" t="s">
-        <v>496</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>497</v>
-      </c>
-      <c r="C18" s="50"/>
-    </row>
-    <row r="19" spans="1:3" ht="69">
-      <c r="A19" s="57" t="s">
-        <v>498</v>
-      </c>
-      <c r="B19" s="48" t="s">
-        <v>499</v>
-      </c>
-      <c r="C19" s="50"/>
-    </row>
-    <row r="20" spans="1:3" ht="69">
-      <c r="A20" s="57" t="s">
-        <v>500</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>501</v>
-      </c>
-      <c r="C20" s="50"/>
-    </row>
-    <row r="21" spans="1:3" ht="43.2">
-      <c r="A21" s="57" t="s">
-        <v>502</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>503</v>
-      </c>
-      <c r="C21" s="50"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="55" t="s">
-        <v>504</v>
-      </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-    </row>
-    <row r="23" spans="1:3" ht="55.2">
-      <c r="A23" s="57" t="s">
-        <v>505</v>
-      </c>
-      <c r="B23" s="48" t="s">
-        <v>506</v>
-      </c>
-      <c r="C23" s="50"/>
-    </row>
-    <row r="24" spans="1:3" ht="41.4">
-      <c r="A24" s="57" t="s">
-        <v>507</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>508</v>
-      </c>
-      <c r="C24" s="50"/>
-    </row>
-    <row r="25" spans="1:3" ht="27.6">
-      <c r="A25" s="57" t="s">
-        <v>509</v>
-      </c>
-      <c r="B25" s="48" t="s">
-        <v>510</v>
-      </c>
-      <c r="C25" s="50"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="55" t="s">
-        <v>511</v>
-      </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="56"/>
-    </row>
-    <row r="27" spans="1:3" ht="151.80000000000001">
-      <c r="A27" s="57" t="s">
-        <v>512</v>
-      </c>
-      <c r="B27" s="48" t="s">
-        <v>513</v>
-      </c>
-      <c r="C27" s="50"/>
-    </row>
-    <row r="28" spans="1:3" ht="69">
-      <c r="A28" s="57" t="s">
-        <v>514</v>
-      </c>
-      <c r="B28" s="48" t="s">
-        <v>515</v>
-      </c>
-      <c r="C28" s="50"/>
-    </row>
-    <row r="29" spans="1:3" ht="41.4">
-      <c r="A29" s="57" t="s">
-        <v>516</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>517</v>
-      </c>
-      <c r="C29" s="50"/>
-    </row>
-    <row r="30" spans="1:3" ht="55.2">
-      <c r="A30" s="57" t="s">
-        <v>518</v>
-      </c>
-      <c r="B30" s="48" t="s">
-        <v>519</v>
-      </c>
-      <c r="C30" s="50"/>
-    </row>
-    <row r="31" spans="1:3" ht="82.8">
-      <c r="A31" s="57" t="s">
-        <v>520</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>521</v>
-      </c>
-      <c r="C31" s="50"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="49"/>
-    <col min="2" max="2" width="50.6640625" style="49" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="49"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="50.7109375" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="27" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="C2" s="29"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="29"/>
+    </row>
+    <row r="3" spans="1:6" ht="57">
+      <c r="A3" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="50"/>
-    </row>
-    <row r="3" spans="1:6" ht="55.2">
-      <c r="A3" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="48" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="29"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.5">
+      <c r="A4" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="50"/>
-    </row>
-    <row r="4" spans="1:6" ht="27.6">
-      <c r="A4" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="48" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="29"/>
+    </row>
+    <row r="5" spans="1:6" ht="57">
+      <c r="A5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="50"/>
-    </row>
-    <row r="5" spans="1:6" ht="55.2">
-      <c r="A5" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5" s="48" t="s">
+      <c r="C5" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="48" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
+      <c r="A6" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42.75">
+      <c r="A7" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="142.5">
+      <c r="A8" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="156.75">
+      <c r="A9" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="114">
+      <c r="A10" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="185.25">
+      <c r="A11" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6">
-      <c r="A6" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="C6" s="48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="41.4">
-      <c r="A7" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="138">
-      <c r="A8" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="C8" s="48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="151.80000000000001">
-      <c r="A9" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" s="48" t="s">
+      <c r="C12" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="42.75">
+      <c r="A13" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C9" s="48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="110.4">
-      <c r="A10" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="48" t="s">
+      <c r="B13" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5">
+      <c r="A14" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C10" s="48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="179.4">
-      <c r="A11" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="48" t="s">
+      <c r="B14" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="71.25">
+      <c r="A15" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="142.5">
+      <c r="A16" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="71.25">
+      <c r="A17" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C11" s="48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B12" s="48" t="s">
+      <c r="B17" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="41.4">
-      <c r="A13" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.6">
-      <c r="A14" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="69">
-      <c r="A15" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="C15" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="138">
-      <c r="A16" s="48" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="69">
-      <c r="A17" s="48" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="48" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="71.25">
+      <c r="A18" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="69">
-      <c r="A18" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="48" t="s">
+      <c r="C18" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57">
+      <c r="A19" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C18" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="55.2">
-      <c r="A19" s="48" t="s">
-        <v>112</v>
-      </c>
-      <c r="B19" s="48" t="s">
+      <c r="C19" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="48" t="s">
+      <c r="C20" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42.75">
+      <c r="A21" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="41.4">
-      <c r="A21" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" s="48" t="s">
-        <v>140</v>
+      <c r="C21" s="27" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -32969,1099 +32980,1411 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="56.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="105.28515625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="27" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="34" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="32" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.25">
+      <c r="A3" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="37" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57">
+      <c r="A4" s="36" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="71.25">
+      <c r="A5" s="36" t="s">
+        <v>468</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" ht="57">
+      <c r="A6" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" ht="42.75">
+      <c r="A7" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>473</v>
+      </c>
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.5">
+      <c r="A8" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>475</v>
+      </c>
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="34" t="s">
+        <v>476</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" ht="42.75">
+      <c r="A10" s="36" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" ht="85.5">
+      <c r="A11" s="36" t="s">
+        <v>479</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>480</v>
+      </c>
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:4" ht="57">
+      <c r="A12" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>482</v>
+      </c>
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" ht="42.75">
+      <c r="A13" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.5">
+      <c r="A14" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>486</v>
+      </c>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="34" t="s">
+        <v>487</v>
+      </c>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+    </row>
+    <row r="16" spans="1:4" ht="42.75">
+      <c r="A16" s="36" t="s">
+        <v>488</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>489</v>
+      </c>
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3" ht="57">
+      <c r="A17" s="36" t="s">
+        <v>490</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>491</v>
+      </c>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" ht="57">
+      <c r="A18" s="36" t="s">
+        <v>492</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" ht="71.25">
+      <c r="A19" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>495</v>
+      </c>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" ht="71.25">
+      <c r="A20" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>497</v>
+      </c>
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" ht="45">
+      <c r="A21" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>499</v>
+      </c>
+      <c r="C21" s="29"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="34" t="s">
+        <v>500</v>
+      </c>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+    </row>
+    <row r="23" spans="1:3" ht="57">
+      <c r="A23" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>502</v>
+      </c>
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:3" ht="57">
+      <c r="A24" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>504</v>
+      </c>
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:3" ht="28.5">
+      <c r="A25" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>506</v>
+      </c>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="34" t="s">
+        <v>507</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+    </row>
+    <row r="27" spans="1:3" ht="156.75">
+      <c r="A27" s="36" t="s">
+        <v>508</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>509</v>
+      </c>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" ht="71.25">
+      <c r="A28" s="36" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>511</v>
+      </c>
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" ht="42.75">
+      <c r="A29" s="36" t="s">
+        <v>512</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>513</v>
+      </c>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" ht="57">
+      <c r="A30" s="36" t="s">
+        <v>514</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>515</v>
+      </c>
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" ht="85.5">
+      <c r="A31" s="36" t="s">
+        <v>516</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>517</v>
+      </c>
+      <c r="C31" s="29"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="49"/>
-    <col min="2" max="2" width="31.5546875" style="49" customWidth="1"/>
-    <col min="3" max="4" width="14.44140625" style="49"/>
-    <col min="5" max="5" width="38.88671875" style="49" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" style="49" customWidth="1"/>
-    <col min="8" max="16384" width="14.44140625" style="49"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="31.5703125" style="28" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" style="28"/>
+    <col min="5" max="5" width="38.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="62" t="s">
+        <v>520</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="51" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="51" t="s">
+      <c r="C2" s="27">
+        <v>1</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>522</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B2" s="48" t="s">
+      <c r="G2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="48">
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="31">
         <v>1</v>
       </c>
-      <c r="E2" s="53" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="53" t="s">
+      <c r="E3" s="63" t="s">
+        <v>521</v>
+      </c>
+      <c r="F3" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="G3" s="32" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="48" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>169</v>
       </c>
-      <c r="C3" s="52">
+      <c r="C4" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E4" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F4" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="G3" s="53" t="s">
+      <c r="G4" s="32" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="48" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="52">
+      <c r="C5" s="31">
         <v>1</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E5" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F5" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G5" s="32" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="48" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E6" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F6" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G6" s="32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="48" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="C6" s="52">
-        <v>1</v>
-      </c>
-      <c r="E6" s="53" t="s">
+      <c r="C7" s="31">
+        <v>2</v>
+      </c>
+      <c r="E7" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F7" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="G6" s="53" t="s">
+      <c r="G7" s="32" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="48" t="s">
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="C7" s="52">
+      <c r="C8" s="31">
         <v>2</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E8" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F8" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="G7" s="53" t="s">
+      <c r="G8" s="32" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="52" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C9" s="31">
         <v>2</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E9" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F9" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G9" s="32" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="52" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="48" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="52">
+      <c r="C10" s="31">
         <v>2</v>
       </c>
-      <c r="E9" s="53" t="s">
+      <c r="E10" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="53" t="s">
+      <c r="F10" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="53" t="s">
+      <c r="G10" s="32" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="48" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="52">
-        <v>2</v>
-      </c>
-      <c r="E10" s="53" t="s">
+      <c r="C11" s="31">
+        <v>3</v>
+      </c>
+      <c r="F11" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F10" s="53" t="s">
+      <c r="G11" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="G10" s="53" t="s">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="52" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="48" t="s">
+      <c r="C12" s="31">
+        <v>3</v>
+      </c>
+      <c r="E12" s="30" t="s">
         <v>201</v>
       </c>
-      <c r="C11" s="52">
+      <c r="F12" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" s="32" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>204</v>
+      </c>
+      <c r="C13" s="31">
         <v>3</v>
       </c>
-      <c r="F11" s="53" t="s">
-        <v>202</v>
-      </c>
-      <c r="G11" s="53" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>204</v>
-      </c>
-      <c r="C12" s="52">
-        <v>3</v>
-      </c>
-      <c r="E12" s="51" t="s">
+      <c r="E13" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F12" s="53" t="s">
+      <c r="F13" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="G12" s="53" t="s">
+      <c r="G13" s="32" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="52" t="s">
-        <v>108</v>
-      </c>
-      <c r="B13" s="52" t="s">
+    <row r="14" spans="1:7">
+      <c r="E14" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="C13" s="52">
-        <v>3</v>
-      </c>
-      <c r="E13" s="53" t="s">
+      <c r="F14" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="F13" s="53" t="s">
+      <c r="G14" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="G13" s="53" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="64" t="s">
+        <v>523</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" s="53" t="s">
+      <c r="F15" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="F14" s="53" t="s">
+      <c r="G15" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="53" t="s">
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" s="32" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" s="53" t="s">
+      <c r="F16" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="F15" s="53" t="s">
+      <c r="G16" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="G15" s="53" t="s">
+    </row>
+    <row r="17" spans="5:7">
+      <c r="E17" s="32" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" s="53" t="s">
+      <c r="F17" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="53" t="s">
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="F18" s="32" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="17" spans="5:7">
-      <c r="E17" s="53" t="s">
+      <c r="G18" s="30" t="s">
         <v>221</v>
       </c>
-      <c r="F17" s="53" t="s">
+    </row>
+    <row r="19" spans="5:7">
+      <c r="E19" s="32" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="18" spans="5:7">
-      <c r="E18" s="53" t="s">
+      <c r="F19" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="F18" s="53" t="s">
+      <c r="G19" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="G18" s="51" t="s">
+    </row>
+    <row r="20" spans="5:7">
+      <c r="E20" s="32" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="19" spans="5:7">
-      <c r="E19" s="53" t="s">
+      <c r="F20" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="F19" s="53" t="s">
+      <c r="G20" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="G19" s="53" t="s">
+    </row>
+    <row r="21" spans="5:7">
+      <c r="E21" s="32" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="20" spans="5:7">
-      <c r="E20" s="53" t="s">
+      <c r="F21" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="G21" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="G20" s="53" t="s">
+    </row>
+    <row r="22" spans="5:7">
+      <c r="E22" s="32" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="21" spans="5:7">
-      <c r="E21" s="53" t="s">
+      <c r="F22" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="F21" s="53" t="s">
+      <c r="G22" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="G21" s="53" t="s">
+    </row>
+    <row r="23" spans="5:7">
+      <c r="E23" s="32" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="22" spans="5:7">
-      <c r="E22" s="53" t="s">
+      <c r="F23" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="F22" s="53" t="s">
+    </row>
+    <row r="24" spans="5:7">
+      <c r="E24" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="G22" s="53" t="s">
+      <c r="F24" s="32" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="23" spans="5:7">
-      <c r="E23" s="53" t="s">
+      <c r="G24" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="F23" s="53" t="s">
+    </row>
+    <row r="25" spans="5:7">
+      <c r="E25" s="32" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="24" spans="5:7">
-      <c r="E24" s="53" t="s">
+      <c r="F25" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="F24" s="53" t="s">
+      <c r="G25" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="G24" s="51" t="s">
+    </row>
+    <row r="26" spans="5:7">
+      <c r="E26" s="32" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="25" spans="5:7">
-      <c r="E25" s="53" t="s">
+      <c r="F26" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="G26" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="G25" s="53" t="s">
+    </row>
+    <row r="27" spans="5:7">
+      <c r="E27" s="32" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="26" spans="5:7">
-      <c r="E26" s="53" t="s">
+      <c r="F27" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="G27" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="G26" s="53" t="s">
+    </row>
+    <row r="28" spans="5:7" ht="30">
+      <c r="E28" s="32" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="27" spans="5:7">
-      <c r="E27" s="53" t="s">
+      <c r="F28" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F27" s="53" t="s">
+      <c r="G28" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="G27" s="53" t="s">
+    </row>
+    <row r="29" spans="5:7">
+      <c r="E29" s="32" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" s="53" t="s">
+      <c r="F29" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="F28" s="53" t="s">
+      <c r="G29" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="G28" s="53" t="s">
+    </row>
+    <row r="30" spans="5:7">
+      <c r="F30" s="32" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="29" spans="5:7">
-      <c r="E29" s="53" t="s">
+      <c r="G30" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="F29" s="53" t="s">
+    </row>
+    <row r="31" spans="5:7">
+      <c r="E31" s="30" t="s">
         <v>256</v>
       </c>
-      <c r="G29" s="53" t="s">
+      <c r="F31" s="32" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="30" spans="5:7">
-      <c r="F30" s="53" t="s">
+      <c r="G31" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="G30" s="53" t="s">
+    </row>
+    <row r="32" spans="5:7">
+      <c r="E32" s="32" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="31" spans="5:7">
-      <c r="E31" s="51" t="s">
+      <c r="F32" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="G32" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="G31" s="53" t="s">
+    </row>
+    <row r="33" spans="5:7">
+      <c r="E33" s="32" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="32" spans="5:7">
-      <c r="E32" s="53" t="s">
+      <c r="F33" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="F32" s="53" t="s">
+      <c r="G33" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="G32" s="53" t="s">
+    </row>
+    <row r="34" spans="5:7">
+      <c r="E34" s="32" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="33" spans="5:7">
-      <c r="E33" s="53" t="s">
+      <c r="F34" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="F33" s="53" t="s">
+      <c r="G34" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="G33" s="53" t="s">
+    </row>
+    <row r="35" spans="5:7">
+      <c r="E35" s="32" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="34" spans="5:7">
-      <c r="E34" s="53" t="s">
+      <c r="F35" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="G35" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="G34" s="53" t="s">
+    </row>
+    <row r="36" spans="5:7">
+      <c r="E36" s="32" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="35" spans="5:7">
-      <c r="E35" s="53" t="s">
+      <c r="F36" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="G36" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="G35" s="53" t="s">
+    </row>
+    <row r="37" spans="5:7">
+      <c r="E37" s="32" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="36" spans="5:7">
-      <c r="E36" s="53" t="s">
+      <c r="F37" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="F36" s="53" t="s">
+    </row>
+    <row r="38" spans="5:7">
+      <c r="E38" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="G36" s="53" t="s">
+      <c r="F38" s="32" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="37" spans="5:7">
-      <c r="E37" s="53" t="s">
+      <c r="G38" s="30" t="s">
         <v>278</v>
       </c>
-      <c r="F37" s="53" t="s">
+    </row>
+    <row r="39" spans="5:7">
+      <c r="E39" s="32" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="38" spans="5:7">
-      <c r="E38" s="53" t="s">
+      <c r="F39" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="F38" s="53" t="s">
+      <c r="G39" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="G38" s="51" t="s">
+    </row>
+    <row r="40" spans="5:7">
+      <c r="E40" s="32" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="39" spans="5:7">
-      <c r="E39" s="53" t="s">
+      <c r="F40" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="G40" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="G39" s="53" t="s">
+    </row>
+    <row r="41" spans="5:7">
+      <c r="E41" s="32" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="40" spans="5:7">
-      <c r="E40" s="53" t="s">
+      <c r="F41" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="F40" s="53" t="s">
+      <c r="G41" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="G40" s="53" t="s">
+    </row>
+    <row r="42" spans="5:7">
+      <c r="E42" s="32" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="41" spans="5:7">
-      <c r="E41" s="53" t="s">
+      <c r="F42" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="G42" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="G41" s="53" t="s">
+    </row>
+    <row r="43" spans="5:7">
+      <c r="E43" s="32" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="42" spans="5:7">
-      <c r="E42" s="53" t="s">
+      <c r="F43" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="G43" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="G42" s="53" t="s">
+    </row>
+    <row r="44" spans="5:7">
+      <c r="E44" s="32" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="43" spans="5:7">
-      <c r="E43" s="53" t="s">
+      <c r="F44" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="F43" s="53" t="s">
+      <c r="G44" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="G43" s="53" t="s">
+    </row>
+    <row r="45" spans="5:7">
+      <c r="E45" s="32" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="44" spans="5:7">
-      <c r="E44" s="53" t="s">
+      <c r="F45" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="F44" s="53" t="s">
+      <c r="G45" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="G44" s="53" t="s">
+    </row>
+    <row r="46" spans="5:7">
+      <c r="E46" s="32" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="5:7">
-      <c r="E45" s="53" t="s">
+      <c r="F46" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="F45" s="53" t="s">
+      <c r="G46" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="G45" s="53" t="s">
+    </row>
+    <row r="47" spans="5:7">
+      <c r="E47" s="32" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="46" spans="5:7">
-      <c r="E46" s="53" t="s">
+      <c r="F47" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="F46" s="53" t="s">
+      <c r="G47" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="G46" s="53" t="s">
+    </row>
+    <row r="48" spans="5:7">
+      <c r="F48" s="32" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="47" spans="5:7">
-      <c r="E47" s="53" t="s">
+      <c r="G48" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="F47" s="53" t="s">
+    </row>
+    <row r="49" spans="5:7">
+      <c r="E49" s="30" t="s">
         <v>308</v>
       </c>
-      <c r="G47" s="53" t="s">
+      <c r="F49" s="32" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="48" spans="5:7">
-      <c r="F48" s="53" t="s">
+      <c r="G49" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="G48" s="53" t="s">
+    </row>
+    <row r="50" spans="5:7">
+      <c r="E50" s="32" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="49" spans="5:7">
-      <c r="E49" s="51" t="s">
+      <c r="F50" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="F49" s="53" t="s">
+      <c r="G50" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="G49" s="53" t="s">
+    </row>
+    <row r="51" spans="5:7">
+      <c r="E51" s="32" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="50" spans="5:7">
-      <c r="E50" s="53" t="s">
+      <c r="F51" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="F50" s="53" t="s">
+      <c r="G51" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="G50" s="53" t="s">
+    </row>
+    <row r="52" spans="5:7">
+      <c r="E52" s="32" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="51" spans="5:7">
-      <c r="E51" s="53" t="s">
+      <c r="F52" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="F51" s="53" t="s">
+      <c r="G52" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="G51" s="53" t="s">
+    </row>
+    <row r="53" spans="5:7">
+      <c r="E53" s="32" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="52" spans="5:7">
-      <c r="E52" s="53" t="s">
+      <c r="F53" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F52" s="53" t="s">
+      <c r="G53" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="G52" s="53" t="s">
+    </row>
+    <row r="54" spans="5:7">
+      <c r="E54" s="32" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="53" spans="5:7">
-      <c r="E53" s="53" t="s">
+      <c r="G54" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="F53" s="53" t="s">
+    </row>
+    <row r="55" spans="5:7">
+      <c r="E55" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="G53" s="53" t="s">
+      <c r="F55" s="30" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="54" spans="5:7">
-      <c r="E54" s="53" t="s">
+      <c r="G55" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="G54" s="53" t="s">
+    </row>
+    <row r="56" spans="5:7">
+      <c r="E56" s="32" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="55" spans="5:7">
-      <c r="E55" s="53" t="s">
+      <c r="F56" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="F55" s="51" t="s">
+      <c r="G56" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="G55" s="53" t="s">
+    </row>
+    <row r="57" spans="5:7">
+      <c r="E57" s="32" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="56" spans="5:7">
-      <c r="E56" s="53" t="s">
+      <c r="F57" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="F56" s="53" t="s">
+      <c r="G57" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="G56" s="53" t="s">
+    </row>
+    <row r="58" spans="5:7">
+      <c r="E58" s="32" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="57" spans="5:7">
-      <c r="E57" s="53" t="s">
+      <c r="F58" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="F57" s="53" t="s">
+      <c r="G58" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="G57" s="53" t="s">
+    </row>
+    <row r="59" spans="5:7">
+      <c r="E59" s="32" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="58" spans="5:7">
-      <c r="E58" s="53" t="s">
+      <c r="F59" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="F58" s="53" t="s">
+      <c r="G59" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="G58" s="53" t="s">
+    </row>
+    <row r="60" spans="5:7" ht="30">
+      <c r="E60" s="32" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="59" spans="5:7">
-      <c r="E59" s="53" t="s">
+      <c r="F60" s="32" t="s">
         <v>341</v>
       </c>
-      <c r="F59" s="53" t="s">
+      <c r="G60" s="32" t="s">
         <v>342</v>
       </c>
-      <c r="G59" s="53" t="s">
+    </row>
+    <row r="61" spans="5:7">
+      <c r="E61" s="32" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" s="53" t="s">
+      <c r="F61" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="F60" s="53" t="s">
+    </row>
+    <row r="62" spans="5:7">
+      <c r="E62" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="G60" s="53" t="s">
+      <c r="F62" s="32" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="61" spans="5:7">
-      <c r="E61" s="53" t="s">
+      <c r="G62" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="F61" s="53" t="s">
+    </row>
+    <row r="63" spans="5:7">
+      <c r="F63" s="32" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="62" spans="5:7">
-      <c r="E62" s="53" t="s">
+      <c r="G63" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F62" s="53" t="s">
+    </row>
+    <row r="64" spans="5:7">
+      <c r="E64" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="G62" s="51" t="s">
+      <c r="F64" s="32" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="63" spans="5:7">
-      <c r="F63" s="53" t="s">
+      <c r="G64" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="G63" s="53" t="s">
+    </row>
+    <row r="65" spans="5:7">
+      <c r="E65" s="32" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="64" spans="5:7">
-      <c r="E64" s="51" t="s">
+      <c r="F65" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="F64" s="53" t="s">
+      <c r="G65" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="G64" s="53" t="s">
+    </row>
+    <row r="66" spans="5:7">
+      <c r="E66" s="32" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="65" spans="5:7">
-      <c r="E65" s="53" t="s">
+      <c r="F66" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="F65" s="53" t="s">
+      <c r="G66" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="G65" s="53" t="s">
+    </row>
+    <row r="67" spans="5:7">
+      <c r="E67" s="32" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="66" spans="5:7">
-      <c r="E66" s="53" t="s">
+      <c r="F67" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="F66" s="53" t="s">
+      <c r="G67" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="G66" s="53" t="s">
+    </row>
+    <row r="68" spans="5:7">
+      <c r="E68" s="32" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="67" spans="5:7">
-      <c r="E67" s="53" t="s">
+      <c r="F68" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="F67" s="53" t="s">
+      <c r="G68" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="G67" s="53" t="s">
+    </row>
+    <row r="69" spans="5:7">
+      <c r="E69" s="32" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="68" spans="5:7">
-      <c r="E68" s="53" t="s">
+      <c r="F69" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="F68" s="53" t="s">
+    </row>
+    <row r="70" spans="5:7">
+      <c r="E70" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="53" t="s">
+      <c r="F70" s="32" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="5:7">
-      <c r="E69" s="53" t="s">
+      <c r="G70" s="30" t="s">
         <v>369</v>
       </c>
-      <c r="F69" s="53" t="s">
+    </row>
+    <row r="71" spans="5:7">
+      <c r="E71" s="32" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="70" spans="5:7">
-      <c r="E70" s="53" t="s">
+      <c r="F71" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="F70" s="53" t="s">
+      <c r="G71" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="G70" s="51" t="s">
+    </row>
+    <row r="72" spans="5:7">
+      <c r="E72" s="32" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="71" spans="5:7">
-      <c r="E71" s="53" t="s">
+      <c r="F72" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="F71" s="53" t="s">
+      <c r="G72" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="G71" s="53" t="s">
+    </row>
+    <row r="73" spans="5:7">
+      <c r="E73" s="32" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="72" spans="5:7">
-      <c r="E72" s="53" t="s">
+      <c r="F73" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="F72" s="53" t="s">
+      <c r="G73" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="G72" s="53" t="s">
+    </row>
+    <row r="74" spans="5:7">
+      <c r="E74" s="32" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="73" spans="5:7">
-      <c r="E73" s="53" t="s">
+      <c r="F74" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="F73" s="53" t="s">
+      <c r="G74" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="G73" s="53" t="s">
+    </row>
+    <row r="75" spans="5:7">
+      <c r="E75" s="32" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="74" spans="5:7">
-      <c r="E74" s="53" t="s">
+      <c r="G75" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="F74" s="53" t="s">
+    </row>
+    <row r="76" spans="5:7">
+      <c r="E76" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="G74" s="53" t="s">
+      <c r="F76" s="30" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="75" spans="5:7">
-      <c r="E75" s="53" t="s">
+      <c r="G76" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="G75" s="53" t="s">
+    </row>
+    <row r="77" spans="5:7">
+      <c r="E77" s="32" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="76" spans="5:7">
-      <c r="E76" s="53" t="s">
+      <c r="F77" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="F76" s="51" t="s">
+      <c r="G77" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="G76" s="53" t="s">
+    </row>
+    <row r="78" spans="5:7">
+      <c r="E78" s="32" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="77" spans="5:7">
-      <c r="E77" s="53" t="s">
+      <c r="F78" s="32" t="s">
         <v>391</v>
       </c>
-      <c r="F77" s="53" t="s">
+      <c r="G78" s="32" t="s">
         <v>392</v>
       </c>
-      <c r="G77" s="53" t="s">
+    </row>
+    <row r="79" spans="5:7">
+      <c r="F79" s="32" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="78" spans="5:7">
-      <c r="E78" s="53" t="s">
+      <c r="G79" s="32" t="s">
         <v>394</v>
       </c>
-      <c r="F78" s="53" t="s">
+    </row>
+    <row r="80" spans="5:7">
+      <c r="F80" s="32" t="s">
         <v>395</v>
       </c>
-      <c r="G78" s="53" t="s">
+      <c r="G80" s="32" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="79" spans="5:7">
-      <c r="F79" s="53" t="s">
+    <row r="81" spans="6:6">
+      <c r="F81" s="32" t="s">
         <v>397</v>
       </c>
-      <c r="G79" s="53" t="s">
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="32" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="80" spans="5:7">
-      <c r="F80" s="53" t="s">
+    <row r="83" spans="6:6">
+      <c r="F83" s="32" t="s">
         <v>399</v>
       </c>
-      <c r="G80" s="53" t="s">
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="32" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="6:6">
-      <c r="F81" s="53" t="s">
+    <row r="85" spans="6:6">
+      <c r="F85" s="32" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="82" spans="6:6">
-      <c r="F82" s="53" t="s">
+    <row r="87" spans="6:6">
+      <c r="F87" s="30" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="83" spans="6:6">
-      <c r="F83" s="53" t="s">
+    <row r="88" spans="6:6">
+      <c r="F88" s="32" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="84" spans="6:6">
-      <c r="F84" s="53" t="s">
+    <row r="89" spans="6:6">
+      <c r="F89" s="32" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="85" spans="6:6">
-      <c r="F85" s="53" t="s">
+    <row r="90" spans="6:6">
+      <c r="F90" s="32" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="87" spans="6:6">
-      <c r="F87" s="51" t="s">
+    <row r="91" spans="6:6">
+      <c r="F91" s="32" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="88" spans="6:6">
-      <c r="F88" s="53" t="s">
+    <row r="92" spans="6:6">
+      <c r="F92" s="32" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="89" spans="6:6">
-      <c r="F89" s="53" t="s">
+    <row r="93" spans="6:6">
+      <c r="F93" s="32" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="90" spans="6:6">
-      <c r="F90" s="53" t="s">
+    <row r="94" spans="6:6">
+      <c r="F94" s="32" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="91" spans="6:6">
-      <c r="F91" s="53" t="s">
+    <row r="95" spans="6:6">
+      <c r="F95" s="32" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="92" spans="6:6">
-      <c r="F92" s="53" t="s">
+    <row r="96" spans="6:6">
+      <c r="F96" s="32" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="93" spans="6:6">
-      <c r="F93" s="53" t="s">
+    <row r="97" spans="6:6">
+      <c r="F97" s="32" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="94" spans="6:6">
-      <c r="F94" s="53" t="s">
+    <row r="98" spans="6:6">
+      <c r="F98" s="32" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="95" spans="6:6">
-      <c r="F95" s="53" t="s">
+    <row r="99" spans="6:6">
+      <c r="F99" s="32" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="96" spans="6:6">
-      <c r="F96" s="53" t="s">
+    <row r="100" spans="6:6">
+      <c r="F100" s="32" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="97" spans="6:6">
-      <c r="F97" s="53" t="s">
+    <row r="101" spans="6:6">
+      <c r="F101" s="32" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="98" spans="6:6">
-      <c r="F98" s="53" t="s">
+    <row r="102" spans="6:6">
+      <c r="F102" s="32" t="s">
         <v>417</v>
-      </c>
-    </row>
-    <row r="99" spans="6:6">
-      <c r="F99" s="53" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="100" spans="6:6">
-      <c r="F100" s="53" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="101" spans="6:6">
-      <c r="F101" s="53" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="102" spans="6:6">
-      <c r="F102" s="53" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A15" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34071,273 +34394,273 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="49"/>
-    <col min="2" max="2" width="32" style="49" customWidth="1"/>
-    <col min="3" max="4" width="14.44140625" style="49"/>
-    <col min="5" max="5" width="45.6640625" style="49" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="49"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="32" style="28" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" style="28"/>
+    <col min="5" max="5" width="45.7109375" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="55.8">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:5" ht="57.75">
+      <c r="A1" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>420</v>
+      </c>
+      <c r="C3" s="27">
+        <v>1</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="27">
+        <v>1</v>
+      </c>
+      <c r="E4" s="32" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>428</v>
+      </c>
+      <c r="C5" s="27">
+        <v>1</v>
+      </c>
+      <c r="E5" s="32" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="E1" s="53" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="57.6">
-      <c r="A2" s="48" t="s">
+      <c r="C6" s="27">
+        <v>2</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="C7" s="27">
+        <v>2</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>430</v>
+      </c>
+      <c r="C8" s="27">
+        <v>2</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B11" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C11" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="53" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="43.2">
-      <c r="A3" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>424</v>
-      </c>
-      <c r="C3" s="48">
-        <v>1</v>
-      </c>
-      <c r="E3" s="53" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8">
-      <c r="A4" s="48" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="52" t="s">
-        <v>430</v>
-      </c>
-      <c r="C4" s="48">
-        <v>1</v>
-      </c>
-      <c r="E4" s="53" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="28.8">
-      <c r="A5" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>432</v>
-      </c>
-      <c r="C5" s="48">
-        <v>1</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.8">
-      <c r="A6" s="48" t="s">
+      <c r="E11" s="32" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>436</v>
+      </c>
+      <c r="C12" s="27">
+        <v>2</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="48" t="s">
-        <v>426</v>
-      </c>
-      <c r="C6" s="48">
+      <c r="B13" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="C13" s="27">
         <v>2</v>
       </c>
-      <c r="E6" s="53" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="43.2">
-      <c r="A7" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>428</v>
-      </c>
-      <c r="C7" s="48">
+      <c r="E13" s="32" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>440</v>
+      </c>
+      <c r="C14" s="27">
         <v>2</v>
       </c>
-      <c r="E7" s="53" t="s">
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="C15" s="27">
+        <v>2</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8">
-      <c r="A8" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="52" t="s">
-        <v>434</v>
-      </c>
-      <c r="C8" s="48">
+    <row r="16" spans="1:5">
+      <c r="A16" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="C16" s="27">
         <v>2</v>
       </c>
-      <c r="E8" s="53" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="43.2">
-      <c r="E9" s="53" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="57.6">
-      <c r="A10" s="53" t="s">
-        <v>437</v>
-      </c>
-      <c r="E10" s="53" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="43.2">
-      <c r="A11" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>84</v>
-      </c>
-      <c r="C11" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="53" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="57.6">
-      <c r="A12" s="48" t="s">
-        <v>133</v>
-      </c>
-      <c r="B12" s="52" t="s">
-        <v>440</v>
-      </c>
-      <c r="C12" s="48">
-        <v>2</v>
-      </c>
-      <c r="E12" s="53" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="43.2">
-      <c r="A13" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>442</v>
-      </c>
-      <c r="C13" s="48">
-        <v>2</v>
-      </c>
-      <c r="E13" s="53" t="s">
+      <c r="E16" s="32" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="48" t="s">
+    <row r="17" spans="5:5">
+      <c r="E17" s="32" t="s">
         <v>444</v>
       </c>
-      <c r="C14" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="57.6">
-      <c r="A15" s="48" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" s="48" t="s">
+    </row>
+    <row r="18" spans="5:5">
+      <c r="E18" s="32" t="s">
         <v>445</v>
       </c>
-      <c r="C15" s="48">
-        <v>2</v>
-      </c>
-      <c r="E15" s="53" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="43.2">
-      <c r="A16" s="48" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="48" t="s">
+    </row>
+    <row r="19" spans="5:5">
+      <c r="E19" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="C16" s="48">
-        <v>2</v>
-      </c>
-      <c r="E16" s="53" t="s">
+    </row>
+    <row r="20" spans="5:5">
+      <c r="E20" s="32" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="17" spans="5:5" ht="28.8">
-      <c r="E17" s="53" t="s">
+    <row r="21" spans="5:5">
+      <c r="E21" s="32" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="18" spans="5:5" ht="43.2">
-      <c r="E18" s="53" t="s">
+    <row r="22" spans="5:5">
+      <c r="E22" s="32" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="19" spans="5:5" ht="43.2">
-      <c r="E19" s="53" t="s">
+    <row r="23" spans="5:5">
+      <c r="E23" s="32" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="5:5" ht="28.8">
-      <c r="E20" s="53" t="s">
+    <row r="24" spans="5:5">
+      <c r="E24" s="32" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="21" spans="5:5" ht="28.8">
-      <c r="E21" s="53" t="s">
+    <row r="25" spans="5:5">
+      <c r="E25" s="32" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="22" spans="5:5" ht="43.2">
-      <c r="E22" s="53" t="s">
+    <row r="26" spans="5:5">
+      <c r="E26" s="32" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="23" spans="5:5" ht="28.8">
-      <c r="E23" s="53" t="s">
+    <row r="27" spans="5:5">
+      <c r="E27" s="32" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="24" spans="5:5" ht="28.8">
-      <c r="E24" s="53" t="s">
+    <row r="28" spans="5:5">
+      <c r="E28" s="32" t="s">
         <v>455</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" ht="28.8">
-      <c r="E25" s="53" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="26" spans="5:5" ht="28.8">
-      <c r="E26" s="53" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="27" spans="5:5" ht="28.8">
-      <c r="E27" s="53" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="28" spans="5:5" ht="28.8">
-      <c r="E28" s="53" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -34350,7 +34673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34358,24 +34681,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="26" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="26" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="26" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desk\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A7BE4D-F55A-4D42-846B-7284FA4AC175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="6345" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
@@ -305,24 +306,6 @@
     <t>ch3</t>
   </si>
   <si>
-    <t>Object and Struct (copy by value)
- Fields, readonly, Properties (get;set;)
- 匿名類型 ( var a = new { n="N" };
- 方法
- 方法的重載 (Method Overloading) 相同 method namd 不同參數
- 命名的參數 funcA(x: 30, y:20, z:10)
- 有預設值的參數
- 個數可變的參數
- 構造函數(建構函數)
- 靜態構造函數
- 結構(struct)
- Pass by Value, ref, out, in, nullable
- 枚舉類型 (enum)
- partial class
- 擴究方法 ExtensionMethod
- System.Object</t>
-  </si>
-  <si>
     <t>ch4</t>
   </si>
   <si>
@@ -1835,6 +1818,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1852,6 +1836,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1868,6 +1853,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>scope(</t>
     </r>
@@ -1884,6 +1870,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)
  </t>
@@ -1901,6 +1888,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">const
  Value Types and Reference Types
@@ -1919,6 +1907,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (12.3f, 60m)
  </t>
@@ -1936,6 +1925,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(string), @"c:\tmp\aaa.doc", $"Hello {name}"
  </t>
@@ -1953,6 +1943,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> if…else, switch, for, while, do…while, foreach
  </t>
@@ -1970,6 +1961,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(namespace), using, using alisas = NamespaceName;
  </t>
@@ -1987,6 +1979,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>, XML</t>
     </r>
@@ -2004,6 +1997,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> #define, #undef, #if, #elif, #else, #endif, #waning, #error
  #region #endregion
@@ -2039,6 +2033,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> SQL Server</t>
     </r>
@@ -2061,6 +2056,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -2092,6 +2088,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>SQL Server</t>
     </r>
@@ -2100,12 +2097,281 @@
   <si>
     <t>https://www.books.com.tw/products/0010741473</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Object and Struct (copy by value)
+ Fields, readonly, Properties (get;set;)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>匿名類型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ( var a = new { n="N" };
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">方法
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>方法的重載</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Method Overloading) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method namd </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">不同參數
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>命名的參數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> funcA(x: 30, y:20, z:10)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">有預設值的參數
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">個數可變的參數
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>構造函數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>建構函數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">靜態構造函數
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>結構</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(struct)
+ Pass by Value, ref, out, in, nullable
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>枚舉類型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (enum)
+ partial class
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>擴究方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ExtensionMethod
+ System.Object</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2114,11 +2380,13 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2137,35 +2405,42 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2178,6 +2453,7 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2206,6 +2482,25 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2561,6 +2856,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2597,27 +2908,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2932,19 +3227,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -2976,12 +3271,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3011,8 +3306,8 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="40"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="46"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3068,17 +3363,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="49" t="s">
+      <c r="C5" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3102,8 +3397,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="46"/>
-      <c r="B6" s="47"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3136,7 +3431,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="46"/>
+      <c r="A7" s="52"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3166,7 +3461,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="46"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3196,7 +3491,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="46"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3226,7 +3521,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="46"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3256,7 +3551,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="46"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3286,7 +3581,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="46"/>
+      <c r="A12" s="52"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3316,7 +3611,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A13" s="47"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3376,17 +3671,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3410,8 +3705,8 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
@@ -3444,7 +3739,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="46"/>
+      <c r="A17" s="52"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -3474,7 +3769,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="46"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3504,7 +3799,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="46"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3534,7 +3829,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="46"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3564,7 +3859,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="46"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
@@ -3594,7 +3889,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="46"/>
+      <c r="A22" s="52"/>
       <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
@@ -3624,7 +3919,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="46"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -3654,7 +3949,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="66" customHeight="1">
-      <c r="A24" s="47"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
@@ -3684,13 +3979,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A25" s="38" t="s">
+      <c r="A25" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="46"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -3746,11 +4041,11 @@
       <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="50" t="s">
+      <c r="C27" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="46"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -3774,15 +4069,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="51" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -3806,13 +4101,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="46"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="54"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -3836,13 +4131,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="46"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="51"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="53"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -3866,13 +4161,13 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="46"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="54"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="56"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3896,13 +4191,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A32" s="47"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="40"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="46"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3926,13 +4221,13 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="40"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="46"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -31056,7 +31351,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31066,14 +31361,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="14.4">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
@@ -31092,7 +31387,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
@@ -31105,7 +31400,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.4">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -31118,7 +31413,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="14.4">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -31131,7 +31426,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="14.4">
       <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
@@ -31144,7 +31439,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="14.4">
       <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
@@ -31157,7 +31452,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="14.4">
       <c r="A7" s="19" t="s">
         <v>43</v>
       </c>
@@ -31180,54 +31475,54 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="63" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="64" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -31243,7 +31538,7 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B5" s="47"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -31251,7 +31546,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -31265,7 +31560,7 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B7" s="47"/>
+      <c r="B7" s="53"/>
       <c r="C7" s="23" t="s">
         <v>57</v>
       </c>
@@ -31279,7 +31574,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="64" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -31295,7 +31590,7 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B9" s="47"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="23" t="s">
         <v>64</v>
       </c>
@@ -31305,7 +31600,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="64" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -31321,7 +31616,7 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B11" s="47"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
         <v>69</v>
@@ -31333,7 +31628,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="64" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="23"/>
@@ -31347,7 +31642,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B13" s="47"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
@@ -31357,7 +31652,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="64" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23"/>
@@ -31369,7 +31664,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B15" s="47"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -32396,6 +32691,11 @@
     <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
@@ -32403,11 +32703,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32416,22 +32711,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
-    <col min="2" max="2" width="61.28515625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="2" max="2" width="61.33203125" style="28" customWidth="1"/>
     <col min="3" max="3" width="6" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="28"/>
+    <col min="4" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -32445,265 +32740,265 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="61" customFormat="1" ht="200.25">
-      <c r="A2" s="59" t="s">
+    <row r="2" spans="1:3" s="40" customFormat="1" ht="191.4">
+      <c r="A2" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>519</v>
-      </c>
-      <c r="C2" s="59">
+      <c r="B2" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="228">
+    <row r="3" spans="1:3" ht="227.4">
       <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>88</v>
+        <v>523</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="61" customFormat="1" ht="114">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:3" s="40" customFormat="1" ht="110.4">
+      <c r="A4" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="59">
+      <c r="C4" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>91</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>92</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="61" customFormat="1" ht="71.25">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:3" s="40" customFormat="1" ht="69">
+      <c r="A6" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="C6" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="55.2">
+      <c r="A7" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="57">
-      <c r="A7" s="27" t="s">
+      <c r="B7" s="27" t="s">
         <v>95</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>96</v>
       </c>
       <c r="C7" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="61" customFormat="1" ht="57">
-      <c r="A8" s="59" t="s">
+    <row r="8" spans="1:3" s="40" customFormat="1" ht="55.2">
+      <c r="A8" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="C8" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="55.2">
+      <c r="A9" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="57">
-      <c r="A9" s="27" t="s">
+      <c r="B9" s="27" t="s">
         <v>101</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>102</v>
       </c>
       <c r="C9" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="61" customFormat="1" ht="114">
-      <c r="A10" s="59" t="s">
+    <row r="10" spans="1:3" s="40" customFormat="1" ht="110.4">
+      <c r="A10" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="C10" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="41.4">
+      <c r="A11" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="42.75">
-      <c r="A11" s="27" t="s">
+      <c r="B11" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>106</v>
       </c>
       <c r="C11" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="61" customFormat="1" ht="42.75">
-      <c r="A12" s="59" t="s">
+    <row r="12" spans="1:3" s="40" customFormat="1" ht="41.4">
+      <c r="A12" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="C12" s="38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="27.6">
+      <c r="A13" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="C12" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="28.5">
-      <c r="A13" s="27" t="s">
+      <c r="B13" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="61" customFormat="1" ht="42.75">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:3" s="40" customFormat="1" ht="41.4">
+      <c r="A14" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B14" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="59">
+      <c r="C14" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="71.25">
+    <row r="15" spans="1:3" ht="69">
       <c r="A15" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>127</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>128</v>
       </c>
       <c r="C15" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="61" customFormat="1" ht="57">
-      <c r="A16" s="59" t="s">
+    <row r="16" spans="1:3" s="40" customFormat="1" ht="55.2">
+      <c r="A16" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="59">
+      <c r="C16" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>112</v>
       </c>
       <c r="C17" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="61" customFormat="1" ht="42.75">
-      <c r="A18" s="59" t="s">
+    <row r="18" spans="1:3" s="40" customFormat="1" ht="41.4">
+      <c r="A18" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="C18" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="41.4">
+      <c r="A19" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="42.75">
-      <c r="A19" s="27" t="s">
+      <c r="B19" s="27" t="s">
         <v>115</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>116</v>
       </c>
       <c r="C19" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="61" customFormat="1" ht="99.75">
-      <c r="A20" s="59" t="s">
+    <row r="20" spans="1:3" s="40" customFormat="1" ht="96.6">
+      <c r="A20" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="B20" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="C20" s="59">
+      <c r="C20" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>124</v>
       </c>
       <c r="C21" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="61" customFormat="1">
-      <c r="A22" s="59" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="59" t="s">
-        <v>518</v>
-      </c>
-      <c r="C22" s="59">
+    <row r="22" spans="1:3" s="40" customFormat="1">
+      <c r="A22" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>517</v>
+      </c>
+      <c r="C22" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.5">
+    <row r="23" spans="1:3" ht="27.6">
       <c r="A23" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="C23" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="61" customFormat="1" ht="42.75">
-      <c r="A24" s="59" t="s">
+    <row r="24" spans="1:3" s="40" customFormat="1" ht="41.4">
+      <c r="A24" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="B24" s="59" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="59">
+      <c r="C24" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.5">
+    <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>131</v>
       </c>
       <c r="C25" s="27">
         <v>3</v>
@@ -32720,7 +33015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32730,11 +33025,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
-    <col min="2" max="2" width="50.7109375" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="2" max="2" width="50.6640625" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -32750,225 +33045,225 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>133</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" ht="57">
+    <row r="3" spans="1:6" ht="55.2">
       <c r="A3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5">
+    <row r="4" spans="1:6" ht="27.6">
       <c r="A4" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" ht="57">
+    <row r="5" spans="1:6" ht="55.2">
       <c r="A5" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.5">
+    </row>
+    <row r="6" spans="1:6" ht="27.6">
       <c r="A6" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="41.4">
+      <c r="A7" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="42.75">
-      <c r="A7" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="138">
+      <c r="A8" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="142.5">
-      <c r="A8" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="151.80000000000001">
+      <c r="A9" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="156.75">
-      <c r="A9" s="27" t="s">
+      <c r="B9" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>144</v>
-      </c>
       <c r="C9" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="114">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="110.4">
       <c r="A10" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>148</v>
-      </c>
       <c r="C10" s="27" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="185.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="179.4">
       <c r="A11" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>154</v>
-      </c>
       <c r="C11" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="42.75">
+    </row>
+    <row r="13" spans="1:6" ht="41.4">
       <c r="A13" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>146</v>
-      </c>
       <c r="C13" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="28.5">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27.6">
       <c r="A14" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="C14" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="69">
+      <c r="A15" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="71.25">
-      <c r="A15" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="27" t="s">
+      <c r="C15" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="138">
+      <c r="A16" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="142.5">
-      <c r="A16" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>152</v>
-      </c>
       <c r="C16" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="71.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="69">
       <c r="A17" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="69">
+      <c r="A18" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="71.25">
-      <c r="A18" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="55.2">
+      <c r="A19" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>157</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="57">
-      <c r="A19" s="27" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>158</v>
-      </c>
       <c r="C19" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="41.4">
+      <c r="A21" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="42.75">
-      <c r="A21" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>160</v>
-      </c>
       <c r="C21" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -32981,7 +33276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -32991,324 +33286,324 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="105.28515625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="56.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="105.33203125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="32" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="69">
+      <c r="A3" s="36" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="71.25">
-      <c r="A3" s="36" t="s">
+      <c r="B3" s="27" t="s">
         <v>463</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>464</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="55.2">
+      <c r="A4" s="36" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="57">
-      <c r="A4" s="36" t="s">
+      <c r="B4" s="27" t="s">
         <v>466</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="69">
+      <c r="A5" s="36" t="s">
         <v>467</v>
       </c>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" ht="71.25">
-      <c r="A5" s="36" t="s">
+      <c r="B5" s="27" t="s">
         <v>468</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" ht="55.2">
+      <c r="A6" s="36" t="s">
         <v>469</v>
       </c>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" ht="57">
-      <c r="A6" s="36" t="s">
+      <c r="B6" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" ht="41.4">
+      <c r="A7" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" ht="42.75">
-      <c r="A7" s="36" t="s">
+      <c r="B7" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" ht="27.6">
+      <c r="A8" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" ht="28.5">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="27" t="s">
         <v>474</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>475</v>
       </c>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
-    <row r="10" spans="1:4" ht="42.75">
+    <row r="10" spans="1:4" ht="41.4">
       <c r="A10" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>477</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" ht="82.8">
+      <c r="A11" s="36" t="s">
         <v>478</v>
       </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" ht="85.5">
-      <c r="A11" s="36" t="s">
+      <c r="B11" s="27" t="s">
         <v>479</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:4" ht="55.2">
+      <c r="A12" s="36" t="s">
         <v>480</v>
       </c>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" ht="57">
-      <c r="A12" s="36" t="s">
+      <c r="B12" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" ht="41.4">
+      <c r="A13" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" ht="42.75">
-      <c r="A13" s="36" t="s">
+      <c r="B13" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="27.6">
+      <c r="A14" s="36" t="s">
         <v>484</v>
       </c>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" ht="28.5">
-      <c r="A14" s="36" t="s">
+      <c r="B14" s="27" t="s">
         <v>485</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>486</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="34" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
     </row>
-    <row r="16" spans="1:4" ht="42.75">
+    <row r="16" spans="1:4" ht="41.4">
       <c r="A16" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3" ht="55.2">
+      <c r="A17" s="36" t="s">
         <v>489</v>
       </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:3" ht="57">
-      <c r="A17" s="36" t="s">
+      <c r="B17" s="27" t="s">
         <v>490</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" ht="55.2">
+      <c r="A18" s="36" t="s">
         <v>491</v>
       </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:3" ht="57">
-      <c r="A18" s="36" t="s">
+      <c r="B18" s="27" t="s">
         <v>492</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" ht="69">
+      <c r="A19" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="1:3" ht="71.25">
-      <c r="A19" s="36" t="s">
+      <c r="B19" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" ht="69">
+      <c r="A20" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3" ht="71.25">
-      <c r="A20" s="36" t="s">
+      <c r="B20" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" ht="43.2">
+      <c r="A21" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:3" ht="45">
-      <c r="A21" s="36" t="s">
+      <c r="B21" s="31" t="s">
         <v>498</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>499</v>
       </c>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
     </row>
-    <row r="23" spans="1:3" ht="57">
+    <row r="23" spans="1:3" ht="55.2">
       <c r="A23" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:3" ht="41.4">
+      <c r="A24" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:3" ht="57">
-      <c r="A24" s="36" t="s">
+      <c r="B24" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:3" ht="27.6">
+      <c r="A25" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" ht="28.5">
-      <c r="A25" s="36" t="s">
+      <c r="B25" s="27" t="s">
         <v>505</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>506</v>
       </c>
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
     </row>
-    <row r="27" spans="1:3" ht="156.75">
+    <row r="27" spans="1:3" ht="151.80000000000001">
       <c r="A27" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>508</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" ht="69">
+      <c r="A28" s="36" t="s">
         <v>509</v>
       </c>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:3" ht="71.25">
-      <c r="A28" s="36" t="s">
+      <c r="B28" s="27" t="s">
         <v>510</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" ht="41.4">
+      <c r="A29" s="36" t="s">
         <v>511</v>
       </c>
-      <c r="C28" s="29"/>
-    </row>
-    <row r="29" spans="1:3" ht="42.75">
-      <c r="A29" s="36" t="s">
+      <c r="B29" s="27" t="s">
         <v>512</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" ht="55.2">
+      <c r="A30" s="36" t="s">
         <v>513</v>
       </c>
-      <c r="C29" s="29"/>
-    </row>
-    <row r="30" spans="1:3" ht="57">
-      <c r="A30" s="36" t="s">
+      <c r="B30" s="27" t="s">
         <v>514</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" ht="82.8">
+      <c r="A31" s="36" t="s">
         <v>515</v>
       </c>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:3" ht="85.5">
-      <c r="A31" s="36" t="s">
+      <c r="B31" s="27" t="s">
         <v>516</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>517</v>
       </c>
       <c r="C31" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
-    <col min="2" max="2" width="31.5703125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="28"/>
-    <col min="5" max="5" width="38.85546875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="2" max="2" width="31.5546875" style="28" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" style="28"/>
+    <col min="5" max="5" width="38.88671875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="27" t="s">
         <v>83</v>
       </c>
@@ -33318,1073 +33613,1073 @@
       <c r="C1" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="62" t="s">
-        <v>520</v>
+      <c r="E1" s="41" t="s">
+        <v>519</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75">
+    </row>
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="31" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
       </c>
-      <c r="E2" s="63" t="s">
-        <v>522</v>
+      <c r="E2" s="42" t="s">
+        <v>521</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75">
+    </row>
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="31" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="63" t="s">
-        <v>521</v>
+      <c r="E3" s="42" t="s">
+        <v>520</v>
       </c>
       <c r="F3" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>167</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>171</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>175</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="E6" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>179</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="32" t="s">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30">
-      <c r="A8" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>185</v>
       </c>
       <c r="C8" s="31">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>187</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
       </c>
       <c r="E9" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>191</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C11" s="31">
         <v>3</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>198</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C12" s="31">
         <v>3</v>
       </c>
       <c r="E12" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>202</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="31">
         <v>3</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="G14" s="32" t="s">
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="43" t="s">
+        <v>522</v>
+      </c>
+      <c r="E15" s="32" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="64" t="s">
-        <v>523</v>
-      </c>
-      <c r="E15" s="32" t="s">
+      <c r="F15" s="32" t="s">
         <v>211</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>212</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" s="32" t="s">
+        <v>213</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>217</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="G18" s="30" t="s">
         <v>220</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="G19" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="G20" s="32" t="s">
         <v>226</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="G21" s="32" t="s">
         <v>229</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>231</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>232</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>234</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="30" t="s">
         <v>237</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>240</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="G26" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="G27" s="32" t="s">
+    </row>
+    <row r="28" spans="5:7">
+      <c r="E28" s="32" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="28" spans="5:7" ht="30">
-      <c r="E28" s="32" t="s">
+      <c r="F28" s="32" t="s">
         <v>248</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="G28" s="32" t="s">
         <v>249</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>251</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="G29" s="32" t="s">
         <v>252</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="F30" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>254</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="G31" s="32" t="s">
         <v>257</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="G32" s="32" t="s">
         <v>260</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="G33" s="32" t="s">
         <v>263</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="G34" s="32" t="s">
         <v>266</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>268</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="G35" s="32" t="s">
         <v>269</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>271</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="G36" s="32" t="s">
         <v>272</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>274</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="G38" s="30" t="s">
         <v>277</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="G39" s="32" t="s">
         <v>280</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="G40" s="32" t="s">
         <v>283</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="G41" s="32" t="s">
         <v>286</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="G42" s="32" t="s">
         <v>289</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="G43" s="32" t="s">
         <v>292</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="G44" s="32" t="s">
         <v>295</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="G45" s="32" t="s">
         <v>298</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>300</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="G46" s="32" t="s">
         <v>301</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="32" t="s">
+        <v>302</v>
+      </c>
+      <c r="F47" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="G47" s="32" t="s">
         <v>304</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="F48" s="32" t="s">
+        <v>305</v>
+      </c>
+      <c r="G48" s="32" t="s">
         <v>306</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" s="30" t="s">
+        <v>307</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="G49" s="32" t="s">
         <v>309</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="G50" s="32" t="s">
         <v>312</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="F51" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="G51" s="32" t="s">
         <v>315</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="F52" s="32" t="s">
         <v>317</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="G52" s="32" t="s">
         <v>318</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>320</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="G53" s="32" t="s">
         <v>321</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="G54" s="32" t="s">
         <v>323</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="F55" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="G55" s="32" t="s">
         <v>326</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="F56" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="G56" s="32" t="s">
         <v>329</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="F57" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="G57" s="32" t="s">
         <v>332</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="F58" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="G58" s="32" t="s">
         <v>335</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F59" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="G59" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="G59" s="32" t="s">
+    </row>
+    <row r="60" spans="5:7">
+      <c r="E60" s="32" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="60" spans="5:7" ht="30">
-      <c r="E60" s="32" t="s">
+      <c r="F60" s="32" t="s">
         <v>340</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="G60" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="F61" s="32" t="s">
         <v>343</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="F62" s="32" t="s">
         <v>345</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="G62" s="30" t="s">
         <v>346</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="F63" s="32" t="s">
+        <v>347</v>
+      </c>
+      <c r="G63" s="32" t="s">
         <v>348</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" s="30" t="s">
+        <v>349</v>
+      </c>
+      <c r="F64" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="G64" s="32" t="s">
         <v>351</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F65" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="G65" s="32" t="s">
         <v>354</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="F66" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="G66" s="32" t="s">
         <v>357</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="F67" s="32" t="s">
         <v>359</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="G67" s="32" t="s">
         <v>360</v>
-      </c>
-      <c r="G67" s="32" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="F68" s="32" t="s">
         <v>362</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="G68" s="32" t="s">
         <v>363</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="G70" s="30" t="s">
         <v>368</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="G71" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="F72" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="G72" s="32" t="s">
         <v>374</v>
-      </c>
-      <c r="G72" s="32" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>376</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="G73" s="32" t="s">
         <v>377</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" s="32" t="s">
+        <v>378</v>
+      </c>
+      <c r="F74" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="F74" s="32" t="s">
+      <c r="G74" s="32" t="s">
         <v>380</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="G75" s="32" t="s">
         <v>382</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="F76" s="30" t="s">
         <v>384</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="G76" s="32" t="s">
         <v>385</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>387</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="G77" s="32" t="s">
         <v>388</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" s="32" t="s">
+        <v>389</v>
+      </c>
+      <c r="F78" s="32" t="s">
         <v>390</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="G78" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="F79" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="G79" s="32" t="s">
         <v>393</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="F80" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="G80" s="32" t="s">
         <v>395</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="30" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34394,21 +34689,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
     <col min="2" max="2" width="32" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="28"/>
-    <col min="5" max="5" width="45.7109375" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="14.42578125" style="28"/>
+    <col min="3" max="4" width="14.44140625" style="28"/>
+    <col min="5" max="5" width="45.6640625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57.75">
+    <row r="1" spans="1:5" ht="55.8">
       <c r="A1" s="33" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -34422,49 +34717,49 @@
         <v>85</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>419</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>420</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C4" s="27">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -34472,13 +34767,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C6" s="27">
         <v>2</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -34486,40 +34781,40 @@
         <v>87</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C7" s="27">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>430</v>
       </c>
       <c r="C8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="32" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="57.6">
+      <c r="A10" s="32" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="75">
-      <c r="A10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>433</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -34533,21 +34828,21 @@
         <v>85</v>
       </c>
       <c r="E11" s="32" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>435</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>436</v>
       </c>
       <c r="C12" s="27">
         <v>2</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -34555,13 +34850,13 @@
         <v>86</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C13" s="27">
         <v>2</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -34569,7 +34864,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C14" s="27">
         <v>2</v>
@@ -34577,90 +34872,90 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C15" s="27">
         <v>2</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C16" s="27">
         <v>2</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -34673,7 +34968,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34681,24 +34976,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desk\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A7BE4D-F55A-4D42-846B-7284FA4AC175}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="6345" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
@@ -307,16 +306,6 @@
   </si>
   <si>
     <t>ch4</t>
-  </si>
-  <si>
-    <t>繼承
- 虛方法 virtual, override
- 隱藏方法(Hiding Methods)
- 呼叫父類型的方法 base.MethodA()
- abstract
- sealed 不能被繼承
- 修飾符 modified
- as, is</t>
   </si>
   <si>
     <t>ch5</t>
@@ -2366,12 +2355,136 @@
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">繼承
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>虛方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> virtual, override
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>隱藏方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(Hiding Methods)
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>呼叫父類型的方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> base.MethodA()
+ abstract
+ sealed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">不能被繼承
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>修飾符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> modified
+ as, is</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2502,6 +2615,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="5">
@@ -2773,7 +2893,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2908,10 +3028,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3227,19 +3350,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -31351,7 +31474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31361,14 +31484,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
@@ -31387,7 +31510,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
@@ -31400,7 +31523,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -31413,7 +31536,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -31426,7 +31549,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
@@ -31439,7 +31562,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="14.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
@@ -31452,7 +31575,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="14.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
         <v>43</v>
       </c>
@@ -31475,41 +31598,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="64" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31522,7 +31645,7 @@
       <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="63" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -31546,7 +31669,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="63" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -31574,7 +31697,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -31600,7 +31723,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="63" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -31628,7 +31751,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="63" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="23"/>
@@ -31652,7 +31775,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="63" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23"/>
@@ -32691,11 +32814,6 @@
     <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
@@ -32703,6 +32821,11 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32711,22 +32834,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="28"/>
-    <col min="2" max="2" width="61.33203125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="61.28515625" style="28" customWidth="1"/>
     <col min="3" max="3" width="6" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="14.44140625" style="28"/>
+    <col min="4" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -32740,34 +32863,34 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="40" customFormat="1" ht="191.4">
+    <row r="2" spans="1:3" s="40" customFormat="1" ht="200.25">
       <c r="A2" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="227.4">
+    <row r="3" spans="1:3" ht="236.25">
       <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="40" customFormat="1" ht="110.4">
+    <row r="4" spans="1:3" s="40" customFormat="1" ht="123">
       <c r="A4" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>89</v>
+      <c r="B4" s="65" t="s">
+        <v>523</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -32775,131 +32898,131 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>90</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>91</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="40" customFormat="1" ht="69">
+    <row r="6" spans="1:3" s="40" customFormat="1" ht="71.25">
       <c r="A6" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>92</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>93</v>
       </c>
       <c r="C6" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="55.2">
+    <row r="7" spans="1:3" ht="57">
       <c r="A7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>94</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>95</v>
       </c>
       <c r="C7" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="40" customFormat="1" ht="55.2">
+    <row r="8" spans="1:3" s="40" customFormat="1" ht="57">
       <c r="A8" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>98</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>99</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="55.2">
+    <row r="9" spans="1:3" ht="57">
       <c r="A9" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>100</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>101</v>
       </c>
       <c r="C9" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" ht="110.4">
+    <row r="10" spans="1:3" s="40" customFormat="1" ht="114">
       <c r="A10" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>102</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>103</v>
       </c>
       <c r="C10" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="41.4">
+    <row r="11" spans="1:3" ht="42.75">
       <c r="A11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>105</v>
       </c>
       <c r="C11" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="40" customFormat="1" ht="41.4">
+    <row r="12" spans="1:3" s="40" customFormat="1" ht="42.75">
       <c r="A12" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>107</v>
       </c>
       <c r="C12" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="28.5">
       <c r="A13" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="40" customFormat="1" ht="41.4">
+    <row r="14" spans="1:3" s="40" customFormat="1" ht="42.75">
       <c r="A14" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>120</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>121</v>
       </c>
       <c r="C14" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="69">
+    <row r="15" spans="1:3" ht="71.25">
       <c r="A15" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>127</v>
       </c>
       <c r="C15" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="40" customFormat="1" ht="55.2">
+    <row r="16" spans="1:3" s="40" customFormat="1" ht="57">
       <c r="A16" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>96</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>97</v>
       </c>
       <c r="C16" s="38">
         <v>2</v>
@@ -32907,43 +33030,43 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="C17" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="40" customFormat="1" ht="41.4">
+    <row r="18" spans="1:3" s="40" customFormat="1" ht="42.75">
       <c r="A18" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>112</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>113</v>
       </c>
       <c r="C18" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="41.4">
+    <row r="19" spans="1:3" ht="42.75">
       <c r="A19" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>114</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>115</v>
       </c>
       <c r="C19" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="40" customFormat="1" ht="96.6">
+    <row r="20" spans="1:3" s="40" customFormat="1" ht="99.75">
       <c r="A20" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>119</v>
       </c>
       <c r="C20" s="38">
         <v>2</v>
@@ -32951,10 +33074,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>122</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>123</v>
       </c>
       <c r="C21" s="27">
         <v>2</v>
@@ -32962,43 +33085,43 @@
     </row>
     <row r="22" spans="1:3" s="40" customFormat="1">
       <c r="A22" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C22" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="28.5">
       <c r="A23" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>117</v>
       </c>
       <c r="C23" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="40" customFormat="1" ht="41.4">
+    <row r="24" spans="1:3" s="40" customFormat="1" ht="42.75">
       <c r="A24" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>124</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>125</v>
       </c>
       <c r="C24" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="27.6">
+    <row r="25" spans="1:3" ht="28.5">
       <c r="A25" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>129</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>130</v>
       </c>
       <c r="C25" s="27">
         <v>3</v>
@@ -33015,7 +33138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33025,11 +33148,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="28"/>
-    <col min="2" max="2" width="50.6640625" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="28"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="50.7109375" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -33045,225 +33168,225 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>132</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" ht="55.2">
+    <row r="3" spans="1:6" ht="57">
       <c r="A3" s="27" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" ht="27.6">
+    <row r="4" spans="1:6" ht="28.5">
       <c r="A4" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" ht="55.2">
+    <row r="5" spans="1:6" ht="57">
       <c r="A5" s="27" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6">
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
       <c r="A6" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42.75">
+      <c r="A7" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="41.4">
-      <c r="A7" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="142.5">
+      <c r="A8" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="138">
-      <c r="A8" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="156.75">
+      <c r="A9" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="151.80000000000001">
-      <c r="A9" s="27" t="s">
+      <c r="B9" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="C9" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="110.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="114">
       <c r="A10" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>147</v>
-      </c>
       <c r="C10" s="27" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="179.4">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="185.25">
       <c r="A11" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>153</v>
-      </c>
       <c r="C11" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="41.4">
+    </row>
+    <row r="13" spans="1:6" ht="42.75">
       <c r="A13" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>145</v>
-      </c>
       <c r="C13" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.6">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5">
       <c r="A14" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="C14" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="71.25">
+      <c r="A15" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C14" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="69">
-      <c r="A15" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="27" t="s">
+      <c r="C15" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="142.5">
+      <c r="A16" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="138">
-      <c r="A16" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>151</v>
-      </c>
       <c r="C16" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="69">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="71.25">
       <c r="A17" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="71.25">
+      <c r="A18" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="69">
-      <c r="A18" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57">
+      <c r="A19" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="55.2">
-      <c r="A19" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>157</v>
-      </c>
       <c r="C19" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42.75">
+      <c r="A21" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>158</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="41.4">
-      <c r="A21" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>159</v>
-      </c>
       <c r="C21" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -33276,7 +33399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33286,303 +33409,303 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="105.33203125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="14.44140625" style="28"/>
+    <col min="1" max="1" width="56.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="105.28515625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="32" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.25">
+      <c r="A3" s="36" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="69">
-      <c r="A3" s="36" t="s">
+      <c r="B3" s="27" t="s">
         <v>462</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>463</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57">
+      <c r="A4" s="36" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="55.2">
-      <c r="A4" s="36" t="s">
+      <c r="B4" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="71.25">
+      <c r="A5" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" ht="69">
-      <c r="A5" s="36" t="s">
+      <c r="B5" s="27" t="s">
         <v>467</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" ht="57">
+      <c r="A6" s="36" t="s">
         <v>468</v>
       </c>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" ht="55.2">
-      <c r="A6" s="36" t="s">
+      <c r="B6" s="27" t="s">
         <v>469</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" ht="42.75">
+      <c r="A7" s="36" t="s">
         <v>470</v>
       </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" ht="41.4">
-      <c r="A7" s="36" t="s">
+      <c r="B7" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.5">
+      <c r="A8" s="36" t="s">
         <v>472</v>
       </c>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" ht="27.6">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="27" t="s">
         <v>473</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>474</v>
       </c>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
-    <row r="10" spans="1:4" ht="41.4">
+    <row r="10" spans="1:4" ht="42.75">
       <c r="A10" s="36" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" ht="85.5">
+      <c r="A11" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" ht="82.8">
-      <c r="A11" s="36" t="s">
+      <c r="B11" s="27" t="s">
         <v>478</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:4" ht="57">
+      <c r="A12" s="36" t="s">
         <v>479</v>
       </c>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" ht="55.2">
-      <c r="A12" s="36" t="s">
+      <c r="B12" s="27" t="s">
         <v>480</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" ht="42.75">
+      <c r="A13" s="36" t="s">
         <v>481</v>
       </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" ht="41.4">
-      <c r="A13" s="36" t="s">
+      <c r="B13" s="27" t="s">
         <v>482</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.5">
+      <c r="A14" s="36" t="s">
         <v>483</v>
       </c>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" ht="27.6">
-      <c r="A14" s="36" t="s">
+      <c r="B14" s="27" t="s">
         <v>484</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>485</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
     </row>
-    <row r="16" spans="1:4" ht="41.4">
+    <row r="16" spans="1:4" ht="42.75">
       <c r="A16" s="36" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3" ht="57">
+      <c r="A17" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:3" ht="55.2">
-      <c r="A17" s="36" t="s">
+      <c r="B17" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" ht="57">
+      <c r="A18" s="36" t="s">
         <v>490</v>
       </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:3" ht="55.2">
-      <c r="A18" s="36" t="s">
+      <c r="B18" s="27" t="s">
         <v>491</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" ht="71.25">
+      <c r="A19" s="36" t="s">
         <v>492</v>
       </c>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="1:3" ht="69">
-      <c r="A19" s="36" t="s">
+      <c r="B19" s="27" t="s">
         <v>493</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" ht="71.25">
+      <c r="A20" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3" ht="69">
-      <c r="A20" s="36" t="s">
+      <c r="B20" s="27" t="s">
         <v>495</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" ht="45">
+      <c r="A21" s="36" t="s">
         <v>496</v>
       </c>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:3" ht="43.2">
-      <c r="A21" s="36" t="s">
+      <c r="B21" s="31" t="s">
         <v>497</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>498</v>
       </c>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="34" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
     </row>
-    <row r="23" spans="1:3" ht="55.2">
+    <row r="23" spans="1:3" ht="57">
       <c r="A23" s="36" t="s">
+        <v>499</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>500</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:3" ht="57">
+      <c r="A24" s="36" t="s">
         <v>501</v>
       </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:3" ht="41.4">
-      <c r="A24" s="36" t="s">
+      <c r="B24" s="27" t="s">
         <v>502</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:3" ht="28.5">
+      <c r="A25" s="36" t="s">
         <v>503</v>
       </c>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" ht="27.6">
-      <c r="A25" s="36" t="s">
+      <c r="B25" s="27" t="s">
         <v>504</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>505</v>
       </c>
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
     </row>
-    <row r="27" spans="1:3" ht="151.80000000000001">
+    <row r="27" spans="1:3" ht="156.75">
       <c r="A27" s="36" t="s">
+        <v>506</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" ht="71.25">
+      <c r="A28" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:3" ht="69">
-      <c r="A28" s="36" t="s">
+      <c r="B28" s="27" t="s">
         <v>509</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" ht="42.75">
+      <c r="A29" s="36" t="s">
         <v>510</v>
       </c>
-      <c r="C28" s="29"/>
-    </row>
-    <row r="29" spans="1:3" ht="41.4">
-      <c r="A29" s="36" t="s">
+      <c r="B29" s="27" t="s">
         <v>511</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" ht="57">
+      <c r="A30" s="36" t="s">
         <v>512</v>
       </c>
-      <c r="C29" s="29"/>
-    </row>
-    <row r="30" spans="1:3" ht="55.2">
-      <c r="A30" s="36" t="s">
+      <c r="B30" s="27" t="s">
         <v>513</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" ht="85.5">
+      <c r="A31" s="36" t="s">
         <v>514</v>
       </c>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:3" ht="82.8">
-      <c r="A31" s="36" t="s">
+      <c r="B31" s="27" t="s">
         <v>515</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>516</v>
       </c>
       <c r="C31" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33592,18 +33715,18 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="28"/>
-    <col min="2" max="2" width="31.5546875" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.44140625" style="28"/>
-    <col min="5" max="5" width="38.88671875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="14.44140625" style="28"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="31.5703125" style="28" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" style="28"/>
+    <col min="5" max="5" width="38.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="27" t="s">
         <v>83</v>
       </c>
@@ -33614,53 +33737,53 @@
         <v>85</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="31" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="31" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F3" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>166</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -33668,1018 +33791,1018 @@
         <v>88</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>170</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="31" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>174</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="E6" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>177</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>178</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="31" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
+        <v>180</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="G7" s="32" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>184</v>
       </c>
       <c r="C8" s="31">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>186</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
       </c>
       <c r="E9" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>190</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>194</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" s="31">
         <v>3</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>197</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="31">
         <v>3</v>
       </c>
       <c r="E12" s="30" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>201</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C13" s="31">
         <v>3</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>205</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>208</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E15" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>211</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>214</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="G18" s="30" t="s">
         <v>219</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="G19" s="32" t="s">
         <v>222</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="G20" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="G21" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>231</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="30" t="s">
         <v>236</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>239</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="G26" s="32" t="s">
         <v>242</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="G27" s="32" t="s">
+    </row>
+    <row r="28" spans="5:7" ht="30">
+      <c r="E28" s="32" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" s="32" t="s">
+      <c r="F28" s="32" t="s">
         <v>247</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="G28" s="32" t="s">
         <v>248</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="G29" s="32" t="s">
         <v>251</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="F30" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="30" t="s">
+        <v>254</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="G31" s="32" t="s">
         <v>256</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="G32" s="32" t="s">
         <v>259</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="G33" s="32" t="s">
         <v>262</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="G34" s="32" t="s">
         <v>265</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>267</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="G35" s="32" t="s">
         <v>268</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="G36" s="32" t="s">
         <v>271</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>273</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="G38" s="30" t="s">
         <v>276</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="G39" s="32" t="s">
         <v>279</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="G40" s="32" t="s">
         <v>282</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="G41" s="32" t="s">
         <v>285</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="G42" s="32" t="s">
         <v>288</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="G43" s="32" t="s">
         <v>291</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="G44" s="32" t="s">
         <v>294</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="G45" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>299</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="G46" s="32" t="s">
         <v>300</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="32" t="s">
+        <v>301</v>
+      </c>
+      <c r="F47" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="G47" s="32" t="s">
         <v>303</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="F48" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="G48" s="32" t="s">
         <v>305</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="G49" s="32" t="s">
         <v>308</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="G50" s="32" t="s">
         <v>311</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F51" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="G51" s="32" t="s">
         <v>314</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="F52" s="32" t="s">
         <v>316</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="G52" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>319</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="G53" s="32" t="s">
         <v>320</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="G54" s="32" t="s">
         <v>322</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="F55" s="30" t="s">
         <v>324</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="G55" s="32" t="s">
         <v>325</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="G56" s="32" t="s">
         <v>328</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="F57" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="G57" s="32" t="s">
         <v>331</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" s="32" t="s">
+        <v>332</v>
+      </c>
+      <c r="F58" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="G58" s="32" t="s">
         <v>334</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="F59" s="32" t="s">
         <v>336</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="G59" s="32" t="s">
         <v>337</v>
       </c>
-      <c r="G59" s="32" t="s">
+    </row>
+    <row r="60" spans="5:7" ht="30">
+      <c r="E60" s="32" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" s="32" t="s">
+      <c r="F60" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="G60" s="32" t="s">
         <v>340</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="F61" s="32" t="s">
         <v>342</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" s="32" t="s">
+        <v>343</v>
+      </c>
+      <c r="F62" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="G62" s="30" t="s">
         <v>345</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="F63" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="G63" s="32" t="s">
         <v>347</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" s="30" t="s">
+        <v>348</v>
+      </c>
+      <c r="F64" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="G64" s="32" t="s">
         <v>350</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="F65" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="G65" s="32" t="s">
         <v>353</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="F66" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="G66" s="32" t="s">
         <v>356</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="F67" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="G67" s="32" t="s">
         <v>359</v>
-      </c>
-      <c r="G67" s="32" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="F68" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="G68" s="32" t="s">
         <v>362</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>364</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="G70" s="30" t="s">
         <v>367</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="G71" s="32" t="s">
         <v>370</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="F72" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="G72" s="32" t="s">
         <v>373</v>
-      </c>
-      <c r="G72" s="32" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>375</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="G73" s="32" t="s">
         <v>376</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="F74" s="32" t="s">
         <v>378</v>
       </c>
-      <c r="F74" s="32" t="s">
+      <c r="G74" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="G75" s="32" t="s">
         <v>381</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="F76" s="30" t="s">
         <v>383</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="G76" s="32" t="s">
         <v>384</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>386</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="G77" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="F78" s="32" t="s">
         <v>389</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="G78" s="32" t="s">
         <v>390</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="F79" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="G79" s="32" t="s">
         <v>392</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="F80" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="G80" s="32" t="s">
         <v>394</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34689,21 +34812,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
     <col min="2" max="2" width="32" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.44140625" style="28"/>
-    <col min="5" max="5" width="45.6640625" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="28"/>
+    <col min="3" max="4" width="14.42578125" style="28"/>
+    <col min="5" max="5" width="45.7109375" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="55.8">
+    <row r="1" spans="1:5" ht="57.75">
       <c r="A1" s="33" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -34717,21 +34840,21 @@
         <v>85</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>419</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -34739,27 +34862,27 @@
         <v>88</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="27">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -34767,13 +34890,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C6" s="27">
         <v>2</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -34781,40 +34904,40 @@
         <v>87</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C7" s="27">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
+      <c r="A8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="31" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>429</v>
       </c>
       <c r="C8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="32" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="32" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="57.6">
-      <c r="A10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>432</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -34828,21 +34951,21 @@
         <v>85</v>
       </c>
       <c r="E11" s="32" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>434</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="27" t="s">
-        <v>131</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>435</v>
       </c>
       <c r="C12" s="27">
         <v>2</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -34850,13 +34973,13 @@
         <v>86</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C13" s="27">
         <v>2</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -34864,7 +34987,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C14" s="27">
         <v>2</v>
@@ -34872,90 +34995,90 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C15" s="27">
         <v>2</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C16" s="27">
         <v>2</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="32" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -34968,7 +35091,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34976,24 +35099,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desk\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB5A94A-BCC1-4C70-92EF-DCFBB6CAC48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="6345" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
@@ -2359,7 +2360,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
@@ -2370,7 +2370,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2379,7 +2378,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
@@ -2389,7 +2387,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2399,7 +2396,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
@@ -2409,7 +2405,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2419,7 +2414,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
@@ -2429,7 +2423,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2440,7 +2433,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="細明體"/>
         <family val="3"/>
         <charset val="136"/>
@@ -2451,7 +2443,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -2474,7 +2465,15 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> modified
+      <t xml:space="preserve"> modified</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
  as, is</t>
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -2483,8 +2482,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2620,6 +2619,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="136"/>
     </font>
@@ -3028,12 +3034,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3350,19 +3356,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -31474,7 +31480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31484,14 +31490,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="14.4">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
@@ -31510,7 +31516,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
@@ -31523,7 +31529,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.4">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -31536,7 +31542,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="14.4">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -31549,7 +31555,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="14.4">
       <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
@@ -31562,7 +31568,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="14.4">
       <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
@@ -31575,7 +31581,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="14.4">
       <c r="A7" s="19" t="s">
         <v>43</v>
       </c>
@@ -31598,41 +31604,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="64" t="s">
+      <c r="E2" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="F2" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="64" t="s">
+      <c r="G2" s="63" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31645,7 +31651,7 @@
       <c r="G3" s="53"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="64" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -31669,7 +31675,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -31697,7 +31703,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="64" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -31723,7 +31729,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="64" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -31751,7 +31757,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="64" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="23"/>
@@ -31775,7 +31781,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="64" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23"/>
@@ -32814,6 +32820,11 @@
     <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
@@ -32821,11 +32832,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32834,22 +32840,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
-    <col min="2" max="2" width="61.28515625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="2" max="2" width="61.33203125" style="28" customWidth="1"/>
     <col min="3" max="3" width="6" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="28"/>
+    <col min="4" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -32863,7 +32869,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="40" customFormat="1" ht="200.25">
+    <row r="2" spans="1:3" s="40" customFormat="1" ht="191.4">
       <c r="A2" s="38" t="s">
         <v>86</v>
       </c>
@@ -32874,7 +32880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="236.25">
+    <row r="3" spans="1:3" ht="227.4">
       <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
@@ -32885,7 +32891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="40" customFormat="1" ht="123">
+    <row r="4" spans="1:3" s="40" customFormat="1" ht="117.6">
       <c r="A4" s="38" t="s">
         <v>88</v>
       </c>
@@ -32907,7 +32913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="40" customFormat="1" ht="71.25">
+    <row r="6" spans="1:3" s="40" customFormat="1" ht="69">
       <c r="A6" s="38" t="s">
         <v>91</v>
       </c>
@@ -32918,7 +32924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="57">
+    <row r="7" spans="1:3" ht="55.2">
       <c r="A7" s="27" t="s">
         <v>93</v>
       </c>
@@ -32929,7 +32935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="40" customFormat="1" ht="57">
+    <row r="8" spans="1:3" s="40" customFormat="1" ht="55.2">
       <c r="A8" s="38" t="s">
         <v>97</v>
       </c>
@@ -32940,7 +32946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57">
+    <row r="9" spans="1:3" ht="55.2">
       <c r="A9" s="27" t="s">
         <v>99</v>
       </c>
@@ -32951,7 +32957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" ht="114">
+    <row r="10" spans="1:3" s="40" customFormat="1" ht="110.4">
       <c r="A10" s="38" t="s">
         <v>101</v>
       </c>
@@ -32962,7 +32968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75">
+    <row r="11" spans="1:3" ht="41.4">
       <c r="A11" s="27" t="s">
         <v>103</v>
       </c>
@@ -32973,7 +32979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="40" customFormat="1" ht="42.75">
+    <row r="12" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A12" s="38" t="s">
         <v>105</v>
       </c>
@@ -32984,7 +32990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.5">
+    <row r="13" spans="1:3" ht="27.6">
       <c r="A13" s="27" t="s">
         <v>107</v>
       </c>
@@ -32995,7 +33001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="40" customFormat="1" ht="42.75">
+    <row r="14" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A14" s="38" t="s">
         <v>119</v>
       </c>
@@ -33006,7 +33012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="71.25">
+    <row r="15" spans="1:3" ht="69">
       <c r="A15" s="27" t="s">
         <v>125</v>
       </c>
@@ -33017,7 +33023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="40" customFormat="1" ht="57">
+    <row r="16" spans="1:3" s="40" customFormat="1" ht="55.2">
       <c r="A16" s="38" t="s">
         <v>95</v>
       </c>
@@ -33039,7 +33045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="40" customFormat="1" ht="42.75">
+    <row r="18" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A18" s="38" t="s">
         <v>111</v>
       </c>
@@ -33050,7 +33056,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75">
+    <row r="19" spans="1:3" ht="41.4">
       <c r="A19" s="27" t="s">
         <v>113</v>
       </c>
@@ -33061,7 +33067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="40" customFormat="1" ht="99.75">
+    <row r="20" spans="1:3" s="40" customFormat="1" ht="96.6">
       <c r="A20" s="38" t="s">
         <v>117</v>
       </c>
@@ -33094,7 +33100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.5">
+    <row r="23" spans="1:3" ht="27.6">
       <c r="A23" s="27" t="s">
         <v>115</v>
       </c>
@@ -33105,7 +33111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="40" customFormat="1" ht="42.75">
+    <row r="24" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A24" s="38" t="s">
         <v>123</v>
       </c>
@@ -33116,7 +33122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.5">
+    <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="27" t="s">
         <v>128</v>
       </c>
@@ -33138,7 +33144,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33148,11 +33154,11 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
-    <col min="2" max="2" width="50.7109375" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="2" max="2" width="50.6640625" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -33178,7 +33184,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" ht="57">
+    <row r="3" spans="1:6" ht="55.2">
       <c r="A3" s="27" t="s">
         <v>86</v>
       </c>
@@ -33190,7 +33196,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5">
+    <row r="4" spans="1:6" ht="27.6">
       <c r="A4" s="27" t="s">
         <v>87</v>
       </c>
@@ -33202,7 +33208,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" ht="57">
+    <row r="5" spans="1:6" ht="55.2">
       <c r="A5" s="27" t="s">
         <v>88</v>
       </c>
@@ -33213,7 +33219,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5">
+    <row r="6" spans="1:6" ht="27.6">
       <c r="A6" s="27" t="s">
         <v>91</v>
       </c>
@@ -33224,7 +33230,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42.75">
+    <row r="7" spans="1:6" ht="41.4">
       <c r="A7" s="27" t="s">
         <v>93</v>
       </c>
@@ -33235,7 +33241,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="142.5">
+    <row r="8" spans="1:6" ht="138">
       <c r="A8" s="27" t="s">
         <v>95</v>
       </c>
@@ -33246,7 +33252,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="156.75">
+    <row r="9" spans="1:6" ht="151.80000000000001">
       <c r="A9" s="27" t="s">
         <v>141</v>
       </c>
@@ -33257,7 +33263,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="114">
+    <row r="10" spans="1:6" ht="110.4">
       <c r="A10" s="27" t="s">
         <v>145</v>
       </c>
@@ -33268,7 +33274,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="185.25">
+    <row r="11" spans="1:6" ht="179.4">
       <c r="A11" s="27" t="s">
         <v>151</v>
       </c>
@@ -33290,7 +33296,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="42.75">
+    <row r="13" spans="1:6" ht="41.4">
       <c r="A13" s="27" t="s">
         <v>143</v>
       </c>
@@ -33301,7 +33307,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5">
+    <row r="14" spans="1:6" ht="27.6">
       <c r="A14" s="27" t="s">
         <v>147</v>
       </c>
@@ -33312,7 +33318,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="71.25">
+    <row r="15" spans="1:6" ht="69">
       <c r="A15" s="27" t="s">
         <v>101</v>
       </c>
@@ -33323,7 +33329,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="142.5">
+    <row r="16" spans="1:6" ht="138">
       <c r="A16" s="27" t="s">
         <v>103</v>
       </c>
@@ -33334,7 +33340,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="71.25">
+    <row r="17" spans="1:3" ht="69">
       <c r="A17" s="27" t="s">
         <v>153</v>
       </c>
@@ -33345,7 +33351,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="71.25">
+    <row r="18" spans="1:3" ht="69">
       <c r="A18" s="27" t="s">
         <v>107</v>
       </c>
@@ -33356,7 +33362,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="57">
+    <row r="19" spans="1:3" ht="55.2">
       <c r="A19" s="27" t="s">
         <v>109</v>
       </c>
@@ -33378,7 +33384,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="42.75">
+    <row r="21" spans="1:3" ht="41.4">
       <c r="A21" s="27" t="s">
         <v>113</v>
       </c>
@@ -33399,7 +33405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33409,13 +33415,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="105.28515625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="56.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="105.33203125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -33439,7 +33445,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="71.25">
+    <row r="3" spans="1:4" ht="69">
       <c r="A3" s="36" t="s">
         <v>461</v>
       </c>
@@ -33451,7 +33457,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57">
+    <row r="4" spans="1:4" ht="55.2">
       <c r="A4" s="36" t="s">
         <v>464</v>
       </c>
@@ -33460,7 +33466,7 @@
       </c>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:4" ht="71.25">
+    <row r="5" spans="1:4" ht="69">
       <c r="A5" s="36" t="s">
         <v>466</v>
       </c>
@@ -33469,7 +33475,7 @@
       </c>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4" ht="55.2">
       <c r="A6" s="36" t="s">
         <v>468</v>
       </c>
@@ -33478,7 +33484,7 @@
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:4" ht="42.75">
+    <row r="7" spans="1:4" ht="41.4">
       <c r="A7" s="36" t="s">
         <v>470</v>
       </c>
@@ -33487,7 +33493,7 @@
       </c>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:4" ht="28.5">
+    <row r="8" spans="1:4" ht="27.6">
       <c r="A8" s="36" t="s">
         <v>472</v>
       </c>
@@ -33503,7 +33509,7 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
-    <row r="10" spans="1:4" ht="42.75">
+    <row r="10" spans="1:4" ht="41.4">
       <c r="A10" s="36" t="s">
         <v>475</v>
       </c>
@@ -33512,7 +33518,7 @@
       </c>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:4" ht="85.5">
+    <row r="11" spans="1:4" ht="82.8">
       <c r="A11" s="36" t="s">
         <v>477</v>
       </c>
@@ -33521,7 +33527,7 @@
       </c>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="57">
+    <row r="12" spans="1:4" ht="55.2">
       <c r="A12" s="36" t="s">
         <v>479</v>
       </c>
@@ -33530,7 +33536,7 @@
       </c>
       <c r="C12" s="29"/>
     </row>
-    <row r="13" spans="1:4" ht="42.75">
+    <row r="13" spans="1:4" ht="41.4">
       <c r="A13" s="36" t="s">
         <v>481</v>
       </c>
@@ -33539,7 +33545,7 @@
       </c>
       <c r="C13" s="29"/>
     </row>
-    <row r="14" spans="1:4" ht="28.5">
+    <row r="14" spans="1:4" ht="27.6">
       <c r="A14" s="36" t="s">
         <v>483</v>
       </c>
@@ -33555,7 +33561,7 @@
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
     </row>
-    <row r="16" spans="1:4" ht="42.75">
+    <row r="16" spans="1:4" ht="41.4">
       <c r="A16" s="36" t="s">
         <v>486</v>
       </c>
@@ -33564,7 +33570,7 @@
       </c>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="1:3" ht="57">
+    <row r="17" spans="1:3" ht="55.2">
       <c r="A17" s="36" t="s">
         <v>488</v>
       </c>
@@ -33573,7 +33579,7 @@
       </c>
       <c r="C17" s="29"/>
     </row>
-    <row r="18" spans="1:3" ht="57">
+    <row r="18" spans="1:3" ht="55.2">
       <c r="A18" s="36" t="s">
         <v>490</v>
       </c>
@@ -33582,7 +33588,7 @@
       </c>
       <c r="C18" s="29"/>
     </row>
-    <row r="19" spans="1:3" ht="71.25">
+    <row r="19" spans="1:3" ht="69">
       <c r="A19" s="36" t="s">
         <v>492</v>
       </c>
@@ -33591,7 +33597,7 @@
       </c>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="71.25">
+    <row r="20" spans="1:3" ht="69">
       <c r="A20" s="36" t="s">
         <v>494</v>
       </c>
@@ -33600,7 +33606,7 @@
       </c>
       <c r="C20" s="29"/>
     </row>
-    <row r="21" spans="1:3" ht="45">
+    <row r="21" spans="1:3" ht="43.2">
       <c r="A21" s="36" t="s">
         <v>496</v>
       </c>
@@ -33616,7 +33622,7 @@
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
     </row>
-    <row r="23" spans="1:3" ht="57">
+    <row r="23" spans="1:3" ht="55.2">
       <c r="A23" s="36" t="s">
         <v>499</v>
       </c>
@@ -33625,7 +33631,7 @@
       </c>
       <c r="C23" s="29"/>
     </row>
-    <row r="24" spans="1:3" ht="57">
+    <row r="24" spans="1:3" ht="41.4">
       <c r="A24" s="36" t="s">
         <v>501</v>
       </c>
@@ -33634,7 +33640,7 @@
       </c>
       <c r="C24" s="29"/>
     </row>
-    <row r="25" spans="1:3" ht="28.5">
+    <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="36" t="s">
         <v>503</v>
       </c>
@@ -33650,7 +33656,7 @@
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
     </row>
-    <row r="27" spans="1:3" ht="156.75">
+    <row r="27" spans="1:3" ht="151.80000000000001">
       <c r="A27" s="36" t="s">
         <v>506</v>
       </c>
@@ -33659,7 +33665,7 @@
       </c>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="71.25">
+    <row r="28" spans="1:3" ht="69">
       <c r="A28" s="36" t="s">
         <v>508</v>
       </c>
@@ -33668,7 +33674,7 @@
       </c>
       <c r="C28" s="29"/>
     </row>
-    <row r="29" spans="1:3" ht="42.75">
+    <row r="29" spans="1:3" ht="41.4">
       <c r="A29" s="36" t="s">
         <v>510</v>
       </c>
@@ -33677,7 +33683,7 @@
       </c>
       <c r="C29" s="29"/>
     </row>
-    <row r="30" spans="1:3" ht="57">
+    <row r="30" spans="1:3" ht="55.2">
       <c r="A30" s="36" t="s">
         <v>512</v>
       </c>
@@ -33686,7 +33692,7 @@
       </c>
       <c r="C30" s="29"/>
     </row>
-    <row r="31" spans="1:3" ht="85.5">
+    <row r="31" spans="1:3" ht="82.8">
       <c r="A31" s="36" t="s">
         <v>514</v>
       </c>
@@ -33698,14 +33704,14 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33715,18 +33721,18 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
-    <col min="2" max="2" width="31.5703125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="28"/>
-    <col min="5" max="5" width="38.85546875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="2" max="2" width="31.5546875" style="28" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" style="28"/>
+    <col min="5" max="5" width="38.88671875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="27" t="s">
         <v>83</v>
       </c>
@@ -33746,7 +33752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="31" t="s">
         <v>86</v>
       </c>
@@ -33766,7 +33772,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="31" t="s">
         <v>87</v>
       </c>
@@ -33866,7 +33872,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7">
       <c r="A8" s="31" t="s">
         <v>95</v>
       </c>
@@ -34134,7 +34140,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="5:7" ht="30">
+    <row r="28" spans="5:7">
       <c r="E28" s="32" t="s">
         <v>246</v>
       </c>
@@ -34474,7 +34480,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="60" spans="5:7" ht="30">
+    <row r="60" spans="5:7">
       <c r="E60" s="32" t="s">
         <v>338</v>
       </c>
@@ -34795,14 +34801,14 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34812,16 +34818,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
     <col min="2" max="2" width="32" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="28"/>
-    <col min="5" max="5" width="45.7109375" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="14.42578125" style="28"/>
+    <col min="3" max="4" width="14.44140625" style="28"/>
+    <col min="5" max="5" width="45.6640625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57.75">
+    <row r="1" spans="1:5" ht="55.8">
       <c r="A1" s="33" t="s">
         <v>416</v>
       </c>
@@ -34843,7 +34849,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5">
       <c r="A3" s="27" t="s">
         <v>130</v>
       </c>
@@ -34913,7 +34919,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5">
       <c r="A8" s="27" t="s">
         <v>91</v>
       </c>
@@ -34932,7 +34938,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75">
+    <row r="10" spans="1:5" ht="57.6">
       <c r="A10" s="32" t="s">
         <v>431</v>
       </c>
@@ -34954,7 +34960,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5">
       <c r="A12" s="27" t="s">
         <v>130</v>
       </c>
@@ -35091,7 +35097,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -35099,9 +35105,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB5A94A-BCC1-4C70-92EF-DCFBB6CAC48F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6174425-C1C5-44ED-A02A-C30341A6843D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -310,9 +310,6 @@
   </si>
   <si>
     <t>ch5</t>
-  </si>
-  <si>
-    <t>泛型 Generics, List&lt;T&gt;</t>
   </si>
   <si>
     <t>ch6</t>
@@ -2478,12 +2475,32 @@
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>泛型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Generics, List&lt;T&gt;</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2627,6 +2644,12 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -2899,7 +2922,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2998,6 +3021,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3034,12 +3060,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3400,12 +3426,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3435,8 +3461,8 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="46"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3492,17 +3518,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="55" t="s">
+      <c r="C5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="47"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3526,8 +3552,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3560,7 +3586,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3590,7 +3616,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3620,7 +3646,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3650,7 +3676,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3680,7 +3706,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3710,7 +3736,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3740,7 +3766,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A13" s="53"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3800,17 +3826,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="45"/>
-      <c r="E15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3834,8 +3860,8 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A16" s="52"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
@@ -3868,7 +3894,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -3898,7 +3924,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3928,7 +3954,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="52"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3958,7 +3984,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="52"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -3988,7 +4014,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="52"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
@@ -4018,7 +4044,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
@@ -4048,7 +4074,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -4078,7 +4104,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="66" customHeight="1">
-      <c r="A24" s="53"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
@@ -4108,13 +4134,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4170,11 +4196,11 @@
       <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="45"/>
-      <c r="E27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4198,15 +4224,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="51" t="s">
+      <c r="A28" s="52" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="58"/>
-      <c r="E28" s="59"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4230,13 +4256,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="52"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4260,13 +4286,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="52"/>
+      <c r="A30" s="53"/>
       <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4290,13 +4316,13 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4320,13 +4346,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4350,13 +4376,13 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A33" s="44" t="s">
+      <c r="A33" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="45"/>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="46"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -31626,29 +31652,29 @@
       <c r="B2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="63" t="s">
+      <c r="D2" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="63" t="s">
+      <c r="F2" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="65" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
       <c r="B4" s="64" t="s">
@@ -31667,7 +31693,7 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -31689,7 +31715,7 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="23" t="s">
         <v>57</v>
       </c>
@@ -31719,7 +31745,7 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="23" t="s">
         <v>64</v>
       </c>
@@ -31745,7 +31771,7 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
         <v>69</v>
@@ -31771,7 +31797,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
@@ -31793,7 +31819,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -32820,11 +32846,6 @@
     <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
@@ -32832,6 +32853,11 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32847,7 +32873,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -32874,7 +32900,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -32885,7 +32911,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -32895,8 +32921,8 @@
       <c r="A4" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>523</v>
+      <c r="B4" s="44" t="s">
+        <v>522</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -32906,8 +32932,8 @@
       <c r="A5" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>90</v>
+      <c r="B5" s="66" t="s">
+        <v>523</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
@@ -32915,10 +32941,10 @@
     </row>
     <row r="6" spans="1:3" s="40" customFormat="1" ht="69">
       <c r="A6" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>92</v>
       </c>
       <c r="C6" s="38">
         <v>1</v>
@@ -32926,10 +32952,10 @@
     </row>
     <row r="7" spans="1:3" ht="55.2">
       <c r="A7" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>93</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>94</v>
       </c>
       <c r="C7" s="27">
         <v>1</v>
@@ -32937,10 +32963,10 @@
     </row>
     <row r="8" spans="1:3" s="40" customFormat="1" ht="55.2">
       <c r="A8" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>97</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>98</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
@@ -32948,10 +32974,10 @@
     </row>
     <row r="9" spans="1:3" ht="55.2">
       <c r="A9" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>100</v>
       </c>
       <c r="C9" s="27">
         <v>1</v>
@@ -32959,10 +32985,10 @@
     </row>
     <row r="10" spans="1:3" s="40" customFormat="1" ht="110.4">
       <c r="A10" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>101</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="C10" s="38">
         <v>1</v>
@@ -32970,10 +32996,10 @@
     </row>
     <row r="11" spans="1:3" ht="41.4">
       <c r="A11" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>103</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>104</v>
       </c>
       <c r="C11" s="27">
         <v>1</v>
@@ -32981,10 +33007,10 @@
     </row>
     <row r="12" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A12" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>105</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>106</v>
       </c>
       <c r="C12" s="38">
         <v>1</v>
@@ -32992,10 +33018,10 @@
     </row>
     <row r="13" spans="1:3" ht="27.6">
       <c r="A13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>108</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
@@ -33003,10 +33029,10 @@
     </row>
     <row r="14" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A14" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>119</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>120</v>
       </c>
       <c r="C14" s="38">
         <v>1</v>
@@ -33014,10 +33040,10 @@
     </row>
     <row r="15" spans="1:3" ht="69">
       <c r="A15" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="C15" s="27">
         <v>1</v>
@@ -33025,10 +33051,10 @@
     </row>
     <row r="16" spans="1:3" s="40" customFormat="1" ht="55.2">
       <c r="A16" s="38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="38" t="s">
         <v>95</v>
-      </c>
-      <c r="B16" s="38" t="s">
-        <v>96</v>
       </c>
       <c r="C16" s="38">
         <v>2</v>
@@ -33036,10 +33062,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="C17" s="27">
         <v>2</v>
@@ -33047,10 +33073,10 @@
     </row>
     <row r="18" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A18" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>111</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>112</v>
       </c>
       <c r="C18" s="38">
         <v>2</v>
@@ -33058,10 +33084,10 @@
     </row>
     <row r="19" spans="1:3" ht="41.4">
       <c r="A19" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>113</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>114</v>
       </c>
       <c r="C19" s="27">
         <v>2</v>
@@ -33069,10 +33095,10 @@
     </row>
     <row r="20" spans="1:3" s="40" customFormat="1" ht="96.6">
       <c r="A20" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>117</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>118</v>
       </c>
       <c r="C20" s="38">
         <v>2</v>
@@ -33080,10 +33106,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>121</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>122</v>
       </c>
       <c r="C21" s="27">
         <v>2</v>
@@ -33091,10 +33117,10 @@
     </row>
     <row r="22" spans="1:3" s="40" customFormat="1">
       <c r="A22" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C22" s="38">
         <v>2</v>
@@ -33102,10 +33128,10 @@
     </row>
     <row r="23" spans="1:3" ht="27.6">
       <c r="A23" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>115</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>116</v>
       </c>
       <c r="C23" s="27">
         <v>3</v>
@@ -33113,10 +33139,10 @@
     </row>
     <row r="24" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A24" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>123</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>124</v>
       </c>
       <c r="C24" s="38">
         <v>3</v>
@@ -33124,10 +33150,10 @@
     </row>
     <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>128</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>129</v>
       </c>
       <c r="C25" s="27">
         <v>3</v>
@@ -33174,10 +33200,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>131</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
@@ -33189,7 +33215,7 @@
         <v>86</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="27"/>
@@ -33201,7 +33227,7 @@
         <v>87</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
@@ -33213,76 +33239,76 @@
         <v>88</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>134</v>
-      </c>
-      <c r="C5" s="27" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="27.6">
       <c r="A6" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="41.4">
       <c r="A7" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="138">
       <c r="A8" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="151.80000000000001">
       <c r="A9" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>142</v>
-      </c>
       <c r="C9" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="110.4">
       <c r="A10" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>146</v>
-      </c>
       <c r="C10" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="179.4">
       <c r="A11" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>152</v>
-      </c>
       <c r="C11" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -33290,109 +33316,109 @@
         <v>89</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>136</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="41.4">
       <c r="A13" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>144</v>
-      </c>
       <c r="C13" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.6">
       <c r="A14" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>148</v>
-      </c>
       <c r="C14" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="69">
       <c r="A15" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="138">
       <c r="A16" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="69">
       <c r="A17" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>154</v>
-      </c>
       <c r="C17" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="69">
       <c r="A18" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="55.2">
       <c r="A19" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="41.4">
       <c r="A21" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -33426,278 +33452,278 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="27" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="32" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="69">
       <c r="A3" s="36" t="s">
+        <v>460</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>461</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>462</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="55.2">
       <c r="A4" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>464</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>465</v>
       </c>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="69">
       <c r="A5" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>466</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>467</v>
       </c>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="55.2">
       <c r="A6" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>468</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>469</v>
       </c>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="41.4">
       <c r="A7" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>470</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>471</v>
       </c>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="27.6">
       <c r="A8" s="36" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>472</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>473</v>
       </c>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:4" ht="41.4">
       <c r="A10" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>475</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>476</v>
       </c>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="82.8">
       <c r="A11" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>477</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>478</v>
       </c>
       <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="55.2">
       <c r="A12" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>479</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>480</v>
       </c>
       <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="41.4">
       <c r="A13" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>481</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>482</v>
       </c>
       <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="27.6">
       <c r="A14" s="36" t="s">
+        <v>482</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>483</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>484</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="34" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
     </row>
     <row r="16" spans="1:4" ht="41.4">
       <c r="A16" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>486</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>487</v>
       </c>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" ht="55.2">
       <c r="A17" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>488</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>489</v>
       </c>
       <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" ht="55.2">
       <c r="A18" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>490</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>491</v>
       </c>
       <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" ht="69">
       <c r="A19" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>492</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>493</v>
       </c>
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="69">
       <c r="A20" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>494</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>495</v>
       </c>
       <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" ht="43.2">
       <c r="A21" s="36" t="s">
+        <v>495</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>496</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>497</v>
       </c>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="34" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3" ht="55.2">
       <c r="A23" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>499</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>500</v>
       </c>
       <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" ht="41.4">
       <c r="A24" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>501</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>502</v>
       </c>
       <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="36" t="s">
+        <v>502</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>503</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>504</v>
       </c>
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="34" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
     </row>
     <row r="27" spans="1:3" ht="151.80000000000001">
       <c r="A27" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>506</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>507</v>
       </c>
       <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="69">
       <c r="A28" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>508</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>509</v>
       </c>
       <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="41.4">
       <c r="A29" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>510</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>511</v>
       </c>
       <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="55.2">
       <c r="A30" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>512</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>513</v>
       </c>
       <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="82.8">
       <c r="A31" s="36" t="s">
+        <v>513</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>514</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>515</v>
       </c>
       <c r="C31" s="29"/>
     </row>
@@ -33743,13 +33769,13 @@
         <v>85</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>159</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
@@ -33757,19 +33783,19 @@
         <v>86</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>162</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -33777,19 +33803,19 @@
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F3" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -33797,19 +33823,19 @@
         <v>88</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>169</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -33817,985 +33843,985 @@
         <v>89</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>173</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="E6" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C8" s="31">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>185</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
       </c>
       <c r="E9" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>189</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>193</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C11" s="31">
         <v>3</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>196</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C12" s="31">
         <v>3</v>
       </c>
       <c r="E12" s="30" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>200</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="31" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C13" s="31">
         <v>3</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>204</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>206</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>207</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E15" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>209</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>213</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>215</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="G18" s="30" t="s">
         <v>218</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="32" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>220</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="G19" s="32" t="s">
         <v>221</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="G20" s="32" t="s">
         <v>224</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>226</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="G21" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>230</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>232</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>234</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="30" t="s">
         <v>235</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>238</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>240</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="G26" s="32" t="s">
         <v>241</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>243</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>244</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="32" t="s">
         <v>246</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="G28" s="32" t="s">
         <v>247</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="32" t="s">
+        <v>248</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="G29" s="32" t="s">
         <v>250</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="F30" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>252</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>254</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="G31" s="32" t="s">
         <v>255</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="G32" s="32" t="s">
         <v>258</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>260</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="G33" s="32" t="s">
         <v>261</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="G34" s="32" t="s">
         <v>264</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="32" t="s">
+        <v>265</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>266</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="G35" s="32" t="s">
         <v>267</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="G36" s="32" t="s">
         <v>270</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>272</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>274</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="G38" s="30" t="s">
         <v>275</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" s="32" t="s">
+        <v>276</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="G39" s="32" t="s">
         <v>278</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" s="32" t="s">
+        <v>279</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="G40" s="32" t="s">
         <v>281</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>283</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="G41" s="32" t="s">
         <v>284</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>286</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="G42" s="32" t="s">
         <v>287</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="G43" s="32" t="s">
         <v>290</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="32" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>292</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="G44" s="32" t="s">
         <v>293</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="32" t="s">
+        <v>294</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="G45" s="32" t="s">
         <v>296</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>298</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="G46" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="F47" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="G47" s="32" t="s">
         <v>302</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="F48" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" s="32" t="s">
         <v>304</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>306</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="G49" s="32" t="s">
         <v>307</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" s="32" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="G50" s="32" t="s">
         <v>310</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="F51" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="G51" s="32" t="s">
         <v>313</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="F52" s="32" t="s">
         <v>315</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="G52" s="32" t="s">
         <v>316</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>318</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="G53" s="32" t="s">
         <v>319</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" s="32" t="s">
         <v>321</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="F55" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="G55" s="32" t="s">
         <v>324</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="F56" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="G56" s="32" t="s">
         <v>327</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="F57" s="32" t="s">
         <v>329</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="G57" s="32" t="s">
         <v>330</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" s="32" t="s">
+        <v>331</v>
+      </c>
+      <c r="F58" s="32" t="s">
         <v>332</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="G58" s="32" t="s">
         <v>333</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="F59" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="G59" s="32" t="s">
         <v>336</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="F60" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="G60" s="32" t="s">
         <v>339</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="F61" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="F62" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="G62" s="30" t="s">
         <v>344</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="F63" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="G63" s="32" t="s">
         <v>346</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" s="30" t="s">
+        <v>347</v>
+      </c>
+      <c r="F64" s="32" t="s">
         <v>348</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="G64" s="32" t="s">
         <v>349</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" s="32" t="s">
+        <v>350</v>
+      </c>
+      <c r="F65" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="G65" s="32" t="s">
         <v>352</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="F66" s="32" t="s">
         <v>354</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="G66" s="32" t="s">
         <v>355</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="F67" s="32" t="s">
         <v>357</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="G67" s="32" t="s">
         <v>358</v>
-      </c>
-      <c r="G67" s="32" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="F68" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="G68" s="32" t="s">
         <v>361</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>363</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>365</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="G70" s="30" t="s">
         <v>366</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>368</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="G71" s="32" t="s">
         <v>369</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="F72" s="32" t="s">
         <v>371</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="G72" s="32" t="s">
         <v>372</v>
-      </c>
-      <c r="G72" s="32" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>374</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="G73" s="32" t="s">
         <v>375</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="F74" s="32" t="s">
         <v>377</v>
       </c>
-      <c r="F74" s="32" t="s">
+      <c r="G74" s="32" t="s">
         <v>378</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="G75" s="32" t="s">
         <v>380</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" s="32" t="s">
+        <v>381</v>
+      </c>
+      <c r="F76" s="30" t="s">
         <v>382</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="G76" s="32" t="s">
         <v>383</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>385</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="G77" s="32" t="s">
         <v>386</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="F78" s="32" t="s">
         <v>388</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="G78" s="32" t="s">
         <v>389</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="F79" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="G79" s="32" t="s">
         <v>391</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="F80" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="G80" s="32" t="s">
         <v>393</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -34829,10 +34855,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="55.8">
       <c r="A1" s="33" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -34846,21 +34872,21 @@
         <v>85</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -34868,13 +34894,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C4" s="27">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -34882,13 +34908,13 @@
         <v>89</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -34896,13 +34922,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C6" s="27">
         <v>2</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -34910,40 +34936,40 @@
         <v>87</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C7" s="27">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6">
       <c r="A10" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>431</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -34957,21 +34983,21 @@
         <v>85</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C12" s="27">
         <v>2</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -34979,13 +35005,13 @@
         <v>86</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C13" s="27">
         <v>2</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -34993,7 +35019,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C14" s="27">
         <v>2</v>
@@ -35001,90 +35027,90 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C15" s="27">
         <v>2</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C16" s="27">
         <v>2</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="32" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="32" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="32" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="32" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>
@@ -35112,17 +35138,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="26" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="26" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6174425-C1C5-44ED-A02A-C30341A6843D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A3090-4581-46A1-8653-39F949F77FDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
@@ -315,18 +315,7 @@
     <t>ch6</t>
   </si>
   <si>
-    <t>運算符 operators
- Boxing &amp; Unboxing
- Casting</t>
-  </si>
-  <si>
     <t>ch7</t>
-  </si>
-  <si>
-    <t>Arrary
- IEnumerator Interface, foreach使用, yield 關鍵字
- Span&lt;T&gt; (C#7新增) Slices的概念
- ArrayPool&lt;T&gt; (dotnet core only)</t>
   </si>
   <si>
     <t>ch8</t>
@@ -339,12 +328,6 @@
   </si>
   <si>
     <t>ch9</t>
-  </si>
-  <si>
-    <t>StringBuilder
- STRING FORMATS
- DateTime and Number Formats
- Regular Expressions</t>
   </si>
   <si>
     <t>ch10</t>
@@ -2495,6 +2478,112 @@
     </r>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>運算符</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> operators
+ Boxing &amp; Unboxing
+ Casting</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Arrary
+ IEnumerator Interface, foreach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, yield </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">關鍵字
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Span&lt;T&gt; (C#7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) Slices</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">的概念
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> ArrayPool&lt;T&gt; (dotnet core only)</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>StringBuilder
+ STRING FORMATS
+ DateTime and Number Formats
+ Regular Expressions</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -2653,7 +2742,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2675,6 +2764,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2922,7 +3017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3024,6 +3119,12 @@
     <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3065,7 +3166,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3426,12 +3527,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3461,8 +3562,8 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="47"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="49"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3518,17 +3619,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="55" t="s">
+      <c r="B5" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3552,8 +3653,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="53"/>
-      <c r="B6" s="54"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3586,7 +3687,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="53"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3616,7 +3717,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="53"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3646,7 +3747,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3676,7 +3777,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3706,7 +3807,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="53"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3736,7 +3837,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="53"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3766,7 +3867,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A13" s="54"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3826,17 +3927,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="47"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3860,8 +3961,8 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A16" s="53"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
@@ -3894,7 +3995,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="53"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -3924,7 +4025,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="53"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -3954,7 +4055,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="53"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -3984,7 +4085,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="53"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -4014,7 +4115,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="53"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
@@ -4044,7 +4145,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="53"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
@@ -4074,7 +4175,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="53"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -4104,7 +4205,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="66" customHeight="1">
-      <c r="A24" s="54"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
@@ -4134,13 +4235,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4196,11 +4297,11 @@
       <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="47"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4224,15 +4325,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="58"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4256,13 +4357,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="53"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="65"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4286,13 +4387,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="53"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="58"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4316,13 +4417,13 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="65"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4346,13 +4447,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A32" s="54"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4376,13 +4477,13 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="46"/>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="47"/>
+      <c r="B33" s="48"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="49"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -31649,35 +31750,35 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="65" t="s">
+      <c r="E2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="65" t="s">
+      <c r="F2" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="65" t="s">
+      <c r="G2" s="67" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="66" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -31693,7 +31794,7 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B5" s="54"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -31701,7 +31802,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="66" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -31715,7 +31816,7 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B7" s="54"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="23" t="s">
         <v>57</v>
       </c>
@@ -31729,7 +31830,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="66" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -31745,7 +31846,7 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B9" s="54"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="23" t="s">
         <v>64</v>
       </c>
@@ -31755,7 +31856,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="66" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -31771,7 +31872,7 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B11" s="54"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
         <v>69</v>
@@ -31783,7 +31884,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="66" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="23"/>
@@ -31797,7 +31898,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B13" s="54"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
@@ -31807,7 +31908,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="66" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23"/>
@@ -31819,7 +31920,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B15" s="54"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -32872,8 +32973,8 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -32900,7 +33001,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -32911,7 +33012,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -32922,7 +33023,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -32932,30 +33033,30 @@
       <c r="A5" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>523</v>
+      <c r="B5" s="45" t="s">
+        <v>520</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="40" customFormat="1" ht="69">
+    <row r="6" spans="1:3" s="40" customFormat="1" ht="69.599999999999994">
       <c r="A6" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="38" t="s">
-        <v>91</v>
+      <c r="B6" s="46" t="s">
+        <v>521</v>
       </c>
       <c r="C6" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="55.2">
+    <row r="7" spans="1:3" ht="56.4">
       <c r="A7" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>93</v>
+        <v>522</v>
       </c>
       <c r="C7" s="27">
         <v>1</v>
@@ -32963,10 +33064,10 @@
     </row>
     <row r="8" spans="1:3" s="40" customFormat="1" ht="55.2">
       <c r="A8" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>97</v>
+        <v>523</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
@@ -32974,76 +33075,76 @@
     </row>
     <row r="9" spans="1:3" ht="55.2">
       <c r="A9" s="27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C9" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="40" customFormat="1" ht="110.4">
-      <c r="A10" s="38" t="s">
-        <v>100</v>
+      <c r="A10" s="68" t="s">
+        <v>97</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C10" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="41.4">
-      <c r="A11" s="27" t="s">
-        <v>102</v>
+      <c r="A11" s="68" t="s">
+        <v>99</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C11" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="40" customFormat="1" ht="41.4">
-      <c r="A12" s="38" t="s">
-        <v>104</v>
+      <c r="A12" s="68" t="s">
+        <v>101</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C12" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6">
-      <c r="A13" s="27" t="s">
-        <v>106</v>
+      <c r="A13" s="68" t="s">
+        <v>103</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="40" customFormat="1" ht="41.4">
-      <c r="A14" s="38" t="s">
-        <v>118</v>
+      <c r="A14" s="68" t="s">
+        <v>115</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="69">
-      <c r="A15" s="27" t="s">
-        <v>124</v>
+      <c r="A15" s="68" t="s">
+        <v>121</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C15" s="27">
         <v>1</v>
@@ -33051,10 +33152,10 @@
     </row>
     <row r="16" spans="1:3" s="40" customFormat="1" ht="55.2">
       <c r="A16" s="38" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" s="38">
         <v>2</v>
@@ -33062,10 +33163,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C17" s="27">
         <v>2</v>
@@ -33073,10 +33174,10 @@
     </row>
     <row r="18" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A18" s="38" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C18" s="38">
         <v>2</v>
@@ -33084,10 +33185,10 @@
     </row>
     <row r="19" spans="1:3" ht="41.4">
       <c r="A19" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C19" s="27">
         <v>2</v>
@@ -33095,10 +33196,10 @@
     </row>
     <row r="20" spans="1:3" s="40" customFormat="1" ht="96.6">
       <c r="A20" s="38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C20" s="38">
         <v>2</v>
@@ -33106,10 +33207,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="27" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C21" s="27">
         <v>2</v>
@@ -33117,10 +33218,10 @@
     </row>
     <row r="22" spans="1:3" s="40" customFormat="1">
       <c r="A22" s="38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C22" s="38">
         <v>2</v>
@@ -33128,10 +33229,10 @@
     </row>
     <row r="23" spans="1:3" ht="27.6">
       <c r="A23" s="27" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C23" s="27">
         <v>3</v>
@@ -33139,10 +33240,10 @@
     </row>
     <row r="24" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A24" s="38" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C24" s="38">
         <v>3</v>
@@ -33150,10 +33251,10 @@
     </row>
     <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="27">
         <v>3</v>
@@ -33176,8 +33277,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -33199,11 +33300,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
-        <v>129</v>
+      <c r="A2" s="68" t="s">
+        <v>126</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
@@ -33211,11 +33312,11 @@
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="55.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="68" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="27"/>
@@ -33223,11 +33324,11 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="27.6">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="68" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
@@ -33235,80 +33336,80 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="55.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="68" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.6">
+      <c r="A6" s="68" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6">
-      <c r="A6" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="41.4">
+      <c r="A7" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="138">
+      <c r="A8" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="151.80000000000001">
+      <c r="A9" s="68" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="41.4">
-      <c r="A7" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="B9" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="138">
-      <c r="A8" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="151.80000000000001">
-      <c r="A9" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="27" t="s">
+      <c r="C9" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="110.4">
+      <c r="A10" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="110.4">
-      <c r="A10" s="27" t="s">
-        <v>144</v>
-      </c>
       <c r="B10" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="179.4">
-      <c r="A11" s="27" t="s">
-        <v>150</v>
+      <c r="A11" s="68" t="s">
+        <v>147</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -33316,109 +33417,109 @@
         <v>89</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="41.4">
       <c r="A13" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.6">
       <c r="A14" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="69">
       <c r="A15" s="27" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="138">
       <c r="A16" s="27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="69">
       <c r="A17" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="69">
       <c r="A18" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="55.2">
       <c r="A19" s="27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="41.4">
       <c r="A21" s="27" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -33437,7 +33538,7 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -33452,278 +33553,278 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="27" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="32" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="69">
       <c r="A3" s="36" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="55.2">
       <c r="A4" s="36" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="69">
       <c r="A5" s="36" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="55.2">
       <c r="A6" s="36" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="41.4">
       <c r="A7" s="36" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="27.6">
       <c r="A8" s="36" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:4" ht="41.4">
       <c r="A10" s="36" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="82.8">
       <c r="A11" s="36" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="55.2">
       <c r="A12" s="36" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="41.4">
       <c r="A13" s="36" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="27.6">
       <c r="A14" s="36" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="34" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
     </row>
     <row r="16" spans="1:4" ht="41.4">
       <c r="A16" s="36" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" ht="55.2">
       <c r="A17" s="36" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" ht="55.2">
       <c r="A18" s="36" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" ht="69">
       <c r="A19" s="36" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="69">
       <c r="A20" s="36" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" ht="43.2">
       <c r="A21" s="36" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="34" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3" ht="55.2">
       <c r="A23" s="36" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" ht="41.4">
       <c r="A24" s="36" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="36" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="34" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
     </row>
     <row r="27" spans="1:3" ht="151.80000000000001">
       <c r="A27" s="36" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="69">
       <c r="A28" s="36" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="41.4">
       <c r="A29" s="36" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="55.2">
       <c r="A30" s="36" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="82.8">
       <c r="A31" s="36" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C31" s="29"/>
     </row>
@@ -33769,13 +33870,13 @@
         <v>85</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="F1" s="30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
@@ -33783,19 +33884,19 @@
         <v>86</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -33803,19 +33904,19 @@
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -33823,19 +33924,19 @@
         <v>88</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -33843,19 +33944,19 @@
         <v>89</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -33863,965 +33964,965 @@
         <v>90</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C8" s="31">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="31" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C11" s="31">
         <v>3</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C12" s="31">
         <v>3</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C13" s="31">
         <v>3</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="32" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="43" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" s="32" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="32" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="32" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G18" s="30" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="32" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="32" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="32" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="32" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="32" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="32" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" s="32" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="32" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="F30" s="32" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="30" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="32" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" s="32" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="32" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="32" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" s="32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" s="32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" s="32" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" s="32" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" s="32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" s="32" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" s="32" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" s="32" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="32" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="32" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="32" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="F48" s="32" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" s="30" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" s="32" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" s="32" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="32" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" s="32" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" s="32" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F55" s="30" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" s="32" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" s="32" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" s="32" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="32" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" s="32" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F60" s="32" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" s="32" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F61" s="32" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" s="32" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F62" s="32" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G62" s="30" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="F63" s="32" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" s="30" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F64" s="32" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" s="32" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F65" s="32" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" s="32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F66" s="32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" s="32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F67" s="32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" s="32" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" s="32" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" s="32" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G70" s="30" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" s="32" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F71" s="32" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" s="32" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F72" s="32" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" s="32" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F73" s="32" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" s="32" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F74" s="32" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" s="32" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" s="32" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F76" s="30" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" s="32" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F77" s="32" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" s="32" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F78" s="32" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="F79" s="32" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="F80" s="32" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="32" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="32" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="32" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="30" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="32" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="32" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="32" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="32" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="32" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="32" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="32" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="32" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="32" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="32" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="32" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="32" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="32" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="32" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -34855,10 +34956,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="55.8">
       <c r="A1" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -34872,21 +34973,21 @@
         <v>85</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -34894,13 +34995,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C4" s="27">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -34908,13 +35009,13 @@
         <v>89</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -34922,13 +35023,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C6" s="27">
         <v>2</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -34936,13 +35037,13 @@
         <v>87</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C7" s="27">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -34950,26 +35051,26 @@
         <v>90</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="32" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6">
       <c r="A10" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -34983,21 +35084,21 @@
         <v>85</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C12" s="27">
         <v>2</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -35005,13 +35106,13 @@
         <v>86</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C13" s="27">
         <v>2</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -35019,7 +35120,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C14" s="27">
         <v>2</v>
@@ -35027,90 +35128,90 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C15" s="27">
         <v>2</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="C16" s="27">
         <v>2</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="32" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="32" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="32" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="32" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" s="32" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="32" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="32" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="32" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="32" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="32" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="32" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -35138,17 +35239,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="26" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="26" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="26" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A3090-4581-46A1-8653-39F949F77FDC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C329F13B-769F-4C37-85BC-3079394E0A02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
@@ -331,12 +331,6 @@
   </si>
   <si>
     <t>ch10</t>
-  </si>
-  <si>
-    <t>List&lt;T&gt;
- Queue&lt;T&gt;, Stack&lt;T&gt;
- Dictionary&lt;T&gt;
- Set&lt;T&gt;</t>
   </si>
   <si>
     <t>ch11</t>
@@ -2582,6 +2576,13 @@
  STRING FORMATS
  DateTime and Number Formats
  Regular Expressions</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;T&gt;
+ Queue&lt;T&gt;, Stack&lt;T&gt;
+ Dictionary&lt;T&gt;
+ Set&lt;T&gt;</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -3125,6 +3126,9 @@
     <xf numFmtId="0" fontId="24" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3161,13 +3165,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3527,12 +3528,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3562,8 +3563,8 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3619,17 +3620,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3653,8 +3654,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="55"/>
-      <c r="B6" s="56"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="57"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3687,7 +3688,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="55"/>
+      <c r="A7" s="56"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3717,7 +3718,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="55"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3747,7 +3748,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="55"/>
+      <c r="A9" s="56"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3777,7 +3778,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="55"/>
+      <c r="A10" s="56"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3807,7 +3808,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="55"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3837,7 +3838,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="55"/>
+      <c r="A12" s="56"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3867,7 +3868,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A13" s="56"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3927,17 +3928,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3961,8 +3962,8 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="56"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
@@ -3995,7 +3996,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="55"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -4025,7 +4026,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="55"/>
+      <c r="A18" s="56"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -4055,7 +4056,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="55"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -4085,7 +4086,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="55"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -4115,7 +4116,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="55"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
@@ -4145,7 +4146,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="55"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
@@ -4175,7 +4176,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="55"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -4205,7 +4206,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="66" customHeight="1">
-      <c r="A24" s="56"/>
+      <c r="A24" s="57"/>
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
@@ -4235,13 +4236,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="49"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="50"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4297,11 +4298,11 @@
       <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4325,15 +4326,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="63"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4357,13 +4358,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="55"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="65"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="66"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4387,13 +4388,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="55"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4417,13 +4418,13 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="55"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="65"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4447,13 +4448,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A32" s="56"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="49"/>
+      <c r="E32" s="50"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4477,13 +4478,13 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="50"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -31750,7 +31751,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="68" t="s">
         <v>44</v>
       </c>
       <c r="C2" s="67" t="s">
@@ -31770,15 +31771,15 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -31794,7 +31795,7 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B5" s="56"/>
+      <c r="B5" s="57"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -31802,7 +31803,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -31816,7 +31817,7 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B7" s="56"/>
+      <c r="B7" s="57"/>
       <c r="C7" s="23" t="s">
         <v>57</v>
       </c>
@@ -31830,7 +31831,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -31846,7 +31847,7 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B9" s="56"/>
+      <c r="B9" s="57"/>
       <c r="C9" s="23" t="s">
         <v>64</v>
       </c>
@@ -31856,7 +31857,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B10" s="66" t="s">
+      <c r="B10" s="68" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -31872,7 +31873,7 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B11" s="56"/>
+      <c r="B11" s="57"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
         <v>69</v>
@@ -31884,7 +31885,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="68" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="23"/>
@@ -31898,7 +31899,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B13" s="56"/>
+      <c r="B13" s="57"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
@@ -31908,7 +31909,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B14" s="66" t="s">
+      <c r="B14" s="68" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23"/>
@@ -31920,7 +31921,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -32947,6 +32948,11 @@
     <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
@@ -32954,11 +32960,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32973,8 +32974,8 @@
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
@@ -33001,7 +33002,7 @@
         <v>86</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
@@ -33012,7 +33013,7 @@
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
@@ -33023,7 +33024,7 @@
         <v>88</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -33034,7 +33035,7 @@
         <v>89</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
@@ -33045,7 +33046,7 @@
         <v>90</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C6" s="38">
         <v>1</v>
@@ -33056,7 +33057,7 @@
         <v>91</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C7" s="27">
         <v>1</v>
@@ -33067,84 +33068,84 @@
         <v>94</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="55.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="47" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>96</v>
+        <v>523</v>
       </c>
       <c r="C9" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="40" customFormat="1" ht="110.4">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>97</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>98</v>
       </c>
       <c r="C10" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="41.4">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>100</v>
       </c>
       <c r="C11" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="40" customFormat="1" ht="41.4">
-      <c r="A12" s="68" t="s">
+      <c r="A12" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>101</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>102</v>
       </c>
       <c r="C12" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="27.6">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>103</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>104</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="40" customFormat="1" ht="41.4">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>115</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>116</v>
       </c>
       <c r="C14" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="69">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>121</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>122</v>
       </c>
       <c r="C15" s="27">
         <v>1</v>
@@ -33163,10 +33164,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>106</v>
       </c>
       <c r="C17" s="27">
         <v>2</v>
@@ -33174,10 +33175,10 @@
     </row>
     <row r="18" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A18" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>107</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>108</v>
       </c>
       <c r="C18" s="38">
         <v>2</v>
@@ -33185,10 +33186,10 @@
     </row>
     <row r="19" spans="1:3" ht="41.4">
       <c r="A19" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="C19" s="27">
         <v>2</v>
@@ -33196,10 +33197,10 @@
     </row>
     <row r="20" spans="1:3" s="40" customFormat="1" ht="96.6">
       <c r="A20" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>113</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>114</v>
       </c>
       <c r="C20" s="38">
         <v>2</v>
@@ -33207,10 +33208,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>117</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>118</v>
       </c>
       <c r="C21" s="27">
         <v>2</v>
@@ -33218,10 +33219,10 @@
     </row>
     <row r="22" spans="1:3" s="40" customFormat="1">
       <c r="A22" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C22" s="38">
         <v>2</v>
@@ -33229,10 +33230,10 @@
     </row>
     <row r="23" spans="1:3" ht="27.6">
       <c r="A23" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>111</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>112</v>
       </c>
       <c r="C23" s="27">
         <v>3</v>
@@ -33240,10 +33241,10 @@
     </row>
     <row r="24" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A24" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>119</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>120</v>
       </c>
       <c r="C24" s="38">
         <v>3</v>
@@ -33251,10 +33252,10 @@
     </row>
     <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="27" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>124</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>125</v>
       </c>
       <c r="C25" s="27">
         <v>3</v>
@@ -33300,11 +33301,11 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="68" t="s">
+      <c r="A2" s="47" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>127</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
@@ -33312,11 +33313,11 @@
       <c r="F2" s="29"/>
     </row>
     <row r="3" spans="1:6" ht="55.2">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="47" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="27"/>
@@ -33324,11 +33325,11 @@
       <c r="F3" s="29"/>
     </row>
     <row r="4" spans="1:6" ht="27.6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="47" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
@@ -33336,80 +33337,80 @@
       <c r="F4" s="29"/>
     </row>
     <row r="5" spans="1:6" ht="55.2">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="47" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>131</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="27.6">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="47" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="41.4">
+      <c r="A7" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="41.4">
-      <c r="A7" s="68" t="s">
-        <v>91</v>
-      </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="138">
+      <c r="A8" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="138">
-      <c r="A8" s="68" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="27" t="s">
+      <c r="C8" s="27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="151.80000000000001">
+      <c r="A9" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="151.80000000000001">
-      <c r="A9" s="68" t="s">
+      <c r="B9" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>138</v>
-      </c>
       <c r="C9" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="110.4">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>142</v>
-      </c>
       <c r="C10" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="179.4">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>148</v>
-      </c>
       <c r="C11" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -33417,109 +33418,109 @@
         <v>89</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>132</v>
-      </c>
-      <c r="C12" s="27" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="41.4">
       <c r="A13" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>140</v>
-      </c>
       <c r="C13" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="27.6">
       <c r="A14" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>144</v>
-      </c>
       <c r="C14" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="69">
       <c r="A15" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="138">
       <c r="A16" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="69">
       <c r="A17" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>150</v>
-      </c>
       <c r="C17" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="69">
       <c r="A18" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="55.2">
       <c r="A19" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="41.4">
       <c r="A21" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -33538,7 +33539,7 @@
   </sheetPr>
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -33553,278 +33554,278 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="32" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="69">
       <c r="A3" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="27" t="s">
         <v>457</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>458</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="55.2">
       <c r="A4" s="36" t="s">
+        <v>459</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>460</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>461</v>
       </c>
       <c r="C4" s="29"/>
     </row>
     <row r="5" spans="1:4" ht="69">
       <c r="A5" s="36" t="s">
+        <v>461</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>462</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>463</v>
       </c>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:4" ht="55.2">
       <c r="A6" s="36" t="s">
+        <v>463</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>464</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>465</v>
       </c>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:4" ht="41.4">
       <c r="A7" s="36" t="s">
+        <v>465</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>466</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>467</v>
       </c>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="1:4" ht="27.6">
       <c r="A8" s="36" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>468</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>469</v>
       </c>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
     <row r="10" spans="1:4" ht="41.4">
       <c r="A10" s="36" t="s">
+        <v>470</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>471</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>472</v>
       </c>
       <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:4" ht="82.8">
       <c r="A11" s="36" t="s">
+        <v>472</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>473</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>474</v>
       </c>
       <c r="C11" s="29"/>
     </row>
     <row r="12" spans="1:4" ht="55.2">
       <c r="A12" s="36" t="s">
+        <v>474</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>475</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>476</v>
       </c>
       <c r="C12" s="29"/>
     </row>
     <row r="13" spans="1:4" ht="41.4">
       <c r="A13" s="36" t="s">
+        <v>476</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>477</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>478</v>
       </c>
       <c r="C13" s="29"/>
     </row>
     <row r="14" spans="1:4" ht="27.6">
       <c r="A14" s="36" t="s">
+        <v>478</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>479</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>480</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="34" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
     </row>
     <row r="16" spans="1:4" ht="41.4">
       <c r="A16" s="36" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>482</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>483</v>
       </c>
       <c r="C16" s="29"/>
     </row>
     <row r="17" spans="1:3" ht="55.2">
       <c r="A17" s="36" t="s">
+        <v>483</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>484</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>485</v>
       </c>
       <c r="C17" s="29"/>
     </row>
     <row r="18" spans="1:3" ht="55.2">
       <c r="A18" s="36" t="s">
+        <v>485</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>486</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>487</v>
       </c>
       <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" ht="69">
       <c r="A19" s="36" t="s">
+        <v>487</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>488</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>489</v>
       </c>
       <c r="C19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="69">
       <c r="A20" s="36" t="s">
+        <v>489</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>490</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>491</v>
       </c>
       <c r="C20" s="29"/>
     </row>
     <row r="21" spans="1:3" ht="43.2">
       <c r="A21" s="36" t="s">
+        <v>491</v>
+      </c>
+      <c r="B21" s="31" t="s">
         <v>492</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>493</v>
       </c>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
     </row>
     <row r="23" spans="1:3" ht="55.2">
       <c r="A23" s="36" t="s">
+        <v>494</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>495</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>496</v>
       </c>
       <c r="C23" s="29"/>
     </row>
     <row r="24" spans="1:3" ht="41.4">
       <c r="A24" s="36" t="s">
+        <v>496</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>497</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>498</v>
       </c>
       <c r="C24" s="29"/>
     </row>
     <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="36" t="s">
+        <v>498</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>499</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>500</v>
       </c>
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="34" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
     </row>
     <row r="27" spans="1:3" ht="151.80000000000001">
       <c r="A27" s="36" t="s">
+        <v>501</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>502</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>503</v>
       </c>
       <c r="C27" s="29"/>
     </row>
     <row r="28" spans="1:3" ht="69">
       <c r="A28" s="36" t="s">
+        <v>503</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>504</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>505</v>
       </c>
       <c r="C28" s="29"/>
     </row>
     <row r="29" spans="1:3" ht="41.4">
       <c r="A29" s="36" t="s">
+        <v>505</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>506</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>507</v>
       </c>
       <c r="C29" s="29"/>
     </row>
     <row r="30" spans="1:3" ht="55.2">
       <c r="A30" s="36" t="s">
+        <v>507</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>508</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>509</v>
       </c>
       <c r="C30" s="29"/>
     </row>
     <row r="31" spans="1:3" ht="82.8">
       <c r="A31" s="36" t="s">
+        <v>509</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>510</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>511</v>
       </c>
       <c r="C31" s="29"/>
     </row>
@@ -33870,13 +33871,13 @@
         <v>85</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>155</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15">
@@ -33884,19 +33885,19 @@
         <v>86</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>158</v>
-      </c>
-      <c r="G2" s="32" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15">
@@ -33904,19 +33905,19 @@
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F3" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>161</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -33924,19 +33925,19 @@
         <v>88</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>164</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>165</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -33944,19 +33945,19 @@
         <v>89</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>169</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -33964,19 +33965,19 @@
         <v>90</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="E6" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>173</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -33984,19 +33985,19 @@
         <v>91</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>177</v>
-      </c>
-      <c r="G7" s="32" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -34004,19 +34005,19 @@
         <v>92</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="31">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>181</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -34024,19 +34025,19 @@
         <v>94</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
       </c>
       <c r="E9" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>185</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -34044,885 +34045,885 @@
         <v>95</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>188</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>189</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C11" s="31">
         <v>3</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>192</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" s="31">
         <v>3</v>
       </c>
       <c r="E12" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>196</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="31" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C13" s="31">
         <v>3</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>200</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>202</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>203</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E15" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>206</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>208</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>209</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="32" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>211</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="32" t="s">
+        <v>212</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="G18" s="30" t="s">
         <v>214</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="G19" s="32" t="s">
         <v>217</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>219</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="G20" s="32" t="s">
         <v>220</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="G21" s="32" t="s">
         <v>223</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>226</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>228</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="30" t="s">
         <v>231</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>233</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>234</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>236</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="G26" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>240</v>
-      </c>
-      <c r="G27" s="32" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="28" spans="5:7">
       <c r="E28" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" s="32" t="s">
         <v>242</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="G28" s="32" t="s">
         <v>243</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="G29" s="32" t="s">
         <v>246</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="F30" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>248</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>250</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="G31" s="32" t="s">
         <v>251</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="32" t="s">
+        <v>252</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>253</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="G32" s="32" t="s">
         <v>254</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="G33" s="32" t="s">
         <v>257</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="32" t="s">
+        <v>258</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>259</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="G34" s="32" t="s">
         <v>260</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>262</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="G35" s="32" t="s">
         <v>263</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" s="32" t="s">
+        <v>264</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>265</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="G36" s="32" t="s">
         <v>266</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>268</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>270</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="G38" s="30" t="s">
         <v>271</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>273</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="G39" s="32" t="s">
         <v>274</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="G40" s="32" t="s">
         <v>277</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="G41" s="32" t="s">
         <v>280</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>282</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="G42" s="32" t="s">
         <v>283</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="G43" s="32" t="s">
         <v>286</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>288</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="G44" s="32" t="s">
         <v>289</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>291</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="G45" s="32" t="s">
         <v>292</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="32" t="s">
+        <v>293</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>294</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="G46" s="32" t="s">
         <v>295</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="F47" s="32" t="s">
         <v>297</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="G47" s="32" t="s">
         <v>298</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="F48" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" s="32" t="s">
         <v>300</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>302</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="G49" s="32" t="s">
         <v>303</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" s="32" t="s">
+        <v>304</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>305</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="G50" s="32" t="s">
         <v>306</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F51" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="G51" s="32" t="s">
         <v>309</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="F52" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="G52" s="32" t="s">
         <v>312</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" s="32" t="s">
+        <v>313</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="G53" s="32" t="s">
         <v>315</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="G54" s="32" t="s">
         <v>317</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="F55" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="G55" s="32" t="s">
         <v>320</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="F56" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="G56" s="32" t="s">
         <v>323</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="F57" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="G57" s="32" t="s">
         <v>326</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="F58" s="32" t="s">
         <v>328</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="G58" s="32" t="s">
         <v>329</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="32" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="G59" s="32" t="s">
         <v>332</v>
-      </c>
-      <c r="G59" s="32" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="60" spans="5:7">
       <c r="E60" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="F60" s="32" t="s">
         <v>334</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="G60" s="32" t="s">
         <v>335</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" s="32" t="s">
         <v>337</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" s="32" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="G62" s="30" t="s">
         <v>340</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="F63" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="G63" s="32" t="s">
         <v>342</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="F64" s="32" t="s">
         <v>344</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="G64" s="32" t="s">
         <v>345</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" s="32" t="s">
+        <v>346</v>
+      </c>
+      <c r="F65" s="32" t="s">
         <v>347</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="G65" s="32" t="s">
         <v>348</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" s="32" t="s">
+        <v>349</v>
+      </c>
+      <c r="F66" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="G66" s="32" t="s">
         <v>351</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" s="32" t="s">
+        <v>352</v>
+      </c>
+      <c r="F67" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="G67" s="32" t="s">
         <v>354</v>
-      </c>
-      <c r="G67" s="32" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="F68" s="32" t="s">
         <v>356</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="G68" s="32" t="s">
         <v>357</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" s="32" t="s">
+        <v>358</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>359</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>361</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="G70" s="30" t="s">
         <v>362</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>364</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="G71" s="32" t="s">
         <v>365</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F72" s="32" t="s">
         <v>367</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="G72" s="32" t="s">
         <v>368</v>
-      </c>
-      <c r="G72" s="32" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>370</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="G73" s="32" t="s">
         <v>371</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" s="32" t="s">
+        <v>372</v>
+      </c>
+      <c r="F74" s="32" t="s">
         <v>373</v>
       </c>
-      <c r="F74" s="32" t="s">
+      <c r="G74" s="32" t="s">
         <v>374</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" s="32" t="s">
+        <v>375</v>
+      </c>
+      <c r="G75" s="32" t="s">
         <v>376</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" s="32" t="s">
+        <v>377</v>
+      </c>
+      <c r="F76" s="30" t="s">
         <v>378</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="G76" s="32" t="s">
         <v>379</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" s="32" t="s">
+        <v>380</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>381</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="G77" s="32" t="s">
         <v>382</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" s="32" t="s">
+        <v>383</v>
+      </c>
+      <c r="F78" s="32" t="s">
         <v>384</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="G78" s="32" t="s">
         <v>385</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="F79" s="32" t="s">
+        <v>386</v>
+      </c>
+      <c r="G79" s="32" t="s">
         <v>387</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="F80" s="32" t="s">
+        <v>388</v>
+      </c>
+      <c r="G80" s="32" t="s">
         <v>389</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="32" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="30" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -34956,10 +34957,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="55.8">
       <c r="A1" s="33" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -34973,21 +34974,21 @@
         <v>85</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -34995,13 +34996,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C4" s="27">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -35009,13 +35010,13 @@
         <v>89</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -35023,13 +35024,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C6" s="27">
         <v>2</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -35037,13 +35038,13 @@
         <v>87</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C7" s="27">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -35051,26 +35052,26 @@
         <v>90</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="57.6">
       <c r="A10" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>427</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -35084,21 +35085,21 @@
         <v>85</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C12" s="27">
         <v>2</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -35106,13 +35107,13 @@
         <v>86</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C13" s="27">
         <v>2</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -35120,7 +35121,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C14" s="27">
         <v>2</v>
@@ -35131,13 +35132,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C15" s="27">
         <v>2</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -35145,73 +35146,73 @@
         <v>92</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C16" s="27">
         <v>2</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="32" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -35239,17 +35240,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="26" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C329F13B-769F-4C37-85BC-3079394E0A02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B68B6-1938-4ECA-A7A0-73ADD3D09C8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3165,10 +3165,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -31751,22 +31751,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B2" s="68" t="s">
+      <c r="B2" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="68" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31779,7 +31779,7 @@
       <c r="G3" s="57"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="67" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -31803,7 +31803,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B6" s="68" t="s">
+      <c r="B6" s="67" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -31831,7 +31831,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="67" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -31857,7 +31857,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="67" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -31885,7 +31885,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="67" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="23"/>
@@ -31909,7 +31909,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B14" s="68" t="s">
+      <c r="B14" s="67" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23"/>
@@ -32948,11 +32948,6 @@
     <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
@@ -32960,6 +32955,11 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desk\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47B68B6-1938-4ECA-A7A0-73ADD3D09C8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="6345" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
@@ -334,16 +333,6 @@
   </si>
   <si>
     <t>ch11</t>
-  </si>
-  <si>
-    <t>BitArray
- BitVector32
- ObservableCollection&lt;T&gt;
- ConcurrentQueue&lt;T&gt;
- ConcurrentStack&lt;T&gt;
- ConcurrentBag&lt;T&gt;
- ConcurrentDictionary&lt;T,T&gt;
- BlockingCollection&lt;T&gt;</t>
   </si>
   <si>
     <t>ch12</t>
@@ -2585,11 +2574,22 @@
  Set&lt;T&gt;</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
+  <si>
+    <t>BitArray
+ BitVector32
+ ObservableCollection&lt;T&gt;
+ ConcurrentQueue&lt;T&gt;
+ ConcurrentStack&lt;T&gt;
+ ConcurrentBag&lt;T&gt;
+ ConcurrentDictionary&lt;T,T&gt;
+ BlockingCollection&lt;T&gt;</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -2743,7 +2743,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2771,6 +2771,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3018,7 +3024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3165,10 +3171,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3484,19 +3493,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="5" width="21.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -31608,7 +31617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31618,14 +31627,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="56.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4">
+    <row r="1" spans="1:7">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
@@ -31644,7 +31653,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4">
+    <row r="2" spans="1:7">
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
@@ -31657,7 +31666,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7" ht="14.4">
+    <row r="3" spans="1:7">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -31670,7 +31679,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="14.4">
+    <row r="4" spans="1:7">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -31683,7 +31692,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7" ht="14.4">
+    <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
@@ -31696,7 +31705,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7" ht="14.4">
+    <row r="6" spans="1:7">
       <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
@@ -31709,7 +31718,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7" ht="14.4">
+    <row r="7" spans="1:7">
       <c r="A7" s="19" t="s">
         <v>43</v>
       </c>
@@ -31732,41 +31741,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.5546875" customWidth="1"/>
-    <col min="4" max="4" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="26" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="8" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
     <row r="2" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="68" t="s">
+      <c r="G2" s="67" t="s">
         <v>49</v>
       </c>
     </row>
@@ -31779,7 +31788,7 @@
       <c r="G3" s="57"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B4" s="67" t="s">
+      <c r="B4" s="68" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="23" t="s">
@@ -31803,7 +31812,7 @@
       <c r="G5" s="23"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="68" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="23" t="s">
@@ -31831,7 +31840,7 @@
       <c r="G7" s="23"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="68" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="23" t="s">
@@ -31857,7 +31866,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="68" t="s">
         <v>65</v>
       </c>
       <c r="C10" s="23" t="s">
@@ -31885,7 +31894,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="68" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="23"/>
@@ -31909,7 +31918,7 @@
       <c r="G13" s="23"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B14" s="67" t="s">
+      <c r="B14" s="68" t="s">
         <v>75</v>
       </c>
       <c r="C14" s="23"/>
@@ -32948,6 +32957,11 @@
     <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
@@ -32955,11 +32969,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32968,22 +32977,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="28"/>
-    <col min="2" max="2" width="61.33203125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="61.28515625" style="28" customWidth="1"/>
     <col min="3" max="3" width="6" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="14.44140625" style="28"/>
+    <col min="4" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -32997,34 +33006,34 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="40" customFormat="1" ht="191.4">
+    <row r="2" spans="1:3" s="40" customFormat="1" ht="200.25">
       <c r="A2" s="38" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C2" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="227.4">
+    <row r="3" spans="1:3" ht="236.25">
       <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="40" customFormat="1" ht="117.6">
+    <row r="4" spans="1:3" s="40" customFormat="1" ht="123">
       <c r="A4" s="38" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="44" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C4" s="38">
         <v>1</v>
@@ -33035,123 +33044,123 @@
         <v>89</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="40" customFormat="1" ht="69.599999999999994">
+    <row r="6" spans="1:3" s="40" customFormat="1" ht="72">
       <c r="A6" s="38" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C6" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="56.4">
+    <row r="7" spans="1:3" ht="58.5">
       <c r="A7" s="27" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C7" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="40" customFormat="1" ht="55.2">
+    <row r="8" spans="1:3" s="40" customFormat="1" ht="57">
       <c r="A8" s="38" t="s">
         <v>94</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C8" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="55.2">
-      <c r="A9" s="47" t="s">
+    <row r="9" spans="1:3" ht="57">
+      <c r="A9" s="69" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C9" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" ht="110.4">
+    <row r="10" spans="1:3" s="40" customFormat="1" ht="114">
       <c r="A10" s="47" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>97</v>
+        <v>523</v>
       </c>
       <c r="C10" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="41.4">
+    <row r="11" spans="1:3" ht="42.75">
       <c r="A11" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>98</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>99</v>
       </c>
       <c r="C11" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="40" customFormat="1" ht="41.4">
+    <row r="12" spans="1:3" s="40" customFormat="1" ht="42.75">
       <c r="A12" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="38" t="s">
         <v>100</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>101</v>
       </c>
       <c r="C12" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="27.6">
+    <row r="13" spans="1:3" ht="28.5">
       <c r="A13" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>102</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>103</v>
       </c>
       <c r="C13" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="40" customFormat="1" ht="41.4">
+    <row r="14" spans="1:3" s="40" customFormat="1" ht="42.75">
       <c r="A14" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="38" t="s">
         <v>114</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>115</v>
       </c>
       <c r="C14" s="38">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="69">
+    <row r="15" spans="1:3" ht="71.25">
       <c r="A15" s="47" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>120</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>121</v>
       </c>
       <c r="C15" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="40" customFormat="1" ht="55.2">
+    <row r="16" spans="1:3" s="40" customFormat="1" ht="57">
       <c r="A16" s="38" t="s">
         <v>92</v>
       </c>
@@ -33164,43 +33173,43 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>104</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>105</v>
       </c>
       <c r="C17" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="40" customFormat="1" ht="41.4">
+    <row r="18" spans="1:3" s="40" customFormat="1" ht="42.75">
       <c r="A18" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>107</v>
       </c>
       <c r="C18" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="41.4">
+    <row r="19" spans="1:3" ht="42.75">
       <c r="A19" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>109</v>
       </c>
       <c r="C19" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="40" customFormat="1" ht="96.6">
+    <row r="20" spans="1:3" s="40" customFormat="1" ht="99.75">
       <c r="A20" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>112</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>113</v>
       </c>
       <c r="C20" s="38">
         <v>2</v>
@@ -33208,10 +33217,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>116</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>117</v>
       </c>
       <c r="C21" s="27">
         <v>2</v>
@@ -33219,43 +33228,43 @@
     </row>
     <row r="22" spans="1:3" s="40" customFormat="1">
       <c r="A22" s="38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C22" s="38">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="27.6">
+    <row r="23" spans="1:3" ht="28.5">
       <c r="A23" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>110</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>111</v>
       </c>
       <c r="C23" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="40" customFormat="1" ht="41.4">
+    <row r="24" spans="1:3" s="40" customFormat="1" ht="42.75">
       <c r="A24" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="38" t="s">
         <v>118</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>119</v>
       </c>
       <c r="C24" s="38">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="27.6">
+    <row r="25" spans="1:3" ht="28.5">
       <c r="A25" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>123</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>124</v>
       </c>
       <c r="C25" s="27">
         <v>3</v>
@@ -33272,7 +33281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33282,11 +33291,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="28"/>
-    <col min="2" max="2" width="50.6640625" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="28"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="50.7109375" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -33302,115 +33311,115 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="47" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>125</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>126</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" ht="55.2">
+    <row r="3" spans="1:6" ht="57">
       <c r="A3" s="47" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" ht="27.6">
+    <row r="4" spans="1:6" ht="28.5">
       <c r="A4" s="47" t="s">
         <v>87</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" ht="55.2">
+    <row r="5" spans="1:6" ht="57">
       <c r="A5" s="47" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="C5" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="27.6">
+    </row>
+    <row r="6" spans="1:6" ht="28.5">
       <c r="A6" s="47" t="s">
         <v>90</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="41.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="42.75">
       <c r="A7" s="47" t="s">
         <v>91</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="138">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="142.5">
       <c r="A8" s="47" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="156.75">
+      <c r="A9" s="47" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="151.80000000000001">
-      <c r="A9" s="47" t="s">
+      <c r="B9" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>137</v>
-      </c>
       <c r="C9" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="110.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="114">
       <c r="A10" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>141</v>
-      </c>
       <c r="C10" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="179.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="185.25">
       <c r="A11" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>147</v>
-      </c>
       <c r="C11" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -33418,109 +33427,109 @@
         <v>89</v>
       </c>
       <c r="B12" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="41.4">
+    </row>
+    <row r="13" spans="1:6" ht="42.75">
       <c r="A13" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>139</v>
-      </c>
       <c r="C13" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="27.6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.5">
       <c r="A14" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>143</v>
-      </c>
       <c r="C14" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="69">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="71.25">
       <c r="A15" s="27" t="s">
         <v>96</v>
       </c>
       <c r="B15" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="142.5">
+      <c r="A16" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C15" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="138">
-      <c r="A16" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>145</v>
-      </c>
       <c r="C16" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="69">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="71.25">
       <c r="A17" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="71.25">
+      <c r="A18" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>149</v>
       </c>
-      <c r="C17" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="69">
-      <c r="A18" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="57">
+      <c r="A19" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="55.2">
-      <c r="A19" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>151</v>
-      </c>
       <c r="C19" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="42.75">
+      <c r="A21" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="41.4">
-      <c r="A21" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>153</v>
-      </c>
       <c r="C21" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -33533,7 +33542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33543,303 +33552,303 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="56.5546875" style="28" customWidth="1"/>
-    <col min="2" max="2" width="68.33203125" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="105.33203125" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="14.44140625" style="28"/>
+    <col min="1" max="1" width="56.5703125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="105.28515625" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2" s="35"/>
       <c r="C2" s="35"/>
       <c r="D2" s="32" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="71.25">
+      <c r="A3" s="36" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="69">
-      <c r="A3" s="36" t="s">
+      <c r="B3" s="27" t="s">
         <v>456</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>457</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="37" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="57">
+      <c r="A4" s="36" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="55.2">
-      <c r="A4" s="36" t="s">
+      <c r="B4" s="27" t="s">
         <v>459</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" ht="71.25">
+      <c r="A5" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="C4" s="29"/>
-    </row>
-    <row r="5" spans="1:4" ht="69">
-      <c r="A5" s="36" t="s">
+      <c r="B5" s="27" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="29"/>
+    </row>
+    <row r="6" spans="1:4" ht="57">
+      <c r="A6" s="36" t="s">
         <v>462</v>
       </c>
-      <c r="C5" s="29"/>
-    </row>
-    <row r="6" spans="1:4" ht="55.2">
-      <c r="A6" s="36" t="s">
+      <c r="B6" s="27" t="s">
         <v>463</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="29"/>
+    </row>
+    <row r="7" spans="1:4" ht="42.75">
+      <c r="A7" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="C6" s="29"/>
-    </row>
-    <row r="7" spans="1:4" ht="41.4">
-      <c r="A7" s="36" t="s">
+      <c r="B7" s="27" t="s">
         <v>465</v>
       </c>
-      <c r="B7" s="27" t="s">
+      <c r="C7" s="29"/>
+    </row>
+    <row r="8" spans="1:4" ht="28.5">
+      <c r="A8" s="36" t="s">
         <v>466</v>
       </c>
-      <c r="C7" s="29"/>
-    </row>
-    <row r="8" spans="1:4" ht="27.6">
-      <c r="A8" s="36" t="s">
+      <c r="B8" s="27" t="s">
         <v>467</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>468</v>
       </c>
       <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="34" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
-    <row r="10" spans="1:4" ht="41.4">
+    <row r="10" spans="1:4" ht="42.75">
       <c r="A10" s="36" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>470</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" ht="85.5">
+      <c r="A11" s="36" t="s">
         <v>471</v>
       </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:4" ht="82.8">
-      <c r="A11" s="36" t="s">
+      <c r="B11" s="27" t="s">
         <v>472</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:4" ht="57">
+      <c r="A12" s="36" t="s">
         <v>473</v>
       </c>
-      <c r="C11" s="29"/>
-    </row>
-    <row r="12" spans="1:4" ht="55.2">
-      <c r="A12" s="36" t="s">
+      <c r="B12" s="27" t="s">
         <v>474</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="C12" s="29"/>
+    </row>
+    <row r="13" spans="1:4" ht="42.75">
+      <c r="A13" s="36" t="s">
         <v>475</v>
       </c>
-      <c r="C12" s="29"/>
-    </row>
-    <row r="13" spans="1:4" ht="41.4">
-      <c r="A13" s="36" t="s">
+      <c r="B13" s="27" t="s">
         <v>476</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:4" ht="28.5">
+      <c r="A14" s="36" t="s">
         <v>477</v>
       </c>
-      <c r="C13" s="29"/>
-    </row>
-    <row r="14" spans="1:4" ht="27.6">
-      <c r="A14" s="36" t="s">
+      <c r="B14" s="27" t="s">
         <v>478</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>479</v>
       </c>
       <c r="C14" s="29"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
     </row>
-    <row r="16" spans="1:4" ht="41.4">
+    <row r="16" spans="1:4" ht="42.75">
       <c r="A16" s="36" t="s">
+        <v>480</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>481</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="C16" s="29"/>
+    </row>
+    <row r="17" spans="1:3" ht="57">
+      <c r="A17" s="36" t="s">
         <v>482</v>
       </c>
-      <c r="C16" s="29"/>
-    </row>
-    <row r="17" spans="1:3" ht="55.2">
-      <c r="A17" s="36" t="s">
+      <c r="B17" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" ht="57">
+      <c r="A18" s="36" t="s">
         <v>484</v>
       </c>
-      <c r="C17" s="29"/>
-    </row>
-    <row r="18" spans="1:3" ht="55.2">
-      <c r="A18" s="36" t="s">
+      <c r="B18" s="27" t="s">
         <v>485</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" ht="71.25">
+      <c r="A19" s="36" t="s">
         <v>486</v>
       </c>
-      <c r="C18" s="29"/>
-    </row>
-    <row r="19" spans="1:3" ht="69">
-      <c r="A19" s="36" t="s">
+      <c r="B19" s="27" t="s">
         <v>487</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" ht="71.25">
+      <c r="A20" s="36" t="s">
         <v>488</v>
       </c>
-      <c r="C19" s="29"/>
-    </row>
-    <row r="20" spans="1:3" ht="69">
-      <c r="A20" s="36" t="s">
+      <c r="B20" s="27" t="s">
         <v>489</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="C20" s="29"/>
+    </row>
+    <row r="21" spans="1:3" ht="45">
+      <c r="A21" s="36" t="s">
         <v>490</v>
       </c>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:3" ht="43.2">
-      <c r="A21" s="36" t="s">
+      <c r="B21" s="31" t="s">
         <v>491</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>492</v>
       </c>
       <c r="C21" s="29"/>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="34" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
     </row>
-    <row r="23" spans="1:3" ht="55.2">
+    <row r="23" spans="1:3" ht="57">
       <c r="A23" s="36" t="s">
+        <v>493</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>494</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="C23" s="29"/>
+    </row>
+    <row r="24" spans="1:3" ht="57">
+      <c r="A24" s="36" t="s">
         <v>495</v>
       </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:3" ht="41.4">
-      <c r="A24" s="36" t="s">
+      <c r="B24" s="27" t="s">
         <v>496</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="C24" s="29"/>
+    </row>
+    <row r="25" spans="1:3" ht="28.5">
+      <c r="A25" s="36" t="s">
         <v>497</v>
       </c>
-      <c r="C24" s="29"/>
-    </row>
-    <row r="25" spans="1:3" ht="27.6">
-      <c r="A25" s="36" t="s">
+      <c r="B25" s="27" t="s">
         <v>498</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>499</v>
       </c>
       <c r="C25" s="29"/>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
     </row>
-    <row r="27" spans="1:3" ht="151.80000000000001">
+    <row r="27" spans="1:3" ht="156.75">
       <c r="A27" s="36" t="s">
+        <v>500</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>501</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" ht="71.25">
+      <c r="A28" s="36" t="s">
         <v>502</v>
       </c>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:3" ht="69">
-      <c r="A28" s="36" t="s">
+      <c r="B28" s="27" t="s">
         <v>503</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="C28" s="29"/>
+    </row>
+    <row r="29" spans="1:3" ht="42.75">
+      <c r="A29" s="36" t="s">
         <v>504</v>
       </c>
-      <c r="C28" s="29"/>
-    </row>
-    <row r="29" spans="1:3" ht="41.4">
-      <c r="A29" s="36" t="s">
+      <c r="B29" s="27" t="s">
         <v>505</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" ht="57">
+      <c r="A30" s="36" t="s">
         <v>506</v>
       </c>
-      <c r="C29" s="29"/>
-    </row>
-    <row r="30" spans="1:3" ht="55.2">
-      <c r="A30" s="36" t="s">
+      <c r="B30" s="27" t="s">
         <v>507</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="C30" s="29"/>
+    </row>
+    <row r="31" spans="1:3" ht="85.5">
+      <c r="A31" s="36" t="s">
         <v>508</v>
       </c>
-      <c r="C30" s="29"/>
-    </row>
-    <row r="31" spans="1:3" ht="82.8">
-      <c r="A31" s="36" t="s">
+      <c r="B31" s="27" t="s">
         <v>509</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>510</v>
       </c>
       <c r="C31" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33849,18 +33858,18 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="28"/>
-    <col min="2" max="2" width="31.5546875" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.44140625" style="28"/>
-    <col min="5" max="5" width="38.88671875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" style="28" customWidth="1"/>
-    <col min="7" max="7" width="51.109375" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="14.44140625" style="28"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="2" max="2" width="31.5703125" style="28" customWidth="1"/>
+    <col min="3" max="4" width="14.42578125" style="28"/>
+    <col min="5" max="5" width="38.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="28" customWidth="1"/>
+    <col min="7" max="7" width="51.140625" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15">
+    <row r="1" spans="1:7" ht="15.75">
       <c r="A1" s="27" t="s">
         <v>83</v>
       </c>
@@ -33871,53 +33880,53 @@
         <v>85</v>
       </c>
       <c r="E1" s="41" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15">
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="31" t="s">
         <v>86</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="27">
         <v>1</v>
       </c>
       <c r="E2" s="42" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F2" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="G2" s="32" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15">
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
       <c r="A3" s="31" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C3" s="31">
         <v>1</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F3" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>160</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -33925,19 +33934,19 @@
         <v>88</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C4" s="31">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="G4" s="32" t="s">
         <v>164</v>
-      </c>
-      <c r="G4" s="32" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -33945,19 +33954,19 @@
         <v>89</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="31">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="32" t="s">
+      <c r="G5" s="32" t="s">
         <v>168</v>
-      </c>
-      <c r="G5" s="32" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -33965,19 +33974,19 @@
         <v>90</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
       <c r="E6" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="G6" s="32" t="s">
         <v>172</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -33985,39 +33994,39 @@
         <v>91</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C7" s="31">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
+        <v>174</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="G7" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="G7" s="32" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+    </row>
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="31" t="s">
         <v>92</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C8" s="31">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="F8" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="F8" s="32" t="s">
+      <c r="G8" s="32" t="s">
         <v>180</v>
-      </c>
-      <c r="G8" s="32" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -34025,19 +34034,19 @@
         <v>94</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C9" s="31">
         <v>2</v>
       </c>
       <c r="E9" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="F9" s="32" t="s">
         <v>183</v>
       </c>
-      <c r="F9" s="32" t="s">
+      <c r="G9" s="32" t="s">
         <v>184</v>
-      </c>
-      <c r="G9" s="32" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -34045,19 +34054,19 @@
         <v>95</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="31">
         <v>2</v>
       </c>
       <c r="E10" s="32" t="s">
+        <v>186</v>
+      </c>
+      <c r="F10" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="G10" s="32" t="s">
         <v>188</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -34065,878 +34074,878 @@
         <v>96</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="31">
         <v>3</v>
       </c>
       <c r="F11" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="32" t="s">
         <v>191</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C12" s="31">
         <v>3</v>
       </c>
       <c r="E12" s="30" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" s="32" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="G12" s="32" t="s">
         <v>195</v>
-      </c>
-      <c r="G12" s="32" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C13" s="31">
         <v>3</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="F13" s="32" t="s">
+      <c r="G13" s="32" t="s">
         <v>199</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="E14" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="F14" s="32" t="s">
         <v>201</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="G14" s="32" t="s">
         <v>202</v>
-      </c>
-      <c r="G14" s="32" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E15" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>204</v>
       </c>
-      <c r="F15" s="32" t="s">
+      <c r="G15" s="32" t="s">
         <v>205</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="E16" s="32" t="s">
+        <v>206</v>
+      </c>
+      <c r="F16" s="32" t="s">
         <v>207</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="G16" s="32" t="s">
         <v>208</v>
-      </c>
-      <c r="G16" s="32" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="17" spans="5:7">
       <c r="E17" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>210</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>212</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="G18" s="30" t="s">
         <v>213</v>
-      </c>
-      <c r="G18" s="30" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="19" spans="5:7">
       <c r="E19" s="32" t="s">
+        <v>214</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="F19" s="32" t="s">
+      <c r="G19" s="32" t="s">
         <v>216</v>
-      </c>
-      <c r="G19" s="32" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="20" spans="5:7">
       <c r="E20" s="32" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="32" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="G20" s="32" t="s">
         <v>219</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="21" spans="5:7">
       <c r="E21" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="F21" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="G21" s="32" t="s">
         <v>222</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="22" spans="5:7">
       <c r="E22" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="G22" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="23" spans="5:7">
       <c r="E23" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="F23" s="32" t="s">
         <v>227</v>
-      </c>
-      <c r="F23" s="32" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="24" spans="5:7">
       <c r="E24" s="32" t="s">
+        <v>228</v>
+      </c>
+      <c r="F24" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="G24" s="30" t="s">
         <v>230</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="25" spans="5:7">
       <c r="E25" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F25" s="32" t="s">
         <v>232</v>
       </c>
-      <c r="F25" s="32" t="s">
+      <c r="G25" s="32" t="s">
         <v>233</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="26" spans="5:7">
       <c r="E26" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="32" t="s">
         <v>235</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="G26" s="32" t="s">
         <v>236</v>
-      </c>
-      <c r="G26" s="32" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="27" spans="5:7">
       <c r="E27" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="F27" s="32" t="s">
         <v>238</v>
       </c>
-      <c r="F27" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="G27" s="32" t="s">
+    </row>
+    <row r="28" spans="5:7" ht="30">
+      <c r="E28" s="32" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="28" spans="5:7">
-      <c r="E28" s="32" t="s">
+      <c r="F28" s="32" t="s">
         <v>241</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="G28" s="32" t="s">
         <v>242</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="29" spans="5:7">
       <c r="E29" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>244</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="G29" s="32" t="s">
         <v>245</v>
-      </c>
-      <c r="G29" s="32" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="30" spans="5:7">
       <c r="F30" s="32" t="s">
+        <v>246</v>
+      </c>
+      <c r="G30" s="32" t="s">
         <v>247</v>
-      </c>
-      <c r="G30" s="32" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="31" spans="5:7">
       <c r="E31" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="F31" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="F31" s="32" t="s">
+      <c r="G31" s="32" t="s">
         <v>250</v>
-      </c>
-      <c r="G31" s="32" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="32" spans="5:7">
       <c r="E32" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="F32" s="32" t="s">
         <v>252</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="G32" s="32" t="s">
         <v>253</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="33" spans="5:7">
       <c r="E33" s="32" t="s">
+        <v>254</v>
+      </c>
+      <c r="F33" s="32" t="s">
         <v>255</v>
       </c>
-      <c r="F33" s="32" t="s">
+      <c r="G33" s="32" t="s">
         <v>256</v>
-      </c>
-      <c r="G33" s="32" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="34" spans="5:7">
       <c r="E34" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="F34" s="32" t="s">
         <v>258</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="G34" s="32" t="s">
         <v>259</v>
-      </c>
-      <c r="G34" s="32" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="35" spans="5:7">
       <c r="E35" s="32" t="s">
+        <v>260</v>
+      </c>
+      <c r="F35" s="32" t="s">
         <v>261</v>
       </c>
-      <c r="F35" s="32" t="s">
+      <c r="G35" s="32" t="s">
         <v>262</v>
-      </c>
-      <c r="G35" s="32" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="36" spans="5:7">
       <c r="E36" s="32" t="s">
+        <v>263</v>
+      </c>
+      <c r="F36" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="F36" s="32" t="s">
+      <c r="G36" s="32" t="s">
         <v>265</v>
-      </c>
-      <c r="G36" s="32" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="5:7">
       <c r="E37" s="32" t="s">
+        <v>266</v>
+      </c>
+      <c r="F37" s="32" t="s">
         <v>267</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="38" spans="5:7">
       <c r="E38" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F38" s="32" t="s">
         <v>269</v>
       </c>
-      <c r="F38" s="32" t="s">
+      <c r="G38" s="30" t="s">
         <v>270</v>
-      </c>
-      <c r="G38" s="30" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="39" spans="5:7">
       <c r="E39" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>272</v>
       </c>
-      <c r="F39" s="32" t="s">
+      <c r="G39" s="32" t="s">
         <v>273</v>
-      </c>
-      <c r="G39" s="32" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="40" spans="5:7">
       <c r="E40" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F40" s="32" t="s">
         <v>275</v>
       </c>
-      <c r="F40" s="32" t="s">
+      <c r="G40" s="32" t="s">
         <v>276</v>
-      </c>
-      <c r="G40" s="32" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="41" spans="5:7">
       <c r="E41" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" s="32" t="s">
         <v>278</v>
       </c>
-      <c r="F41" s="32" t="s">
+      <c r="G41" s="32" t="s">
         <v>279</v>
-      </c>
-      <c r="G41" s="32" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="42" spans="5:7">
       <c r="E42" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F42" s="32" t="s">
         <v>281</v>
       </c>
-      <c r="F42" s="32" t="s">
+      <c r="G42" s="32" t="s">
         <v>282</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="43" spans="5:7">
       <c r="E43" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F43" s="32" t="s">
         <v>284</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="G43" s="32" t="s">
         <v>285</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="44" spans="5:7">
       <c r="E44" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="F44" s="32" t="s">
+      <c r="G44" s="32" t="s">
         <v>288</v>
-      </c>
-      <c r="G44" s="32" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="45" spans="5:7">
       <c r="E45" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="F45" s="32" t="s">
         <v>290</v>
       </c>
-      <c r="F45" s="32" t="s">
+      <c r="G45" s="32" t="s">
         <v>291</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="46" spans="5:7">
       <c r="E46" s="32" t="s">
+        <v>292</v>
+      </c>
+      <c r="F46" s="32" t="s">
         <v>293</v>
       </c>
-      <c r="F46" s="32" t="s">
+      <c r="G46" s="32" t="s">
         <v>294</v>
-      </c>
-      <c r="G46" s="32" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="47" spans="5:7">
       <c r="E47" s="32" t="s">
+        <v>295</v>
+      </c>
+      <c r="F47" s="32" t="s">
         <v>296</v>
       </c>
-      <c r="F47" s="32" t="s">
+      <c r="G47" s="32" t="s">
         <v>297</v>
-      </c>
-      <c r="G47" s="32" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="48" spans="5:7">
       <c r="F48" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="G48" s="32" t="s">
         <v>299</v>
-      </c>
-      <c r="G48" s="32" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="49" spans="5:7">
       <c r="E49" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>301</v>
       </c>
-      <c r="F49" s="32" t="s">
+      <c r="G49" s="32" t="s">
         <v>302</v>
-      </c>
-      <c r="G49" s="32" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="50" spans="5:7">
       <c r="E50" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F50" s="32" t="s">
         <v>304</v>
       </c>
-      <c r="F50" s="32" t="s">
+      <c r="G50" s="32" t="s">
         <v>305</v>
-      </c>
-      <c r="G50" s="32" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="51" spans="5:7">
       <c r="E51" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="F51" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="F51" s="32" t="s">
+      <c r="G51" s="32" t="s">
         <v>308</v>
-      </c>
-      <c r="G51" s="32" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="52" spans="5:7">
       <c r="E52" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="F52" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="F52" s="32" t="s">
+      <c r="G52" s="32" t="s">
         <v>311</v>
-      </c>
-      <c r="G52" s="32" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="53" spans="5:7">
       <c r="E53" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="F53" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="F53" s="32" t="s">
+      <c r="G53" s="32" t="s">
         <v>314</v>
-      </c>
-      <c r="G53" s="32" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="54" spans="5:7">
       <c r="E54" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G54" s="32" t="s">
         <v>316</v>
-      </c>
-      <c r="G54" s="32" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="55" spans="5:7">
       <c r="E55" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="F55" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="F55" s="30" t="s">
+      <c r="G55" s="32" t="s">
         <v>319</v>
-      </c>
-      <c r="G55" s="32" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="56" spans="5:7">
       <c r="E56" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="F56" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="G56" s="32" t="s">
         <v>322</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="57" spans="5:7">
       <c r="E57" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="F57" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="G57" s="32" t="s">
         <v>325</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="58" spans="5:7">
       <c r="E58" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="F58" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="G58" s="32" t="s">
         <v>328</v>
-      </c>
-      <c r="G58" s="32" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="59" spans="5:7">
       <c r="E59" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="F59" s="32" t="s">
         <v>330</v>
       </c>
-      <c r="F59" s="32" t="s">
+      <c r="G59" s="32" t="s">
         <v>331</v>
       </c>
-      <c r="G59" s="32" t="s">
+    </row>
+    <row r="60" spans="5:7" ht="30">
+      <c r="E60" s="32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="60" spans="5:7">
-      <c r="E60" s="32" t="s">
+      <c r="F60" s="32" t="s">
         <v>333</v>
       </c>
-      <c r="F60" s="32" t="s">
+      <c r="G60" s="32" t="s">
         <v>334</v>
-      </c>
-      <c r="G60" s="32" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="61" spans="5:7">
       <c r="E61" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="F61" s="32" t="s">
         <v>336</v>
-      </c>
-      <c r="F61" s="32" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="62" spans="5:7">
       <c r="E62" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="F62" s="32" t="s">
         <v>338</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="G62" s="30" t="s">
         <v>339</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="63" spans="5:7">
       <c r="F63" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="G63" s="32" t="s">
         <v>341</v>
-      </c>
-      <c r="G63" s="32" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="64" spans="5:7">
       <c r="E64" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="F64" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="F64" s="32" t="s">
+      <c r="G64" s="32" t="s">
         <v>344</v>
-      </c>
-      <c r="G64" s="32" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="65" spans="5:7">
       <c r="E65" s="32" t="s">
+        <v>345</v>
+      </c>
+      <c r="F65" s="32" t="s">
         <v>346</v>
       </c>
-      <c r="F65" s="32" t="s">
+      <c r="G65" s="32" t="s">
         <v>347</v>
-      </c>
-      <c r="G65" s="32" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="66" spans="5:7">
       <c r="E66" s="32" t="s">
+        <v>348</v>
+      </c>
+      <c r="F66" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F66" s="32" t="s">
+      <c r="G66" s="32" t="s">
         <v>350</v>
-      </c>
-      <c r="G66" s="32" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="67" spans="5:7">
       <c r="E67" s="32" t="s">
+        <v>351</v>
+      </c>
+      <c r="F67" s="32" t="s">
         <v>352</v>
       </c>
-      <c r="F67" s="32" t="s">
+      <c r="G67" s="32" t="s">
         <v>353</v>
-      </c>
-      <c r="G67" s="32" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="68" spans="5:7">
       <c r="E68" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="F68" s="32" t="s">
         <v>355</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="G68" s="32" t="s">
         <v>356</v>
-      </c>
-      <c r="G68" s="32" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="69" spans="5:7">
       <c r="E69" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="F69" s="32" t="s">
         <v>358</v>
-      </c>
-      <c r="F69" s="32" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="70" spans="5:7">
       <c r="E70" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>360</v>
       </c>
-      <c r="F70" s="32" t="s">
+      <c r="G70" s="30" t="s">
         <v>361</v>
-      </c>
-      <c r="G70" s="30" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="71" spans="5:7">
       <c r="E71" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>363</v>
       </c>
-      <c r="F71" s="32" t="s">
+      <c r="G71" s="32" t="s">
         <v>364</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="72" spans="5:7">
       <c r="E72" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="F72" s="32" t="s">
         <v>366</v>
       </c>
-      <c r="F72" s="32" t="s">
+      <c r="G72" s="32" t="s">
         <v>367</v>
-      </c>
-      <c r="G72" s="32" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="73" spans="5:7">
       <c r="E73" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="F73" s="32" t="s">
         <v>369</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="G73" s="32" t="s">
         <v>370</v>
-      </c>
-      <c r="G73" s="32" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="74" spans="5:7">
       <c r="E74" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="F74" s="32" t="s">
         <v>372</v>
       </c>
-      <c r="F74" s="32" t="s">
+      <c r="G74" s="32" t="s">
         <v>373</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="75" spans="5:7">
       <c r="E75" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="G75" s="32" t="s">
         <v>375</v>
-      </c>
-      <c r="G75" s="32" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="76" spans="5:7">
       <c r="E76" s="32" t="s">
+        <v>376</v>
+      </c>
+      <c r="F76" s="30" t="s">
         <v>377</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="G76" s="32" t="s">
         <v>378</v>
-      </c>
-      <c r="G76" s="32" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="77" spans="5:7">
       <c r="E77" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="F77" s="32" t="s">
         <v>380</v>
       </c>
-      <c r="F77" s="32" t="s">
+      <c r="G77" s="32" t="s">
         <v>381</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="78" spans="5:7">
       <c r="E78" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="F78" s="32" t="s">
         <v>383</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="G78" s="32" t="s">
         <v>384</v>
-      </c>
-      <c r="G78" s="32" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="79" spans="5:7">
       <c r="F79" s="32" t="s">
+        <v>385</v>
+      </c>
+      <c r="G79" s="32" t="s">
         <v>386</v>
-      </c>
-      <c r="G79" s="32" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="80" spans="5:7">
       <c r="F80" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="G80" s="32" t="s">
         <v>388</v>
-      </c>
-      <c r="G80" s="32" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="81" spans="6:6">
       <c r="F81" s="32" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="82" spans="6:6">
       <c r="F82" s="32" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="83" spans="6:6">
       <c r="F83" s="32" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" spans="6:6">
       <c r="F84" s="32" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="85" spans="6:6">
       <c r="F85" s="32" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="87" spans="6:6">
       <c r="F87" s="30" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="6:6">
       <c r="F88" s="32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="89" spans="6:6">
       <c r="F89" s="32" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="6:6">
       <c r="F90" s="32" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="91" spans="6:6">
       <c r="F91" s="32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="92" spans="6:6">
       <c r="F92" s="32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="93" spans="6:6">
       <c r="F93" s="32" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="94" spans="6:6">
       <c r="F94" s="32" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="95" spans="6:6">
       <c r="F95" s="32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="96" spans="6:6">
       <c r="F96" s="32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="97" spans="6:6">
       <c r="F97" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="98" spans="6:6">
       <c r="F98" s="32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="99" spans="6:6">
       <c r="F99" s="32" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="6:6">
       <c r="F100" s="32" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="101" spans="6:6">
       <c r="F101" s="32" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="102" spans="6:6">
       <c r="F102" s="32" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="A15" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34946,21 +34955,21 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="1" max="1" width="14.42578125" style="28"/>
     <col min="2" max="2" width="32" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.44140625" style="28"/>
-    <col min="5" max="5" width="45.6640625" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="28"/>
+    <col min="3" max="4" width="14.42578125" style="28"/>
+    <col min="5" max="5" width="45.7109375" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="14.42578125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="55.8">
+    <row r="1" spans="1:5" ht="57.75">
       <c r="A1" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E1" s="32" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -34974,21 +34983,21 @@
         <v>85</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>413</v>
       </c>
       <c r="C3" s="27">
         <v>1</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -34996,13 +35005,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C4" s="27">
         <v>1</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -35010,13 +35019,13 @@
         <v>89</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C5" s="27">
         <v>1</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -35024,13 +35033,13 @@
         <v>86</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C6" s="27">
         <v>2</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -35038,40 +35047,40 @@
         <v>87</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C7" s="27">
         <v>2</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30">
       <c r="A8" s="27" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C8" s="27">
         <v>2</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" s="32" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75">
+      <c r="A10" s="32" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="57.6">
-      <c r="A10" s="32" t="s">
+      <c r="E10" s="32" t="s">
         <v>426</v>
-      </c>
-      <c r="E10" s="32" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -35085,21 +35094,21 @@
         <v>85</v>
       </c>
       <c r="E11" s="32" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="30">
+      <c r="A12" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>428</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>429</v>
       </c>
       <c r="C12" s="27">
         <v>2</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -35107,13 +35116,13 @@
         <v>86</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C13" s="27">
         <v>2</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -35121,7 +35130,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C14" s="27">
         <v>2</v>
@@ -35132,13 +35141,13 @@
         <v>91</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C15" s="27">
         <v>2</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -35146,73 +35155,73 @@
         <v>92</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C16" s="27">
         <v>2</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" s="32" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" s="32" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" s="32" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" s="32" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" s="32" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" s="32" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" s="32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" s="32" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" s="32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" s="32" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" s="32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" s="32" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -35225,7 +35234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -35233,24 +35242,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
   </sheetData>

--- a/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
+++ b/sinda-notes/assets/日記_2020_0701_readbackgroundcode/工程師績效評核_2020_0630.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desk\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rognp\Desktop\Big-Cold-Milk.github.io\sinda-notes\assets\日記_2020_0701_readbackgroundcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A748573D-A6CC-4C8F-8B19-A7F06B81227C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14850" windowHeight="6345" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14856" windowHeight="6348" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RD績效評核(暫時不用)" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="524">
   <si>
     <t>工程師(非擔任組長職)績效評核</t>
   </si>
@@ -2589,7 +2590,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25">
     <font>
       <sz val="11"/>
@@ -3135,6 +3136,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3171,13 +3175,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3493,19 +3494,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="5" width="21.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" customWidth="1"/>
-    <col min="7" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.44140625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="5" width="21.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="7" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -3537,12 +3538,12 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
@@ -3572,8 +3573,8 @@
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
@@ -3629,17 +3630,17 @@
       <c r="Z4" s="1"/>
     </row>
     <row r="5" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
@@ -3663,8 +3664,8 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A6" s="56"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
@@ -3697,7 +3698,7 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" s="56"/>
+      <c r="A7" s="57"/>
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +3728,7 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="56"/>
+      <c r="A8" s="57"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
@@ -3757,7 +3758,7 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" s="56"/>
+      <c r="A9" s="57"/>
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
@@ -3787,7 +3788,7 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="56"/>
+      <c r="A10" s="57"/>
       <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
@@ -3817,7 +3818,7 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A11" s="56"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
@@ -3847,7 +3848,7 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="56"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
@@ -3877,7 +3878,7 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="72.75" customHeight="1">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
@@ -3937,17 +3938,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
@@ -3971,8 +3972,8 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
       <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
@@ -4005,7 +4006,7 @@
       <c r="Z16" s="1"/>
     </row>
     <row r="17" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A17" s="56"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="3" t="s">
         <v>19</v>
       </c>
@@ -4035,7 +4036,7 @@
       <c r="Z17" s="1"/>
     </row>
     <row r="18" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A18" s="56"/>
+      <c r="A18" s="57"/>
       <c r="B18" s="3" t="s">
         <v>20</v>
       </c>
@@ -4065,7 +4066,7 @@
       <c r="Z18" s="1"/>
     </row>
     <row r="19" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A19" s="56"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="3" t="s">
         <v>21</v>
       </c>
@@ -4095,7 +4096,7 @@
       <c r="Z19" s="1"/>
     </row>
     <row r="20" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A20" s="56"/>
+      <c r="A20" s="57"/>
       <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
@@ -4125,7 +4126,7 @@
       <c r="Z20" s="1"/>
     </row>
     <row r="21" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A21" s="56"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="12" t="s">
         <v>23</v>
       </c>
@@ -4155,7 +4156,7 @@
       <c r="Z21" s="1"/>
     </row>
     <row r="22" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A22" s="56"/>
+      <c r="A22" s="57"/>
       <c r="B22" s="13" t="s">
         <v>24</v>
       </c>
@@ -4185,7 +4186,7 @@
       <c r="Z22" s="1"/>
     </row>
     <row r="23" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A23" s="56"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
@@ -4215,7 +4216,7 @@
       <c r="Z23" s="1"/>
     </row>
     <row r="24" spans="1:26" ht="66" customHeight="1">
-      <c r="A24" s="57"/>
+      <c r="A24" s="58"/>
       <c r="B24" s="9" t="s">
         <v>16</v>
       </c>
@@ -4245,13 +4246,13 @@
       <c r="Z24" s="1"/>
     </row>
     <row r="25" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -4307,11 +4308,11 @@
       <c r="B27" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="49"/>
-      <c r="E27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -4335,15 +4336,15 @@
       <c r="Z27" s="1"/>
     </row>
     <row r="28" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="56" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="63"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -4367,13 +4368,13 @@
       <c r="Z28" s="1"/>
     </row>
     <row r="29" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A29" s="56"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="64"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="66"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="67"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -4397,13 +4398,13 @@
       <c r="Z29" s="1"/>
     </row>
     <row r="30" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A30" s="56"/>
+      <c r="A30" s="57"/>
       <c r="B30" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="63"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="64"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -4427,13 +4428,13 @@
       <c r="Z30" s="1"/>
     </row>
     <row r="31" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A31" s="56"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="64"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -4457,13 +4458,13 @@
       <c r="Z31" s="1"/>
     </row>
     <row r="32" spans="1:26" ht="41.25" customHeight="1">
-      <c r="A32" s="57"/>
+      <c r="A32" s="58"/>
       <c r="B32" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
+      <c r="C32" s="49"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -4487,13 +4488,13 @@
       <c r="Z32" s="1"/>
     </row>
     <row r="33" spans="1:26" ht="17.25" customHeight="1">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="49" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="51"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -31617,7 +31618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -31627,14 +31628,14 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" ht="14.4">
       <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
@@ -31653,7 +31654,7 @@
       <c r="F1" s="16"/>
       <c r="G1" s="16"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" ht="14.4">
       <c r="A2" s="17" t="s">
         <v>38</v>
       </c>
@@ -31666,7 +31667,7 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" ht="14.4">
       <c r="A3" s="17" t="s">
         <v>39</v>
       </c>
@@ -31679,7 +31680,7 @@
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="14.4">
       <c r="A4" s="17" t="s">
         <v>40</v>
       </c>
@@ -31692,7 +31693,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="14.4">
       <c r="A5" s="17" t="s">
         <v>41</v>
       </c>
@@ -31705,7 +31706,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="18"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" ht="14.4">
       <c r="A6" s="17" t="s">
         <v>42</v>
       </c>
@@ -31718,7 +31719,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="14.4">
       <c r="A7" s="19" t="s">
         <v>43</v>
       </c>
@@ -31741,21 +31742,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G1003"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
-    <col min="8" max="26" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5546875" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="8" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" customHeight="1"/>
@@ -31763,29 +31764,29 @@
       <c r="B2" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="67" t="s">
+      <c r="E2" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="67" t="s">
+      <c r="F2" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="G2" s="69" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
     </row>
     <row r="4" spans="2:7" ht="14.25" customHeight="1">
       <c r="B4" s="68" t="s">
@@ -31804,7 +31805,7 @@
       <c r="G4" s="23"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B5" s="57"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="23"/>
@@ -31826,7 +31827,7 @@
       <c r="G6" s="23"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B7" s="57"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="23" t="s">
         <v>57</v>
       </c>
@@ -31856,7 +31857,7 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B9" s="57"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="23" t="s">
         <v>64</v>
       </c>
@@ -31882,7 +31883,7 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B11" s="57"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="23"/>
       <c r="D11" s="23" t="s">
         <v>69</v>
@@ -31908,7 +31909,7 @@
       </c>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B13" s="57"/>
+      <c r="B13" s="58"/>
       <c r="C13" s="23"/>
       <c r="D13" s="23"/>
       <c r="E13" s="23" t="s">
@@ -31930,7 +31931,7 @@
       <c r="G14" s="23"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1">
-      <c r="B15" s="57"/>
+      <c r="B15" s="58"/>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
@@ -32957,11 +32958,6 @@
     <row r="1003" ht="14.25" customHeight="1"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B2:B3"/>
@@ -32969,6 +32965,11 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -32977,22 +32978,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
-    <col min="2" max="2" width="61.28515625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="2" max="2" width="61.33203125" style="28" customWidth="1"/>
     <col min="3" max="3" width="6" style="28" customWidth="1"/>
-    <col min="4" max="16384" width="14.42578125" style="28"/>
+    <col min="4" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -33006,7 +33007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="40" customFormat="1" ht="200.25">
+    <row r="2" spans="1:3" s="40" customFormat="1" ht="191.4">
       <c r="A2" s="38" t="s">
         <v>86</v>
       </c>
@@ -33017,7 +33018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="236.25">
+    <row r="3" spans="1:3" ht="227.4">
       <c r="A3" s="27" t="s">
         <v>87</v>
       </c>
@@ -33028,7 +33029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="40" customFormat="1" ht="123">
+    <row r="4" spans="1:3" s="40" customFormat="1" ht="117.6">
       <c r="A4" s="38" t="s">
         <v>88</v>
       </c>
@@ -33050,7 +33051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="40" customFormat="1" ht="72">
+    <row r="6" spans="1:3" s="40" customFormat="1" ht="69.599999999999994">
       <c r="A6" s="38" t="s">
         <v>90</v>
       </c>
@@ -33061,7 +33062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="58.5">
+    <row r="7" spans="1:3" ht="56.4">
       <c r="A7" s="27" t="s">
         <v>91</v>
       </c>
@@ -33072,7 +33073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="40" customFormat="1" ht="57">
+    <row r="8" spans="1:3" s="40" customFormat="1" ht="55.2">
       <c r="A8" s="38" t="s">
         <v>94</v>
       </c>
@@ -33083,8 +33084,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57">
-      <c r="A9" s="69" t="s">
+    <row r="9" spans="1:3" ht="55.2">
+      <c r="A9" s="48" t="s">
         <v>95</v>
       </c>
       <c r="B9" s="27" t="s">
@@ -33094,8 +33095,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="40" customFormat="1" ht="114">
-      <c r="A10" s="47" t="s">
+    <row r="10" spans="1:3" s="40" customFormat="1" ht="110.4">
+      <c r="A10" s="48" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="38" t="s">
@@ -33105,7 +33106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="42.75">
+    <row r="11" spans="1:3" ht="41.4">
       <c r="A11" s="47" t="s">
         <v>97</v>
       </c>
@@ -33116,7 +33117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="40" customFormat="1" ht="42.75">
+    <row r="12" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A12" s="47" t="s">
         <v>99</v>
       </c>
@@ -33127,7 +33128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="28.5">
+    <row r="13" spans="1:3" ht="27.6">
       <c r="A13" s="47" t="s">
         <v>101</v>
       </c>
@@ -33138,7 +33139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="40" customFormat="1" ht="42.75">
+    <row r="14" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A14" s="47" t="s">
         <v>113</v>
       </c>
@@ -33149,7 +33150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="71.25">
+    <row r="15" spans="1:3" ht="69">
       <c r="A15" s="47" t="s">
         <v>119</v>
       </c>
@@ -33160,7 +33161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="40" customFormat="1" ht="57">
+    <row r="16" spans="1:3" s="40" customFormat="1" ht="55.2">
       <c r="A16" s="38" t="s">
         <v>92</v>
       </c>
@@ -33182,7 +33183,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="40" customFormat="1" ht="42.75">
+    <row r="18" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A18" s="38" t="s">
         <v>105</v>
       </c>
@@ -33193,7 +33194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="42.75">
+    <row r="19" spans="1:3" ht="41.4">
       <c r="A19" s="27" t="s">
         <v>107</v>
       </c>
@@ -33204,7 +33205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="40" customFormat="1" ht="99.75">
+    <row r="20" spans="1:3" s="40" customFormat="1" ht="96.6">
       <c r="A20" s="38" t="s">
         <v>111</v>
       </c>
@@ -33237,7 +33238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="28.5">
+    <row r="23" spans="1:3" ht="27.6">
       <c r="A23" s="27" t="s">
         <v>109</v>
       </c>
@@ -33248,7 +33249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="40" customFormat="1" ht="42.75">
+    <row r="24" spans="1:3" s="40" customFormat="1" ht="41.4">
       <c r="A24" s="38" t="s">
         <v>117</v>
       </c>
@@ -33259,7 +33260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="28.5">
+    <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="27" t="s">
         <v>122</v>
       </c>
@@ -33281,7 +33282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33291,11 +33292,11 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
-    <col min="2" max="2" width="50.7109375" style="28" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="2" max="2" width="50.6640625" style="28" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -33321,7 +33322,7 @@
       <c r="E2" s="27"/>
       <c r="F2" s="29"/>
     </row>
-    <row r="3" spans="1:6" ht="57">
+    <row r="3" spans="1:6" ht="55.2">
       <c r="A3" s="47" t="s">
         <v>86</v>
       </c>
@@ -33333,7 +33334,7 @@
       <c r="E3" s="27"/>
       <c r="F3" s="29"/>
     </row>
-    <row r="4" spans="1:6" ht="28.5">
+    <row r="4" spans="1:6" ht="27.6">
       <c r="A4" s="47" t="s">
         <v>87</v>
       </c>
@@ -33345,7 +33346,7 @@
       <c r="E4" s="27"/>
       <c r="F4" s="29"/>
     </row>
-    <row r="5" spans="1:6" ht="57">
+    <row r="5" spans="1:6" ht="55.2">
       <c r="A5" s="47" t="s">
         <v>88</v>
       </c>
@@ -33356,7 +33357,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.5">
+    <row r="6" spans="1:6" ht="27.6">
       <c r="A6" s="47" t="s">
         <v>90</v>
       </c>
@@ -33367,7 +33368,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="42.75">
+    <row r="7" spans="1:6" ht="41.4">
       <c r="A7" s="47" t="s">
         <v>91</v>
       </c>
@@ -33378,7 +33379,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="142.5">
+    <row r="8" spans="1:6" ht="138">
       <c r="A8" s="47" t="s">
         <v>92</v>
       </c>
@@ -33389,7 +33390,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="156.75">
+    <row r="9" spans="1:6" ht="151.80000000000001">
       <c r="A9" s="47" t="s">
         <v>135</v>
       </c>
@@ -33400,7 +33401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="114">
+    <row r="10" spans="1:6" ht="110.4">
       <c r="A10" s="47" t="s">
         <v>139</v>
       </c>
@@ -33411,7 +33412,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="185.25">
+    <row r="11" spans="1:6" ht="179.4">
       <c r="A11" s="47" t="s">
         <v>145</v>
       </c>
@@ -33433,7 +33434,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="42.75">
+    <row r="13" spans="1:6" ht="41.4">
       <c r="A13" s="27" t="s">
         <v>137</v>
       </c>
@@ -33444,7 +33445,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="28.5">
+    <row r="14" spans="1:6" ht="27.6">
       <c r="A14" s="27" t="s">
         <v>141</v>
       </c>
@@ -33455,7 +33456,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="71.25">
+    <row r="15" spans="1:6" ht="69">
       <c r="A15" s="27" t="s">
         <v>96</v>
       </c>
@@ -33466,7 +33467,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="142.5">
+    <row r="16" spans="1:6" ht="138">
       <c r="A16" s="27" t="s">
         <v>97</v>
       </c>
@@ -33477,7 +33478,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="71.25">
+    <row r="17" spans="1:3" ht="69">
       <c r="A17" s="27" t="s">
         <v>147</v>
       </c>
@@ -33488,7 +33489,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="71.25">
+    <row r="18" spans="1:3" ht="69">
       <c r="A18" s="27" t="s">
         <v>101</v>
       </c>
@@ -33499,7 +33500,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="57">
+    <row r="19" spans="1:3" ht="55.2">
       <c r="A19" s="27" t="s">
         <v>103</v>
       </c>
@@ -33521,7 +33522,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="42.75">
+    <row r="21" spans="1:3" ht="41.4">
       <c r="A21" s="27" t="s">
         <v>107</v>
       </c>
@@ -33542,7 +33543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33552,13 +33553,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="56.5703125" style="28" customWidth="1"/>
-    <col min="2" max="2" width="68.28515625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="28" customWidth="1"/>
-    <col min="4" max="4" width="105.28515625" style="28" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="56.5546875" style="28" customWidth="1"/>
+    <col min="2" max="2" width="68.33203125" style="28" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" style="28" customWidth="1"/>
+    <col min="4" max="4" width="105.33203125" style="28" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -33582,7 +33583,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="71.25">
+    <row r="3" spans="1:4" ht="69">
       <c r="A3" s="36" t="s">
         <v>455</v>
       </c>
@@ -33594,7 +33595,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="57">
+    <row r="4" spans="1:4" ht="55.2">
       <c r="A4" s="36" t="s">
         <v>458</v>
       </c>
@@ -33603,7 +33604,7 @@
       </c>
       <c r="C4" s="29"/>
     </row>
-    <row r="5" spans="1:4" ht="71.25">
+    <row r="5" spans="1:4" ht="69">
       <c r="A5" s="36" t="s">
         <v>460</v>
       </c>
@@ -33612,7 +33613,7 @@
       </c>
       <c r="C5" s="29"/>
     </row>
-    <row r="6" spans="1:4" ht="57">
+    <row r="6" spans="1:4" ht="55.2">
       <c r="A6" s="36" t="s">
         <v>462</v>
       </c>
@@ -33621,7 +33622,7 @@
       </c>
       <c r="C6" s="29"/>
     </row>
-    <row r="7" spans="1:4" ht="42.75">
+    <row r="7" spans="1:4" ht="41.4">
       <c r="A7" s="36" t="s">
         <v>464</v>
       </c>
@@ -33630,7 +33631,7 @@
       </c>
       <c r="C7" s="29"/>
     </row>
-    <row r="8" spans="1:4" ht="28.5">
+    <row r="8" spans="1:4" ht="27.6">
       <c r="A8" s="36" t="s">
         <v>466</v>
       </c>
@@ -33646,7 +33647,7 @@
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
     </row>
-    <row r="10" spans="1:4" ht="42.75">
+    <row r="10" spans="1:4" ht="41.4">
       <c r="A10" s="36" t="s">
         <v>469</v>
       </c>
@@ -33655,7 +33656,7 @@
       </c>
       <c r="C10" s="29"/>
     </row>
-    <row r="11" spans="1:4" ht="85.5">
+    <row r="11" spans="1:4" ht="82.8">
       <c r="A11" s="36" t="s">
         <v>471</v>
       </c>
@@ -33664,7 +33665,7 @@
       </c>
       <c r="C11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="57">
+    <row r="12" spans="1:4" ht="55.2">
       <c r="A12" s="36" t="s">
         <v>473</v>
       </c>
@@ -33673,7 +33674,7 @@
       </c>
       <c r="C12" s="29"/>
     </row>
-    <row r="13" spans="1:4" ht="42.75">
+    <row r="13" spans="1:4" ht="41.4">
       <c r="A13" s="36" t="s">
         <v>475</v>
       </c>
@@ -33682,7 +33683,7 @@
       </c>
       <c r="C13" s="29"/>
     </row>
-    <row r="14" spans="1:4" ht="28.5">
+    <row r="14" spans="1:4" ht="27.6">
       <c r="A14" s="36" t="s">
         <v>477</v>
       </c>
@@ -33698,7 +33699,7 @@
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
     </row>
-    <row r="16" spans="1:4" ht="42.75">
+    <row r="16" spans="1:4" ht="41.4">
       <c r="A16" s="36" t="s">
         <v>480</v>
       </c>
@@ -33707,7 +33708,7 @@
       </c>
       <c r="C16" s="29"/>
     </row>
-    <row r="17" spans="1:3" ht="57">
+    <row r="17" spans="1:3" ht="55.2">
       <c r="A17" s="36" t="s">
         <v>482</v>
       </c>
@@ -33716,7 +33717,7 @@
       </c>
       <c r="C17" s="29"/>
     </row>
-    <row r="18" spans="1:3" ht="57">
+    <row r="18" spans="1:3" ht="55.2">
       <c r="A18" s="36" t="s">
         <v>484</v>
       </c>
@@ -33725,7 +33726,7 @@
       </c>
       <c r="C18" s="29"/>
     </row>
-    <row r="19" spans="1:3" ht="71.25">
+    <row r="19" spans="1:3" ht="69">
       <c r="A19" s="36" t="s">
         <v>486</v>
       </c>
@@ -33734,7 +33735,7 @@
       </c>
       <c r="C19" s="29"/>
     </row>
-    <row r="20" spans="1:3" ht="71.25">
+    <row r="20" spans="1:3" ht="69">
       <c r="A20" s="36" t="s">
         <v>488</v>
       </c>
@@ -33743,7 +33744,7 @@
       </c>
       <c r="C20" s="29"/>
     </row>
-    <row r="21" spans="1:3" ht="45">
+    <row r="21" spans="1:3" ht="43.2">
       <c r="A21" s="36" t="s">
         <v>490</v>
       </c>
@@ -33759,7 +33760,7 @@
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
     </row>
-    <row r="23" spans="1:3" ht="57">
+    <row r="23" spans="1:3" ht="55.2">
       <c r="A23" s="36" t="s">
         <v>493</v>
       </c>
@@ -33768,7 +33769,7 @@
       </c>
       <c r="C23" s="29"/>
     </row>
-    <row r="24" spans="1:3" ht="57">
+    <row r="24" spans="1:3" ht="41.4">
       <c r="A24" s="36" t="s">
         <v>495</v>
       </c>
@@ -33777,7 +33778,7 @@
       </c>
       <c r="C24" s="29"/>
     </row>
-    <row r="25" spans="1:3" ht="28.5">
+    <row r="25" spans="1:3" ht="27.6">
       <c r="A25" s="36" t="s">
         <v>497</v>
       </c>
@@ -33793,7 +33794,7 @@
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
     </row>
-    <row r="27" spans="1:3" ht="156.75">
+    <row r="27" spans="1:3" ht="151.80000000000001">
       <c r="A27" s="36" t="s">
         <v>500</v>
       </c>
@@ -33802,7 +33803,7 @@
       </c>
       <c r="C27" s="29"/>
     </row>
-    <row r="28" spans="1:3" ht="71.25">
+    <row r="28" spans="1:3" ht="69">
       <c r="A28" s="36" t="s">
         <v>502</v>
       </c>
@@ -33811,7 +33812,7 @@
       </c>
       <c r="C28" s="29"/>
     </row>
-    <row r="29" spans="1:3" ht="42.75">
+    <row r="29" spans="1:3" ht="41.4">
       <c r="A29" s="36" t="s">
         <v>504</v>
       </c>
@@ -33820,7 +33821,7 @@
       </c>
       <c r="C29" s="29"/>
     </row>
-    <row r="30" spans="1:3" ht="57">
+    <row r="30" spans="1:3" ht="55.2">
       <c r="A30" s="36" t="s">
         <v>506</v>
       </c>
@@ -33829,7 +33830,7 @@
       </c>
       <c r="C30" s="29"/>
     </row>
-    <row r="31" spans="1:3" ht="85.5">
+    <row r="31" spans="1:3" ht="82.8">
       <c r="A31" s="36" t="s">
         <v>508</v>
       </c>
@@ -33841,14 +33842,14 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -33858,18 +33859,18 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
-    <col min="2" max="2" width="31.5703125" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="28"/>
-    <col min="5" max="5" width="38.85546875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" style="28" customWidth="1"/>
-    <col min="7" max="7" width="51.140625" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
+    <col min="2" max="2" width="31.5546875" style="28" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" style="28"/>
+    <col min="5" max="5" width="38.88671875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" style="28" customWidth="1"/>
+    <col min="7" max="7" width="51.109375" style="28" customWidth="1"/>
+    <col min="8" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75">
+    <row r="1" spans="1:7" ht="15">
       <c r="A1" s="27" t="s">
         <v>83</v>
       </c>
@@ -33889,7 +33890,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75">
+    <row r="2" spans="1:7" ht="15">
       <c r="A2" s="31" t="s">
         <v>86</v>
       </c>
@@ -33909,7 +33910,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75">
+    <row r="3" spans="1:7" ht="15">
       <c r="A3" s="31" t="s">
         <v>87</v>
       </c>
@@ -34009,7 +34010,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7">
       <c r="A8" s="31" t="s">
         <v>92</v>
       </c>
@@ -34277,7 +34278,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="28" spans="5:7" ht="30">
+    <row r="28" spans="5:7">
       <c r="E28" s="32" t="s">
         <v>240</v>
       </c>
@@ -34617,7 +34618,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="5:7" ht="30">
+    <row r="60" spans="5:7">
       <c r="E60" s="32" t="s">
         <v>332</v>
       </c>
@@ -34938,14 +34939,14 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A15" r:id="rId1"/>
+    <hyperlink ref="A15" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -34955,16 +34956,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="28"/>
+    <col min="1" max="1" width="14.44140625" style="28"/>
     <col min="2" max="2" width="32" style="28" customWidth="1"/>
-    <col min="3" max="4" width="14.42578125" style="28"/>
-    <col min="5" max="5" width="45.7109375" style="28" customWidth="1"/>
-    <col min="6" max="16384" width="14.42578125" style="28"/>
+    <col min="3" max="4" width="14.44140625" style="28"/>
+    <col min="5" max="5" width="45.6640625" style="28" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="57.75">
+    <row r="1" spans="1:5" ht="55.8">
       <c r="A1" s="33" t="s">
         <v>410</v>
       </c>
@@ -34986,7 +34987,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
+    <row r="3" spans="1:5">
       <c r="A3" s="27" t="s">
         <v>124</v>
       </c>
@@ -35056,7 +35057,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5">
       <c r="A8" s="27" t="s">
         <v>90</v>
       </c>
@@ -35075,7 +35076,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="75">
+    <row r="10" spans="1:5" ht="57.6">
       <c r="A10" s="32" t="s">
         <v>425</v>
       </c>
@@ -35097,7 +35098,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
+    <row r="12" spans="1:5">
       <c r="A12" s="27" t="s">
         <v>124</v>
       </c>
@@ -35234,7 +35235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -35242,9 +35243,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
